--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -533,42 +533,43 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
+          <t>BCIO:013005</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attention through cognitive engagement </t>
+          <t xml:space="preserve">BCI engagement event </t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Attending (MF_0000018)</t>
+          <t xml:space="preserve">EH - not yet decided </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Cognitive engagement</t>
+          <t>behavioural engagement</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Cognitive engagement that involves attention.</t>
+          <t>A process that is a BCI engagement.  --- could this be: an episode that involves bci engagement?
+need to define event.  llok at event/episode   define.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>This includes...</t>
-        </is>
-      </c>
+      <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
       <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>What is the parent, need to review defintion</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -585,32 +586,40 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013005</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BCI engagement event</t>
+          <t>Behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">EH - not yet decided </t>
+          <t>Individual human activity</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
+          <t>BCI Population</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>BCI Scenario</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>A process that is a BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr"/>
+          <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>The individual human activity (e.g. attending a class) enables (makes it possible) for the BCI to influence the outcome behaviour. However, the outcome behaviour may not necessarily change, this wil depend on factors such as the suitablility of the intervention too</t>
+        </is>
+      </c>
       <c r="I3" s="2" t="inlineStr"/>
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr"/>
@@ -618,7 +627,7 @@
       <c r="M3" s="2" t="inlineStr"/>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>What is the parent, need to review defintion</t>
+          <t>Can we add informal defs for stakeholder revieew as definitions reliant on other definitions</t>
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr">
@@ -637,50 +646,42 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
+          <t>Behavioural engagement</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
           <t>Behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>BCI Population</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>BCI Scenario</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Behaviour change intervention engagement</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>The individual human activity (e.g. attending a class) enables (makes it possible) for the BCI to influence the outcome behaviour. However, the outcome behaviour may not necessarily change, this wil depend on factors such as the suitablility of the intervention too</t>
-        </is>
-      </c>
+          <t>Behaviour change intervention engagement that involves enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>This includes eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
+        </is>
+      </c>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>Can we add informal defs for stakeholder revieew as definitions reliant on other definitions</t>
-        </is>
-      </c>
+      <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -697,12 +698,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013010</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Behavioural engagement</t>
+          <t>Cognitive engagement</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -712,27 +713,23 @@
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
+      <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention engagement that involves enacting a behaviour.</t>
+          <t>Behaviour change intervention engagement that involves cognition.</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>This includes eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
-        </is>
-      </c>
+      <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Needs definition of cognition / explanation - do we add "(attention, comprehension, evaluation)" or define cognition. Enough that definitions are in parent class? Relationship to an MoA? </t>
+        </is>
+      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -747,100 +744,506 @@
       <c r="R5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013040</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Cognitive engagement</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement that involves cognition.</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Needs definition of cognition / explanation - do we add "(attention, comprehension, evaluation)" or define cognition. Enough that definitions are in parent class? Relationship to an MoA? </t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013085</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Decreased engagement</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> remove  </t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013050</t>
+          <t>BCIO:013025</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Comprehension through cognitive engagement</t>
+          <t>Duration of BCI engagement events</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Comprehension (MoA Ontology)</t>
+          <t>Time measurement datum (IAO_0000416 )</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Cognitive engagement</t>
+          <t>Behavioural engagement</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Cognitive engagement that involves comprehension.</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comprehension might be described as an outcome of the intervention. It is an example of BCI engagement even if not explicitly stated as a measure of engagement in the report. Comprehension of the intervention content demonstrates engagement regardless of how it is reported.  </t>
-        </is>
-      </c>
+          <t>A data item that is about the duration of BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>This includes comprehension of meaning, requirements or importance.</t>
+          <t xml:space="preserve">This includes length of sessions or log ins. </t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To confirm, "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
+</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013020</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Frequency of BCI engagement events</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Frequency (SIO_001367)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural engagement</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the frequency of BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes hourly, daily, weekly or monthly encounters. </t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013080</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Increased engagement</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remove
+</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013015</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Number of BCI engagement events</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data item (STATO_0000047) </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural engagement</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>A count data item that is about BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>This includes number sessions attended, worksheets initiated, log ins, online posts, online responses, the amount of content viewed or the number of non-consecutive days an intervention was engaged with.</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>Previously agreed to use 3 annotations: "proportion" "behaviour" "value" when needed.​
+"*40*% of participants *logged in*  *3* times" ​
+Does the same apply to actual numbers rather than proportions?​
+"*three* young people *attended*  *two* sessions"​</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013090</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Same engagement</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr"/>
+      <c r="R11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013035</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Total duration of BCI engagement</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Time measurement datum (IAO_0000416 )</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural engagement</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the total duration of BCI engagement.</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013030</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Total duration of BCI engagement events</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Time measurement datum (IAO_0000416 )</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural engagement</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the total duration of BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013045</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement through attention 
+multipart label: focus should be on the kind of thing that it is i.e. cognitive engagement. And the parent</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>attending (MF_0000018)    (be aware of other meaning ... attending a class etc.) add to elaboration - attention</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement that involves attention.</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>This includes...</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013050</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cognitive engagement through comprehension </t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comprehension (MoA Ontology)  (add comprhending to elaboration) </t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement that involves comprehension.</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comprehension might be described as an outcome of the intervention. It is an example of BCI engagement even if not explicitly stated as a measure of engagement in the report. Comprehension of the intervention content demonstrates engagement regardless of how it is reported.  </t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>This includes comprehension of meaning, requirements or importance.</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>What about skills?
 "Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
@@ -850,403 +1253,6 @@
 *Perceived* knowledge post intervention: is this comprehension or evaluation</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013085</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Decreased engagement</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr"/>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="inlineStr"/>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P8" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="inlineStr"/>
-      <c r="R8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013025</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Duration of BCI engagement events</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the duration of BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes length of sessions or log ins. </t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To confirm, "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
-</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013060</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Emotional engagement</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement that involves emotion.</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013065</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Enjoyment through emotional engagement</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Enjoyment (MFOEM_000218)</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Emotional engagement</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>Emotional engagement that involves enjoyment.</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>This includes creating enjoyment through gamification or fun activities.</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013055</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Evaluation through cognitive engagement</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Evaluative belief (MoA Ontology)</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Cognitive engagement</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cognitive engagement that involves evaluation </t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>This includes evaluations of usefulness, usability or effectiveness.</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013020</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Frequency of BCI engagement events</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Frequency (SIO_001367)</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the frequency of BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes hourly, daily, weekly or monthly encounters. </t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013080</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Increased engagement</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr"/>
-      <c r="R14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013075</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Interest through emotional engagement</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Interest (MFOEM_000033)</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Emotional engagement</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Emotional engagement that involves interest.</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>This includes creating interest by being informative or creating a desire to learn more.</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
       <c r="O15" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -1263,53 +1269,42 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013015</t>
+          <t>BCIO:013055</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Number of BCI engagement events</t>
+          <t>cognitive engagement through evaluation</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data item (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
+          <t>cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evaluative belief (MoA Ontology)  --- not a process, so need 'appraising' in MF  </t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is about BCI engagement events.</t>
+          <t xml:space="preserve">cognitive engagement that involves evaluation </t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>This includes number sessions attended, worksheets initiated, log ins, online posts, online responses, the amount of content viewed or the number of non-consecutive days an intervention was engaged with.</t>
+          <t>This includes evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>Previously agreed to use 3 annotations: "proportion" "behaviour" "value" when needed.​
-"*40*% of participants *logged in*  *3* times" ​
-Does the same apply to actual numbers rather than proportions?​
-"*three* young people *attended*  *two* sessions"​</t>
-        </is>
-      </c>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -1324,74 +1319,86 @@
       <c r="R16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013090</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Same engagement</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="inlineStr"/>
-      <c r="R17" s="3" t="inlineStr"/>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013060</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement that involves emotion.</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013070</t>
+          <t>BCIO:013065</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Satisfaction through emotional engagement</t>
+          <t>emotional engagement through enjoyment</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Contentment (MFOEM_000047)</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
           <t>Emotional engagement</t>
         </is>
       </c>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>enjoyment (MFOEM_000218)</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Emotional engagement that involves satisfaction.</t>
+          <t>emotional engagement that involves enjoyment.</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes creating satisfaction by fulfilling needs, expectations or wishes. </t>
+          <t>This includes creating enjoyment through gamification or fun activities.</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr"/>
@@ -1414,41 +1421,41 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013035</t>
+          <t>BCIO:013075</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Total duration of BCI engagement</t>
+          <t xml:space="preserve">emotional engagement through interest </t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
+          <t>Emotional engagement</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">interest (MFOEM_000033)  --- note not all interest is a process. </t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the total duration of BCI engagement.</t>
+          <t>emotional engagement that involves interest.</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>This entity includes creating interest in the intervention by it being informative or creating a desire to learn more.</t>
+        </is>
+      </c>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr">
         <is>
@@ -1466,41 +1473,41 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013030</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Total duration of BCI engagement events</t>
+          <t xml:space="preserve">emotional engagement through satisfaction </t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
+          <t>Emotional engagement</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>contentment (MFOEM_000047)  -- add satisfaction to MoA ontology</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the total duration of BCI engagement events.</t>
+          <t>emotional engagement that involves satisfaction.</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes creating satisfaction by fulfilling needs, expectations or wishes. </t>
+        </is>
+      </c>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr">
         <is>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -584,253 +584,221 @@
       <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013085</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Decreased engagement</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> remove  </t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013080</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Increased engagement</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remove
+</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr"/>
+      <c r="R4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013090</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Same engagement</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>BCIO:013000</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>BCI Population</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>BCI Scenario</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>BCI population</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>The individual human activity (e.g. attending a class) enables (makes it possible) for the BCI to influence the outcome behaviour. However, the outcome behaviour may not necessarily change, this wil depend on factors such as the suitablility of the intervention too</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>Can we add informal defs for stakeholder revieew as definitions reliant on other definitions</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013010</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement that involves enacting a behaviour.</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>This includes eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013040</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Cognitive engagement</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement that involves cognition.</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Needs definition of cognition / explanation - do we add "(attention, comprehension, evaluation)" or define cognition. Enough that definitions are in parent class? Relationship to an MoA? </t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013085</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Decreased engagement</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> remove  </t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr"/>
-      <c r="K6" s="3" t="inlineStr"/>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="inlineStr"/>
-      <c r="N6" s="3" t="inlineStr"/>
-      <c r="O6" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P6" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="inlineStr"/>
-      <c r="R6" s="3" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Duration of BCI engagement events</t>
+          <t>behavioural engagement</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the duration of BCI engagement events.</t>
+          <t>Behaviour change intervention engagement that involves enacting a behaviour.</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes length of sessions or log ins. </t>
+          <t>This includes eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To confirm, "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
-</t>
-        </is>
-      </c>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -847,46 +815,38 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013020</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Frequency of BCI engagement events</t>
+          <t>cognitive engagement</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Frequency (SIO_001367)</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the frequency of BCI engagement events.</t>
+          <t>Behaviour change intervention engagement that involves cognition.</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes hourly, daily, weekly or monthly encounters. </t>
-        </is>
-      </c>
+      <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Needs definition of cognition / explanation - do we add "(attention, comprehension, evaluation)" or define cognition. Enough that definitions are in parent class? Relationship to an MoA? </t>
+        </is>
+      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -901,349 +861,106 @@
       <c r="R8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013080</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Increased engagement</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">remove
-</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr">
-        <is>
-          <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
-        </is>
-      </c>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="inlineStr"/>
-      <c r="R9" s="3" t="inlineStr"/>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013045</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement through attention 
+multipart label: focus should be on the kind of thing that it is i.e. cognitive engagement. And the parent</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">attending (MF_0000018)   </t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement that involves attention.</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (be aware of other meaning ... attending a class etc.) add to elaboration - attention</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>This includes...</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013015</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Number of BCI engagement events</t>
+          <t xml:space="preserve">cognitive engagement through comprehension </t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data item (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
+          <t>cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comprehension (MoA Ontology)  </t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is about BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr"/>
+          <t>cognitive engagement that involves comprehension.</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(add comprhending to elaboration) 
+Comprehension might be described as an outcome of the intervention. It is an example of BCI engagement even if not explicitly stated as a measure of engagement in the report. Comprehension of the intervention content demonstrates engagement regardless of how it is reported.  </t>
+        </is>
+      </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>This includes number sessions attended, worksheets initiated, log ins, online posts, online responses, the amount of content viewed or the number of non-consecutive days an intervention was engaged with.</t>
+          <t>This includes comprehension of meaning, requirements or importance.</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>Previously agreed to use 3 annotations: "proportion" "behaviour" "value" when needed.​
-"*40*% of participants *logged in*  *3* times" ​
-Does the same apply to actual numbers rather than proportions?​
-"*three* young people *attended*  *two* sessions"​</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013090</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Same engagement</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="inlineStr"/>
-      <c r="R11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013035</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Total duration of BCI engagement</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the total duration of BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013030</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Total duration of BCI engagement events</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural engagement</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the total duration of BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013045</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>cognitive engagement through attention 
-multipart label: focus should be on the kind of thing that it is i.e. cognitive engagement. And the parent</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Cognitive engagement</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>attending (MF_0000018)    (be aware of other meaning ... attending a class etc.) add to elaboration - attention</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>cognitive engagement that involves attention.</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>This includes...</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013050</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cognitive engagement through comprehension </t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Cognitive engagement</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comprehension (MoA Ontology)  (add comprhending to elaboration) </t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>cognitive engagement that involves comprehension.</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comprehension might be described as an outcome of the intervention. It is an example of BCI engagement even if not explicitly stated as a measure of engagement in the report. Comprehension of the intervention content demonstrates engagement regardless of how it is reported.  </t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>This includes comprehension of meaning, requirements or importance.</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>What about skills?
 "Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
@@ -1253,6 +970,271 @@
 *Perceived* knowledge post intervention: is this comprehension or evaluation</t>
         </is>
       </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013055</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement through evaluation</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evaluative belief (MoA Ontology)  --- not a process, so need 'appraising' in MF  </t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cognitive engagement that involves evaluation </t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>This includes evaluations of usefulness, relevance usability or effectiveness.</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013025</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>duration of BCI engagement events</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Time measurement datum (IAO_0000416 )</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>behavioural engagement</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the duration of BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes length of sessions or log ins. </t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To confirm, "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
+</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013060</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement that involves emotion.</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013065</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement through enjoyment</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>enjoyment (MFOEM_000218)</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement that involves enjoyment.</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>This includes creating enjoyment through gamification or fun activities.</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013075</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">emotional engagement through interest </t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">interest (MFOEM_000033)  --- note not all interest is a process. </t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement that involves interest.</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>This entity includes creating interest in the intervention by it being informative or creating a desire to learn more.</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
       <c r="O15" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -1269,36 +1251,36 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement through evaluation</t>
+          <t xml:space="preserve">emotional engagement through satisfaction </t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement</t>
+          <t>emotional engagement</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluative belief (MoA Ontology)  --- not a process, so need 'appraising' in MF  </t>
+          <t>contentment (MFOEM_000047)  -- add satisfaction to MoA ontology</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive engagement that involves evaluation </t>
+          <t>emotional engagement that involves satisfaction.</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>This includes evaluations of usefulness, relevance usability or effectiveness.</t>
+          <t xml:space="preserve">This includes creating satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr"/>
@@ -1321,37 +1303,45 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
+          <t>BCIO:013020</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement</t>
+          <t>frequency of BCI engagement events</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
+          <t>frequency (SIO_001367)</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>behavioural engagement</t>
+        </is>
+      </c>
       <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement that involves emotion.</t>
+          <t>A data item that is about the frequency of BCI engagement events.</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes hourly, daily, weekly or monthly encounters. </t>
+        </is>
+      </c>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr">
         <is>
@@ -1369,42 +1359,53 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>BCIO:013015</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement through enjoyment</t>
+          <t>number of BCI engagement events</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Emotional engagement</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t xml:space="preserve">data item (STATO_0000047) </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>behavioural engagement</t>
+        </is>
+      </c>
       <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>enjoyment (MFOEM_000218)</t>
-        </is>
-      </c>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement that involves enjoyment.</t>
+          <t>A count data item that is about BCI engagement events.</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>This includes creating enjoyment through gamification or fun activities.</t>
+          <t>This includes number sessions attended, worksheets initiated, log ins, online posts, online responses, the amount of content viewed or the number of non-consecutive days an intervention was engaged with.</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>Previously agreed to use 3 annotations: "proportion" "behaviour" "value" when needed.​
+"*40*% of participants *logged in*  *3* times" ​
+Does the same apply to actual numbers rather than proportions?​
+"*three* young people *attended*  *two* sessions"​</t>
+        </is>
+      </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
           <t>EJH</t>
@@ -1421,41 +1422,41 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
+          <t>BCIO:013035</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">emotional engagement through interest </t>
+          <t>total duration of BCI engagement</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Emotional engagement</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
+          <t>Time measurement datum (IAO_0000416 )</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>behavioural engagement</t>
+        </is>
+      </c>
       <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">interest (MFOEM_000033)  --- note not all interest is a process. </t>
-        </is>
-      </c>
+      <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement that involves interest.</t>
+          <t>A data item that is about the total duration of BCI engagement.</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>This entity includes creating interest in the intervention by it being informative or creating a desire to learn more.</t>
-        </is>
-      </c>
+      <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr">
         <is>
@@ -1473,41 +1474,41 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013070</t>
+          <t>BCIO:013030</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">emotional engagement through satisfaction </t>
+          <t>total duration of BCI engagement events</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Emotional engagement</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>time measurement datum (IAO_0000416 )</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>behavioural engagement</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>contentment (MFOEM_000047)  -- add satisfaction to MoA ontology</t>
-        </is>
-      </c>
+      <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement that involves satisfaction.</t>
+          <t>A data item that is about the total duration of BCI engagement events.</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes creating satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
+      <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr">
         <is>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -44,7 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,7 +617,7 @@
       </c>
       <c r="P3" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="Q3" s="3" t="inlineStr"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="Q5" s="3" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">EH - not yet decided </t>
+          <t>process</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -555,8 +555,7 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>A process that is a BCI engagement.  --- could this be: an episode that involves bci engagement?
-need to define event.  llok at event/episode   define.</t>
+          <t>EH: an occasion of BCI engagement.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t xml:space="preserve">EH - not yet decided </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -555,10 +555,15 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>EH: an occasion of BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
+          <t>A process that is a BCI engagement.  --- could this be: an episode that involves bci engagement?
+need to define event.  llok at event/episode   define.</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>A planned thing that takes place and involves an individual(s) being engaged by what is taking place/happening</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
@@ -571,7 +576,7 @@
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
@@ -737,7 +742,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>The individual human activity (e.g. attending a class) enables (makes it possible) for the BCI to influence the outcome behaviour. However, the outcome behaviour may not necessarily change, this wil depend on factors such as the suitablility of the intervention too</t>
+          <t>Actions or behaviours of an individual that leads to being engaged in an intervention (intervention content)</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr"/>
@@ -752,7 +757,7 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
@@ -787,11 +792,15 @@
           <t>Behaviour change intervention engagement that involves enacting a behaviour.</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through a behavioural response to an intervention (intervention content). Examples are: body movements, online activity, reading content etc.</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>This includes eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
+          <t>Behavioual engagement includes eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr"/>
@@ -800,7 +809,7 @@
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -835,7 +844,11 @@
           <t>Behaviour change intervention engagement that involves cognition.</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through cognitive responses to an intervention (intervention content). Examples of these are demonstrating understanding or learning of the intervention content (material).</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
@@ -848,7 +861,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -890,13 +903,13 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (be aware of other meaning ... attending a class etc.) add to elaboration - attention</t>
+          <t>Engagement through the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>This includes...</t>
+          <t>Cognitive engagement includes understanding</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr"/>
@@ -905,7 +918,7 @@
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
@@ -946,14 +959,16 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">(add comprhending to elaboration) 
+          <t xml:space="preserve">Engagement through the ability to understand completely and be familiar with a situation, facts, etc
 Comprehension might be described as an outcome of the intervention. It is an example of BCI engagement even if not explicitly stated as a measure of engagement in the report. Comprehension of the intervention content demonstrates engagement regardless of how it is reported.  </t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>This includes comprehension of meaning, requirements or importance.</t>
+          <t xml:space="preserve">This includes comprehension of meaning, requirements or importance.
+Understanding, reasoning, decision making etc
+</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr"/>
@@ -971,7 +986,7 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1002,7 +1017,7 @@
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluative belief (MoA Ontology)  --- not a process, so need 'appraising' in MF  </t>
+          <t>Evaluative belief (MoA Ontology)   MFOEM:000002 appraisal process</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1025,11 @@
           <t xml:space="preserve">cognitive engagement that involves evaluation </t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through the process of judging or calculating the quality, importance, amount, or value of the intervention content</t>
+        </is>
+      </c>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
@@ -1023,7 +1042,7 @@
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
@@ -1062,7 +1081,11 @@
           <t>A data item that is about the duration of BCI engagement events.</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>The length of time of an event that takes place where the participant can be engaged in the intervention (content).</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1084,7 +1107,7 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
@@ -1123,7 +1146,11 @@
           <t>behaviour change intervention engagement that involves emotion.</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through the act of having or expressing strong feelings in relation to the intervention (content)</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr"/>
@@ -1132,7 +1159,7 @@
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
@@ -1171,7 +1198,11 @@
           <t>emotional engagement that involves enjoyment.</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through a feeling of happiness or pleasure from interacting with the intervention content</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr">
         <is>
@@ -1184,7 +1215,7 @@
       <c r="N14" s="2" t="inlineStr"/>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
@@ -1223,7 +1254,11 @@
           <t>emotional engagement that involves interest.</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through the feeling of wanting to give your attention to something or of wanting to be involved with and to discover more about the intervention content</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1236,7 +1271,7 @@
       <c r="N15" s="2" t="inlineStr"/>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
@@ -1275,7 +1310,11 @@
           <t>emotional engagement that involves satisfaction.</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through a pleasant feeling as though you have done or received something you wanted through interacting with the intervention content</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr">
         <is>
@@ -1288,7 +1327,7 @@
       <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -1327,7 +1366,11 @@
           <t>A data item that is about the frequency of BCI engagement events.</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>The number of times an event occurs within a particular period where the participant can be engaged in the intervention (content)</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
@@ -1344,7 +1387,7 @@
       <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
@@ -1383,7 +1426,11 @@
           <t>A count data item that is about BCI engagement events.</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>The amount of events that take place within a particular period where the participant can be engaged in the intervention (content)</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1407,7 +1454,7 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
@@ -1446,7 +1493,11 @@
           <t>A data item that is about the total duration of BCI engagement.</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>The total length of time of all possible events that take place within the planned period where the participant can be engaged in the intervention (content)</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
@@ -1459,7 +1510,7 @@
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
@@ -1498,7 +1549,11 @@
           <t>A data item that is about the total duration of BCI engagement events.</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>The total number of events that take place within the planned period where the participant can be engaged in the intervention (content)</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
@@ -1511,7 +1566,7 @@
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1302,7 +1302,7 @@
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>contentment (MFOEM_000047)  -- add satisfaction to MoA ontology</t>
+          <t>contentment (MFOEM_000047)  -- satisfaction (MFOEM:000169)</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">EH - not yet decided </t>
+          <t>process</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -555,13 +555,12 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>A process that is a BCI engagement.  --- could this be: an episode that involves bci engagement?
-need to define event.  llok at event/episode   define.</t>
+          <t xml:space="preserve">A process that is BCI engagement. </t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>A planned thing that takes place and involves an individual(s) being engaged by what is taking place/happening</t>
+          <t>A thing that takes place and involves an individual being engaged by what is taking place orhappening</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr"/>
@@ -740,11 +739,7 @@
           <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Actions or behaviours of an individual that leads to being engaged in an intervention (intervention content)</t>
-        </is>
-      </c>
+      <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
@@ -794,7 +789,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Engagement through a behavioural response to an intervention (intervention content). Examples are: body movements, online activity, reading content etc.</t>
+          <t>Actions or behaviours of an individual that constitute being engaged in an intervention</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr"/>
@@ -846,11 +841,15 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>Engagement through cognitive responses to an intervention (intervention content). Examples of these are demonstrating understanding or learning of the intervention content (material).</t>
+          <t>Cognitive engagement is often measured through demonstrating understanding, learning or recall of the intervention content</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Recall, understanding</t>
+        </is>
+      </c>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
@@ -966,9 +965,9 @@
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes comprehension of meaning, requirements or importance.
+          <t>This includes comprehension of meaning, requirements or importance.
 Understanding, reasoning, decision making etc
-</t>
+ Formal test, feedback</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr"/>
@@ -1083,7 +1082,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>The length of time of an event that takes place where the participant can be engaged in the intervention (content).</t>
+          <t>The length of time of an event that takes place where the participant can be engaged in the intervention</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>A thing that takes place and involves an individual being engaged by what is taking place orhappening</t>
+          <t>An event that takes place and involves an individual being engaged by what is taking place or happening during this event</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr"/>
@@ -787,15 +787,11 @@
           <t>Behaviour change intervention engagement that involves enacting a behaviour.</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Actions or behaviours of an individual that constitute being engaged in an intervention</t>
-        </is>
-      </c>
+      <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Behavioual engagement includes eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
+          <t>Eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr"/>
@@ -841,15 +837,11 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>Cognitive engagement is often measured through demonstrating understanding, learning or recall of the intervention content</t>
+          <t>Demonstrating understanding, learning or recall of the intervention content. The act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Recall, understanding</t>
-        </is>
-      </c>
+      <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
@@ -900,17 +892,9 @@
           <t>cognitive engagement that involves attention.</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Engagement through the act of directing the mind to see, listen or understand.</t>
-        </is>
-      </c>
+      <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Cognitive engagement includes understanding</t>
-        </is>
-      </c>
+      <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr"/>
@@ -956,18 +940,11 @@
           <t>cognitive engagement that involves comprehension.</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engagement through the ability to understand completely and be familiar with a situation, facts, etc
-Comprehension might be described as an outcome of the intervention. It is an example of BCI engagement even if not explicitly stated as a measure of engagement in the report. Comprehension of the intervention content demonstrates engagement regardless of how it is reported.  </t>
-        </is>
-      </c>
+      <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>This includes comprehension of meaning, requirements or importance.
-Understanding, reasoning, decision making etc
- Formal test, feedback</t>
+          <t>This includes comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr"/>
@@ -1024,15 +1001,11 @@
           <t xml:space="preserve">cognitive engagement that involves evaluation </t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Engagement through the process of judging or calculating the quality, importance, amount, or value of the intervention content</t>
-        </is>
-      </c>
+      <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>This includes evaluations of usefulness, relevance usability or effectiveness.</t>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr"/>
@@ -1080,15 +1053,11 @@
           <t>A data item that is about the duration of BCI engagement events.</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>The length of time of an event that takes place where the participant can be engaged in the intervention</t>
-        </is>
-      </c>
+      <c r="H12" s="2" t="inlineStr"/>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes length of sessions or log ins. </t>
+          <t xml:space="preserve">Length of sessions or log ins. </t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr"/>
@@ -1147,7 +1116,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>Engagement through the act of having or expressing strong feelings in relation to the intervention (content)</t>
+          <t>Engagement through the act of having or expressing strong feelings in relation to an intervention (not sure this fits)</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
@@ -1199,15 +1168,11 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Engagement through a feeling of happiness or pleasure from interacting with the intervention content</t>
+          <t>Creating enjoyment through gamification or fun activities.</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>This includes creating enjoyment through gamification or fun activities.</t>
-        </is>
-      </c>
+      <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
@@ -1255,15 +1220,11 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Engagement through the feeling of wanting to give your attention to something or of wanting to be involved with and to discover more about the intervention content</t>
+          <t>Creating interest in the intervention by it being informative or creating a desire to learn more.</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>This entity includes creating interest in the intervention by it being informative or creating a desire to learn more.</t>
-        </is>
-      </c>
+      <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="inlineStr"/>
@@ -1311,15 +1272,11 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Engagement through a pleasant feeling as though you have done or received something you wanted through interacting with the intervention content</t>
+          <t xml:space="preserve">Creating satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes creating satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
+      <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr"/>
@@ -1365,15 +1322,11 @@
           <t>A data item that is about the frequency of BCI engagement events.</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>The number of times an event occurs within a particular period where the participant can be engaged in the intervention (content)</t>
-        </is>
-      </c>
+      <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes hourly, daily, weekly or monthly encounters. </t>
+          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr"/>
@@ -1425,15 +1378,11 @@
           <t>A count data item that is about BCI engagement events.</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>The amount of events that take place within a particular period where the participant can be engaged in the intervention (content)</t>
-        </is>
-      </c>
+      <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>This includes number sessions attended, worksheets initiated, log ins, online posts, online responses, the amount of content viewed or the number of non-consecutive days an intervention was engaged with.</t>
+          <t>Number sessions attended, worksheets initiated, log ins, online posts, online responses, the amount of content viewed or the number of non-consecutive days an intervention was engaged with.</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr"/>
@@ -1494,7 +1443,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>The total length of time of all possible events that take place within the planned period where the participant can be engaged in the intervention (content)</t>
+          <t>The total length of time that a participant is considered to be engaged in the intervention content</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
@@ -1548,13 +1497,13 @@
           <t>A data item that is about the total duration of BCI engagement events.</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>The total number of events that take place within the planned period where the participant can be engaged in the intervention (content)</t>
-        </is>
-      </c>
+      <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>A unit of time, 90 minutes; 12 hours, summed across all engagement events</t>
+        </is>
+      </c>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -548,14 +548,14 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>behavioural engagement</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process that is BCI engagement. </t>
+          <t>An occasion of BCI engagement</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -570,7 +570,7 @@
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>What is the parent, need to review defintion</t>
+          <t>ACTIONS: please review parent and defintition</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
@@ -587,106 +587,155 @@
       <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013085</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Decreased engagement</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> remove  </t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="inlineStr"/>
-      <c r="R3" s="3" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013025</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>BCI engagement event duration</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>behavioural engagement</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a BCI engagement event.</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the length of an engagement event.</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>A 30 minute session, 1 hour spent 'logged in'.</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ACTIONS: Please review informal defintion and annotation note below. 
+Annotation note: "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
+</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>EJH; Ai</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013080</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Increased engagement</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">remove
-</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr"/>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="inlineStr"/>
-      <c r="R4" s="3" t="inlineStr"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013020</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>BCI engagement event frequency</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>behavioural engagement</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of BCI engagement that is how often engagement events occur.</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Describes the frequency of all BCI engagement (e.g., participants received contact weekly), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month).</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Including hourly, daily, weekly or monthly encounters, etc. </t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>ACTIONS: please review elaboration</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>EJH; Ai</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013090</t>
+          <t>BCIO:013085</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Same engagement</t>
+          <t>Decreased engagement</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> remove  </t>
+        </is>
+      </c>
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
@@ -708,148 +757,125 @@
       <c r="R5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013000</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>BCI population</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>Can we add informal defs for stakeholder revieew as definitions reliant on other definitions</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013080</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Increased engagement</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">remove
+</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013010</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>behavioural engagement</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention engagement that involves enacting a behaviour.</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013090</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Same engagement</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr"/>
+      <c r="R7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>BCI population</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention engagement that involves cognition.</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Demonstrating understanding, learning or recall of the intervention content. The act of directing the mind to see, listen or understand.</t>
-        </is>
-      </c>
+          <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Needs definition of cognition / explanation - do we add "(attention, comprehension, evaluation)" or define cognition. Enough that definitions are in parent class? Relationship to an MoA? </t>
-        </is>
-      </c>
+      <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -866,39 +892,42 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement through attention 
-multipart label: focus should be on the kind of thing that it is i.e. cognitive engagement. And the parent</t>
+          <t>behavioural engagement</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">attending (MF_0000018)   </t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement that involves attention.</t>
+          <t>BCI engagement that involves enacting a behaviour.</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
+        </is>
+      </c>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>no changes</t>
+        </is>
+      </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -915,49 +944,45 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013050</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive engagement through comprehension </t>
+          <t>cognitive engagement</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">comprehension (MoA Ontology)  </t>
+          <t>cognitive process (MF:0000008)   ADDED THIS SO THAT DEFINITION IS NOT CIRCULAR</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement that involves comprehension.</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr"/>
+          <t xml:space="preserve">Behaviour change intervention engagement that involves a cognitive process. 
+</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Demonstrating understanding, learning or recall of the intervention content. The act of directing the mind to see, listen or understand.</t>
+        </is>
+      </c>
       <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>This includes comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
+      <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>What about skills?
-"Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
-okay to be both an MoA and evidence of engagement? ​
-E.g. Knowledge: "Knowledge: It was assessed through a multiple-choice quiz including 10 items about general and specific back care knowledge based on the content of back promotion​
-program... 
-*Perceived* knowledge post intervention: is this comprehension or evaluation</t>
+          <t>ACTIONS: please review REL: has process part</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -976,12 +1001,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
+          <t>BCIO:013045</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement through evaluation</t>
+          <t xml:space="preserve">cognitive engagement through attention </t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -993,21 +1018,17 @@
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Evaluative belief (MoA Ontology)   MFOEM:000002 appraisal process</t>
+          <t xml:space="preserve">attending (MF_0000018)   </t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive engagement that involves evaluation </t>
+          <t>cognitive engagement that involves attention.</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
-        </is>
-      </c>
+      <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr"/>
@@ -1028,49 +1049,51 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>duration of BCI engagement events</t>
+          <t xml:space="preserve">cognitive engagement through comprehension </t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>behavioural engagement</t>
-        </is>
-      </c>
+          <t>cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comprehension (MoA Ontology)  </t>
+        </is>
+      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the duration of BCI engagement events.</t>
+          <t>cognitive engagement that involves comprehension.</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Length of sessions or log ins. </t>
+          <t>This includes comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">To confirm, "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
-</t>
+          <t>ACTIONS: please review 3 annotation queries below.
+Annotation queries: 
+1) What about skills? Do new skills demonstrate comprehension of the intervention content? e.g.,
+"Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
+2) Is it okay for something to be both an MoA and evidence of engagement? ​
+E.g. Knowledge: "Knowledge: It was assessed through a multiple-choice quiz including 10 items about general and specific back care knowledge based on the content of back promotion​
+program... 
+3) *Perceived* knowledge post intervention: is this comprehension or evaluation</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
@@ -1089,34 +1112,34 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
+          <t>BCIO:013055</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement</t>
+          <t>cognitive engagement through evaluation</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>cognitive engagement</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t xml:space="preserve">appraisal process MFOEM:000002 </t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement that involves emotion.</t>
+          <t xml:space="preserve">cognitive engagement that involves an appraisal process. </t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>Engagement through the act of having or expressing strong feelings in relation to an intervention (not sure this fits)</t>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
@@ -1124,7 +1147,11 @@
       <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>ACTIONS: please review REL: has process part</t>
+        </is>
+      </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -1141,34 +1168,34 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>BCIO:013060</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement through enjoyment</t>
+          <t>emotional engagement</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>enjoyment (MFOEM_000218)</t>
+          <t>emotion process MFOEM:000001 ADDED THIS SO THAT DEFINITION IS NOT CIRCULAR</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement that involves enjoyment.</t>
+          <t>behaviour change intervention engagement that involves an emotion process.</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Creating enjoyment through gamification or fun activities.</t>
+          <t>Engagement through the act of having or expressing strong feelings in relation to an intervention (not sure this fits)</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr"/>
@@ -1176,7 +1203,11 @@
       <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>ACTIONS: please review REL: has process part</t>
+        </is>
+      </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -1193,12 +1224,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
+          <t>BCIO:013065</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">emotional engagement through interest </t>
+          <t>emotional engagement through enjoyment</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1210,17 +1241,17 @@
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">interest (MFOEM_000033)  --- note not all interest is a process. </t>
+          <t>enjoyment (MFOEM_000218)</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement that involves interest.</t>
+          <t>emotional engagement that involves enjoyment.</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Creating interest in the intervention by it being informative or creating a desire to learn more.</t>
+          <t>Creating enjoyment through gamification or fun activities.</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
@@ -1245,12 +1276,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013070</t>
+          <t>BCIO:013075</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">emotional engagement through satisfaction </t>
+          <t xml:space="preserve">emotional engagement through interest </t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1262,17 +1293,17 @@
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>contentment (MFOEM_000047)  -- satisfaction (MFOEM:000169)</t>
+          <t xml:space="preserve">interest (MFOEM_000033) </t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement that involves satisfaction.</t>
+          <t>emotional engagement that involves interest.</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creating satisfaction by fulfilling needs, expectations or wishes. </t>
+          <t xml:space="preserve">Creating interest in the intervention by it being informative or creating a desire to learn more. Note: not all 'interest' is a process. </t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
@@ -1297,45 +1328,41 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013020</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>frequency of BCI engagement events</t>
+          <t xml:space="preserve">emotional engagement through satisfaction </t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>frequency (SIO_001367)</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>behavioural engagement</t>
-        </is>
-      </c>
+          <t>emotional engagement</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>satisfaction (MFOEM:000169)</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the frequency of BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
+          <t>emotional engagement that involves satisfaction.</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Creating satisfaction by fulfilling needs, expectations or wishes. </t>
+        </is>
+      </c>
       <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
-        </is>
-      </c>
+      <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M17" s="2" t="inlineStr"/>
       <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr">
         <is>
@@ -1363,7 +1390,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">data item (STATO_0000047) </t>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1375,14 +1402,19 @@
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is about BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
+          <t>A count data item that is the number of BCI engagement events. 
+I DELETED "in a BCI" FROM THE END OF ALL DEFINTIONS INVOLVING ENGAGEMENT EVENTS AND ADDED DETAIL IN THE ELABORATION</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Describes the total number of all BCI engagement events (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., participants received 6 face-to-face sessions and 4 phone sessions).</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>Number sessions attended, worksheets initiated, log ins, online posts, online responses, the amount of content viewed or the number of non-consecutive days an intervention was engaged with.</t>
+          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr"/>
@@ -1394,10 +1426,9 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>Previously agreed to use 3 annotations: "proportion" "behaviour" "value" when needed.​
-"*40*% of participants *logged in*  *3* times" ​
-Does the same apply to actual numbers rather than proportions?​
-"*three* young people *attended*  *two* sessions"​</t>
+          <t>ACTIONS: please review  the note in the defintion, the elaboration, and the annotation note below. 
+Annotation note: you can annotate "proportion" "behaviour" "value" when needed... "*40*% of participants *logged in*  *3* times" ​
+OR "number" "behaviour" "value"... "*three* young people *attended*  *two* sessions"​</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
@@ -1421,12 +1452,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>total duration of BCI engagement</t>
+          <t>total BCI engagement duration</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Time measurement datum (IAO_0000416 )</t>
+          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1438,16 +1469,20 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the total duration of BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>The total length of time that a participant is considered to be engaged in the intervention content</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
+          <t>A temporal interval between the start and end of BCI engagement.</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>The total period of time that a BCI participant is considered to be engaged in the intervention content.</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
+        </is>
+      </c>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr">
@@ -1455,7 +1490,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>ACTIONS: please review informal definition</t>
+        </is>
+      </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -1477,12 +1516,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>total duration of BCI engagement events</t>
+          <t>total BCI engagement event duration</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>time measurement datum (IAO_0000416 )</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1494,14 +1533,22 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the total duration of BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
+          <t>A data item that is the total duration of all BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Describes the total duration of all BCI enagagement (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g. all face-to-face sessions only).</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
+        </is>
+      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>A unit of time, 90 minutes; 12 hours, summed across all engagement events</t>
+          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr"/>
@@ -1511,7 +1558,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>ACTIONS: please review informal defintion and elaboration.</t>
+        </is>
+      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1093,7 +1093,7 @@
 2) Is it okay for something to be both an MoA and evidence of engagement? ​
 E.g. Knowledge: "Knowledge: It was assessed through a multiple-choice quiz including 10 items about general and specific back care knowledge based on the content of back promotion​
 program... 
-3) *Perceived* knowledge post intervention: is this comprehension or evaluation</t>
+3) *Perceived* knowledge post intervention: is this comprehension or evaluation?</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
@@ -1259,7 +1259,11 @@
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>no changes</t>
+        </is>
+      </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -1311,7 +1315,11 @@
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>no changes</t>
+        </is>
+      </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -1363,7 +1371,11 @@
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>no changes</t>
+        </is>
+      </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>temporal interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+          <t xml:space="preserve">data item - count (STATO_0000047) </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>temporal interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -714,7 +714,11 @@
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>i think the parent can be frequency from PATO, as in sched (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -987,7 +991,7 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -996,7 +1000,11 @@
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>I think the elaboration could be reworded to start with something like 'this can include....' or 'this can be demonstrated through' as there are other types of cognitive engagement aside from those included in the elaboration (e.g. attention). The second part of the elaboration could be linked in more clearly with the label, maybe starting with something like  'cognitive processes entail the act of directing...' (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1098,7 +1106,7 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
@@ -1107,7 +1115,11 @@
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1) skills seem different form comprehension... wonder if skills could be added, maybe borrowing from MoA? 2) I'd guess maybe yes? but ideally authors would specify which they think it is? not sure though! 3) hmmmm tricky... seems like if an author measures perceived knowledge they'd be trying to measure knowledge so would fit best under comprehension... maybe definiton of appraisal could ideally refer to appraisal of the intervention rather than appraisal of one's own cognitive/emotional states, and that could help? (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1154,7 +1166,7 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
@@ -1163,7 +1175,11 @@
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>could consider updating so that it's appraisal of the intervention, as above? (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1210,7 +1226,7 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
@@ -1219,7 +1235,11 @@
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>query whether emotion is an 'act' as stated in elaboration...  Also, guess it wouldn't have to be strong emotion? could be something like 'engagement expressed through experiencing emotions...' (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1266,7 +1286,7 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
@@ -1275,7 +1295,11 @@
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>the way the elaboration is worded (i.e. using the word creating) makes it seems like this entity belongs to the source rather than participant. could it be 'experiencing enjoyment through...' (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1322,7 +1346,7 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -1331,7 +1355,11 @@
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>as above (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1378,7 +1406,7 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
@@ -1387,7 +1415,11 @@
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>as above (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1509,7 +1541,7 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
@@ -1518,7 +1550,11 @@
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>might be worth updating the informal def to make the difference between this and the one below clearer i.e. to make it clear that participants aren't necessarily thought to be actively engaged throughout the whole 4 weeks... the formal def could be something like "the temporal interval between the start of the first BCI engagement event and the end of the last BCI engagement event" and the informal def could be similar (cm)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>An event that takes place and involves an individual being engaged by what is taking place or happening during this event</t>
+          <t>An event that takes place during which an individual can become engaged by what is happening</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review parent and defintition</t>
+          <t>ACTIONS: please review parent and defintition. (AF - both look good, changed elaboration as it did not work as it was)</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Including hourly, daily, weekly or monthly encounters, etc. </t>
+          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr"/>
@@ -700,7 +700,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review elaboration</t>
+          <t>ACTIONS: please review elaboration (AF -using "all" BCI engagement makes me think that it is an entity of total engagement rather than a frequency entity - I think removing "all" then it works for me)</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>Demonstrating understanding, learning or recall of the intervention content. The act of directing the mind to see, listen or understand.</t>
+          <t>Describes engagement which can be demonstrated through understanding, learning or recall of the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
@@ -986,7 +986,7 @@
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review REL: has process part</t>
+          <t>ACTIONS: please review REL: has process part AF - agree with addition of cognitive process)</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>I think the elaboration could be reworded to start with something like 'this can include....' or 'this can be demonstrated through' as there are other types of cognitive engagement aside from those included in the elaboration (e.g. attention). The second part of the elaboration could be linked in more clearly with the label, maybe starting with something like  'cognitive processes entail the act of directing...' (cm)</t>
+          <t>I think the elaboration could be reworded to start with something like 'this can include....' or 'this can be demonstrated through' as there are other types of cognitive engagement aside from those included in the elaboration (e.g. attention). The second part of the elaboration could be linked in more clearly with the label, maybe starting with something like  'cognitive processes entail the act of directing...' (cm) - changed (AF) I think this needs an example to fit with the other elaborations - adding (e.g., for how learning demonstrated- cannot think of one right now)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>This includes comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr"/>
@@ -1117,7 +1117,10 @@
       <c r="Q12" s="2" t="inlineStr"/>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>1) skills seem different form comprehension... wonder if skills could be added, maybe borrowing from MoA? 2) I'd guess maybe yes? but ideally authors would specify which they think it is? not sure though! 3) hmmmm tricky... seems like if an author measures perceived knowledge they'd be trying to measure knowledge so would fit best under comprehension... maybe definiton of appraisal could ideally refer to appraisal of the intervention rather than appraisal of one's own cognitive/emotional states, and that could help? (cm)</t>
+          <t>1) skills seem different form comprehension... wonder if skills could be added, maybe borrowing from MoA? 2) I'd guess maybe yes? but ideally authors would specify which they think it is? not sure though! 3) hmmmm tricky... seems like if an author measures perceived knowledge they'd be trying to measure knowledge so would fit best under comprehension... maybe definiton of appraisal could ideally refer to appraisal of the intervention rather than appraisal of one's own cognitive/emotional states, and that could help? (cm)
+AF - 1) I think to do the skills you need to understand what to do but I think skills here is more behavioural because it involves action 
+2) I think so, we are linking to several entities in the MoA ontology and so there is obvious overlap between some of the entities
+3) I think this can be both but if it cannot be counted as engagement then we are left with very little that can be. They evaluation of the knowledge shows evidence of engagement I think</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1214,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Engagement through the act of having or expressing strong feelings in relation to an intervention (not sure this fits)</t>
+          <t>Engagement through having or expressing feelings or emotions in relation to an intervention.</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr"/>
@@ -1237,7 +1240,7 @@
       <c r="Q14" s="2" t="inlineStr"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>query whether emotion is an 'act' as stated in elaboration...  Also, guess it wouldn't have to be strong emotion? could be something like 'engagement expressed through experiencing emotions...' (cm)</t>
+          <t>query whether emotion is an 'act' as stated in elaboration...  Also, guess it wouldn't have to be strong emotion? could be something like 'engagement expressed through experiencing emotions...' (cm) - edited (AF)</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1274,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Creating enjoyment through gamification or fun activities.</t>
+          <t>Experiencing enjoyment through gamification or fun activities.</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
@@ -1297,7 +1300,7 @@
       <c r="Q15" s="2" t="inlineStr"/>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>the way the elaboration is worded (i.e. using the word creating) makes it seems like this entity belongs to the source rather than participant. could it be 'experiencing enjoyment through...' (cm)</t>
+          <t>the way the elaboration is worded (i.e. using the word creating) makes it seems like this entity belongs to the source rather than participant. could it be 'experiencing enjoyment through...' (cm)- edited AF</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1334,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creating interest in the intervention by it being informative or creating a desire to learn more. Note: not all 'interest' is a process. </t>
+          <t xml:space="preserve">Experiencing interest in the intervention by it being informative or creating a desire to learn more. Note: not all 'interest' is a process. </t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr"/>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creating satisfaction by fulfilling needs, expectations or wishes. </t>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -555,12 +555,12 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>An occasion of BCI engagement</t>
+          <t>An occasion of BCI engagement.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>An event that takes place during which an individual can become engaged by what is happening</t>
+          <t>An event that takes place during which an individual can become engaged by what is happening.</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Describes the frequency of all BCI engagement (e.g., participants received contact weekly), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month).</t>
+          <t>Describes the frequency of BCI engagement in a BCI (e.g., participants received contact weekly), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month).</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Describes the total number of all BCI engagement events (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., participants received 6 face-to-face sessions and 4 phone sessions).</t>
+          <t>Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., participants received 6 face-to-face sessions and 4 phone sessions).</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Describes the total duration of all BCI enagagement (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g. all face-to-face sessions only).</t>
+          <t>Describes the total duration of enagagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g. all face-to-face sessions only).</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -570,7 +570,7 @@
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review parent and defintition. (AF - both look good, changed elaboration as it did not work as it was)</t>
+          <t xml:space="preserve">ACTIONS: please review parent and defintition. </t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>frequency (PATO)</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review elaboration (AF -using "all" BCI engagement makes me think that it is an entity of total engagement rather than a frequency entity - I think removing "all" then it works for me)</t>
+          <t xml:space="preserve">ACTIONS: please review elaboration </t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -714,11 +714,7 @@
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>i think the parent can be frequency from PATO, as in sched (cm)</t>
-        </is>
-      </c>
+      <c r="R4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -927,11 +923,7 @@
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>no changes</t>
-        </is>
-      </c>
+      <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
@@ -965,7 +957,7 @@
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>cognitive process (MF:0000008)   ADDED THIS SO THAT DEFINITION IS NOT CIRCULAR</t>
+          <t xml:space="preserve">cognitive process (MF:0000008)   </t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -976,7 +968,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>Describes engagement which can be demonstrated through understanding, learning or recall of the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr"/>
@@ -986,7 +978,7 @@
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review REL: has process part AF - agree with addition of cognitive process)</t>
+          <t xml:space="preserve">ACTIONS: please review REL: has process part </t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1000,11 +992,7 @@
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>I think the elaboration could be reworded to start with something like 'this can include....' or 'this can be demonstrated through' as there are other types of cognitive engagement aside from those included in the elaboration (e.g. attention). The second part of the elaboration could be linked in more clearly with the label, maybe starting with something like  'cognitive processes entail the act of directing...' (cm) - changed (AF) I think this needs an example to fit with the other elaborations - adding (e.g., for how learning demonstrated- cannot think of one right now)</t>
-        </is>
-      </c>
+      <c r="R10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1115,14 +1103,7 @@
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>1) skills seem different form comprehension... wonder if skills could be added, maybe borrowing from MoA? 2) I'd guess maybe yes? but ideally authors would specify which they think it is? not sure though! 3) hmmmm tricky... seems like if an author measures perceived knowledge they'd be trying to measure knowledge so would fit best under comprehension... maybe definiton of appraisal could ideally refer to appraisal of the intervention rather than appraisal of one's own cognitive/emotional states, and that could help? (cm)
-AF - 1) I think to do the skills you need to understand what to do but I think skills here is more behavioural because it involves action 
-2) I think so, we are linking to several entities in the MoA ontology and so there is obvious overlap between some of the entities
-3) I think this can be both but if it cannot be counted as engagement then we are left with very little that can be. They evaluation of the knowledge shows evidence of engagement I think</t>
-        </is>
-      </c>
+      <c r="R12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1178,11 +1159,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>could consider updating so that it's appraisal of the intervention, as above? (cm)</t>
-        </is>
-      </c>
+      <c r="R13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1204,7 +1181,7 @@
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>emotion process MFOEM:000001 ADDED THIS SO THAT DEFINITION IS NOT CIRCULAR</t>
+          <t xml:space="preserve">emotion process MFOEM:000001 </t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1238,11 +1215,7 @@
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>query whether emotion is an 'act' as stated in elaboration...  Also, guess it wouldn't have to be strong emotion? could be something like 'engagement expressed through experiencing emotions...' (cm) - edited (AF)</t>
-        </is>
-      </c>
+      <c r="R14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1282,11 +1255,7 @@
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>no changes</t>
-        </is>
-      </c>
+      <c r="N15" s="2" t="inlineStr"/>
       <c r="O15" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1298,11 +1267,7 @@
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>the way the elaboration is worded (i.e. using the word creating) makes it seems like this entity belongs to the source rather than participant. could it be 'experiencing enjoyment through...' (cm)- edited AF</t>
-        </is>
-      </c>
+      <c r="R15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1342,11 +1307,7 @@
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>no changes</t>
-        </is>
-      </c>
+      <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1358,11 +1319,7 @@
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>as above (cm)</t>
-        </is>
-      </c>
+      <c r="R16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1402,11 +1359,7 @@
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>no changes</t>
-        </is>
-      </c>
+      <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1418,11 +1371,7 @@
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>as above (cm)</t>
-        </is>
-      </c>
+      <c r="R17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1516,13 +1465,13 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of BCI engagement.</t>
+          <t>The temporal interval between the start of the first BCI engagement event and the end of the last BCI engagement event.</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>The total period of time that a BCI participant is considered to be engaged in the intervention content.</t>
+          <t>The total period of time between the first and last occasion of engagement with the intervention content.</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1553,11 +1502,7 @@
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>might be worth updating the informal def to make the difference between this and the one below clearer i.e. to make it clear that participants aren't necessarily thought to be actively engaged throughout the whole 4 weeks... the formal def could be something like "the temporal interval between the start of the first BCI engagement event and the end of the last BCI engagement event" and the informal def could be similar (cm)</t>
-        </is>
-      </c>
+      <c r="R19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -570,7 +570,7 @@
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACTIONS: please review parent and defintition. </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
@@ -634,8 +634,7 @@
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACTIONS: Please review informal defintion and annotation note below. 
-Annotation note: "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
+          <t xml:space="preserve">Annotation note: "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
 </t>
         </is>
       </c>
@@ -698,11 +697,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ACTIONS: please review elaboration </t>
-        </is>
-      </c>
+      <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -976,11 +971,7 @@
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ACTIONS: please review REL: has process part </t>
-        </is>
-      </c>
+      <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1082,14 +1073,12 @@
       <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review 3 annotation queries below.
-Annotation queries: 
+          <t xml:space="preserve">Annotation queries: 
 1) What about skills? Do new skills demonstrate comprehension of the intervention content? e.g.,
 "Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
-2) Is it okay for something to be both an MoA and evidence of engagement? ​
+2) Is it okay for something to be both an MoA and evidence of engagement? we think so. ​
 E.g. Knowledge: "Knowledge: It was assessed through a multiple-choice quiz including 10 items about general and specific back care knowledge based on the content of back promotion​
-program... 
-3) *Perceived* knowledge post intervention: is this comprehension or evaluation?</t>
+program... </t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
@@ -1143,11 +1132,7 @@
       <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>ACTIONS: please review REL: has process part</t>
-        </is>
-      </c>
+      <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1199,11 +1184,7 @@
       <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>ACTIONS: please review REL: has process part</t>
-        </is>
-      </c>
+      <c r="N14" s="2" t="inlineStr"/>
       <c r="O14" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1398,8 +1379,8 @@
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is the number of BCI engagement events. 
-I DELETED "in a BCI" FROM THE END OF ALL DEFINTIONS INVOLVING ENGAGEMENT EVENTS AND ADDED DETAIL IN THE ELABORATION</t>
+          <t xml:space="preserve">A count data item that is the number of BCI engagement events. 
+</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1422,8 +1403,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>ACTIONS: please review  the note in the defintion, the elaboration, and the annotation note below. 
-Annotation note: you can annotate "proportion" "behaviour" "value" when needed... "*40*% of participants *logged in*  *3* times" ​
+          <t>Annotation note: you can annotate "proportion" "behaviour" "value" when needed... "*40*% of participants *logged in*  *3* times" ​
 OR "number" "behaviour" "value"... "*three* young people *attended*  *two* sessions"​</t>
         </is>
       </c>
@@ -1486,11 +1466,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>ACTIONS: please review informal definition</t>
-        </is>
-      </c>
+      <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1554,11 +1530,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>ACTIONS: please review informal defintion and elaboration.</t>
-        </is>
-      </c>
+      <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1074,7 +1074,7 @@
       <c r="N12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annotation queries: 
-1) What about skills? Do new skills demonstrate comprehension of the intervention content? e.g.,
+1) What about skills? Do new skills demonstrate comprehension of the intervention content, or is this behavioural engagement, or neither!? e.g.,
 "Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
 2) Is it okay for something to be both an MoA and evidence of engagement? we think so. ​
 E.g. Knowledge: "Knowledge: It was assessed through a multiple-choice quiz including 10 items about general and specific back care knowledge based on the content of back promotion​

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>An event that takes place during which an individual can become engaged by what is happening.</t>
+          <t>An occurrence of engagement that takes place in response to intervention content.</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annotation note: "receiving" something is included in engagement​: "Participants received at least 30 minutes of counselling"​
+          <t xml:space="preserve">Receiving an intervention is included in engagement​: "Participants received at least 30 minutes of counselling"​
 </t>
         </is>
       </c>
@@ -1073,12 +1073,13 @@
       <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annotation queries: 
-1) What about skills? Do new skills demonstrate comprehension of the intervention content, or is this behavioural engagement, or neither!? e.g.,
+          <t>Annotation queries: 
+1) What about skills? Do new skills demonstrate comprehension of the intervention content, or is this behavioural engagement, or neither!? e.g., RW/SM: neither
 "Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
-2) Is it okay for something to be both an MoA and evidence of engagement? we think so. ​
+2) Is it okay for something to be both an MoA and evidence of engagement? we think so. ​RW/SM: yes
 E.g. Knowledge: "Knowledge: It was assessed through a multiple-choice quiz including 10 items about general and specific back care knowledge based on the content of back promotion​
-program... </t>
+program... 
+RW: you can delete the notes in this cell now</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>temporal interval (renamed from BFO BFO_0000038)</t>
+          <t>temporal interval</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>frequency (PATO)</t>
+          <t>frequency</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -833,139 +833,118 @@
       <c r="R7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013000</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>BCI population</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>BCI scenario</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MFOEM:000002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>appraisal process</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>An appraisal process is a mental process that gives rise to an appraisal</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013010</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>behavioural engagement</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>BCI engagement that involves enacting a behaviour.</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MF:0000018</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The process whereby relevant aspects of our mental experience are focused on specific targets</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cognitive process (MF:0000008)   </t>
-        </is>
-      </c>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>BCI population</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>BCI scenario</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention engagement that involves a cognitive process. 
-</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
-        </is>
-      </c>
+          <t>Individual human activity of members of a BCI population that enables a BCI to influence the outcome behaviour.</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
@@ -974,7 +953,7 @@
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -988,34 +967,34 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive engagement through attention </t>
+          <t>behavioural engagement</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">attending (MF_0000018)   </t>
-        </is>
-      </c>
+      <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement that involves attention.</t>
+          <t>BCI engagement that involves enacting a behaviour.</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Eye movements, body movements or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling, eye movement</t>
+        </is>
+      </c>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr"/>
@@ -1036,42 +1015,143 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013050</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive engagement through comprehension </t>
+          <t>cognitive engagement</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">comprehension (MoA Ontology)  </t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>cognitive engagement that involves comprehension.</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr"/>
+          <t xml:space="preserve">Behaviour change intervention engagement that involves a cognitive process. 
+</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
+      <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013045</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cognitive engagement through attention </t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement that involves attention.</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>EJH; Ai</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013050</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cognitive engagement through comprehension </t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>cognitive engagement that involves comprehension.</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>Annotation queries: 
 1) What about skills? Do new skills demonstrate comprehension of the intervention content, or is this behavioural engagement, or neither!? e.g., RW/SM: neither
@@ -1082,110 +1162,6 @@
 RW: you can delete the notes in this cell now</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013055</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>cognitive engagement through evaluation</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>cognitive engagement</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">appraisal process MFOEM:000002 </t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cognitive engagement that involves an appraisal process. </t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013060</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>emotional engagement</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">emotion process MFOEM:000001 </t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement that involves an emotion process.</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Engagement through having or expressing feelings or emotions in relation to an intervention.</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
       <c r="O14" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
@@ -1202,34 +1178,34 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>BCIO:013055</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement through enjoyment</t>
+          <t>cognitive engagement through evaluation</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement</t>
+          <t>cognitive engagement</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>enjoyment (MFOEM_000218)</t>
+          <t>appraisal process</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>emotional engagement that involves enjoyment.</t>
+          <t xml:space="preserve">cognitive engagement that involves an appraisal process. </t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Experiencing enjoyment through gamification or fun activities.</t>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr"/>
@@ -1252,298 +1228,758 @@
       <c r="R15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006110</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr"/>
+      <c r="I17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr"/>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="inlineStr"/>
+      <c r="R17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>STATO:0000047</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>A count is a data item denoted by an integer and represented the number of instances or occurrences of an entity</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MFOEM:000001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013060</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement that involves an emotion process.</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Engagement through having or expressing feelings or emotions in relation to an intervention.</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:013065</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement through enjoyment</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>emotional engagement that involves enjoyment.</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Experiencing enjoyment through gamification or fun activities.</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>BCIO:013075</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional engagement through interest </t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>emotional engagement</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">interest (MFOEM_000033) </t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>emotional engagement that involves interest.</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Experiencing interest in the intervention by it being informative or creating a desire to learn more. Note: not all 'interest' is a process. </t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
+      <c r="P22" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>BCIO:013070</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional engagement through satisfaction </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>emotional engagement</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>satisfaction (MFOEM:000169)</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>emotional engagement that involves satisfaction.</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
         </is>
       </c>
-      <c r="P17" s="2" t="inlineStr">
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MFOEM:000218</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PATO:0000044</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MFOEM:000033</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>BCIO:013015</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>number of BCI engagement events</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data item - count (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>behavioural engagement</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A count data item that is the number of BCI engagement events. 
 </t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., participants received 6 face-to-face sessions and 4 phone sessions).</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="N27" s="2" t="inlineStr">
         <is>
           <t>Annotation note: you can annotate "proportion" "behaviour" "value" when needed... "*40*% of participants *logged in*  *3* times" ​
 OR "number" "behaviour" "value"... "*three* young people *attended*  *two* sessions"​</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
+      <c r="O27" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr">
+      <c r="P27" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>BCIO:013035</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>total BCI engagement duration</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>temporal interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>behavioural engagement</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>The temporal interval between the start of the first BCI engagement event and the end of the last BCI engagement event.</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>The total period of time between the first and last occasion of engagement with the intervention content.</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr">
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>BCIO:013030</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>total BCI engagement event duration</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>behavioural engagement</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>A data item that is the total duration of all BCI engagement events.</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>Describes the total duration of enagagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g. all face-to-face sessions only).</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>90 minutes total app usage, 12 hours of counselling sessions</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr">
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
         </is>
       </c>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="P31" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micas\OneDrive\Documentos\GitHub\ontologies\Engagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/ontologies/Engagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C3F98A-62D8-464E-93B3-38BCEBB52313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F4C3F98A-62D8-464E-93B3-38BCEBB52313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C09057BB-E905-475B-9261-7C80597C2A11}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29910" yWindow="615" windowWidth="25470" windowHeight="18990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -846,13 +846,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +931,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -967,7 +972,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -1123,7 +1128,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>88</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
@@ -1558,7 +1563,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -1715,7 +1720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -1735,7 +1740,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>121</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -1817,7 +1822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
@@ -1860,7 +1865,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>135</v>
       </c>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -30,12 +30,17 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -49,7 +54,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,56 +573,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013005</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCI engagement event </t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>BCI engagement</t>
-        </is>
-      </c>
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>An occasion of BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>An occurrence of engagement that takes place in response to intervention content.</t>
-        </is>
-      </c>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
       <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>Obsolete</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr"/>
@@ -624,75 +598,61 @@
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="V2" s="2" t="inlineStr"/>
+      <c r="W2" s="2" t="inlineStr"/>
       <c r="X2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013035</t>
+          <t>BCIO:013005</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period</t>
+          <t xml:space="preserve">BCI engagement event </t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
+          <t>An occasion of BCI engagement.</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
-        </is>
-      </c>
+          <t>An occurrence of engagement that takes place in response to intervention content.</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="O3" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P3" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="Q3" s="3" t="inlineStr"/>
@@ -705,54 +665,72 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W3" s="3" t="n">
-        <v>0</v>
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050521</t>
+          <t>BCIO:013035</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>BCI engagement period statistic</t>
+          <t>BCI engagement period</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>BCI engagement period</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr"/>
+          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
+        </is>
+      </c>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
-      <c r="M4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N4" s="4" t="inlineStr"/>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P4" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="Q4" s="4" t="inlineStr"/>
@@ -765,29 +743,39 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>0</v>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013085</t>
+          <t>BCIO:050521</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Decreased engagement</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
+          <t>BCI engagement period statistic</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>BCI engagement period</t>
+        </is>
+      </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> remove  </t>
+          <t>A data item that is about a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
@@ -799,12 +787,12 @@
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>EJH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Obsolete</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr"/>
@@ -817,176 +805,157 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W5" s="2" t="n">
-        <v>0</v>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013085</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Decreased engagement</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> remove  </t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>EJH</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr"/>
+      <c r="T6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BCIO:013080</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Increased engagement</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">remove
 </t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>EJH</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:013090</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Same engagement</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>EJH</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
-      <c r="T7" s="2" t="inlineStr"/>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr"/>
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr"/>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013030</t>
+          <t>BCIO:013090</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
+          <t>Same engagement</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr"/>
       <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
-Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
-        </is>
-      </c>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M8" s="3" t="inlineStr"/>
       <c r="N8" s="3" t="inlineStr"/>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH</t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="Q8" s="3" t="inlineStr"/>
@@ -999,54 +968,73 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W8" s="3" t="n">
-        <v>0</v>
+      <c r="W8" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050522</t>
+          <t>BCIO:013030</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
+          <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
+          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
+Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
+        </is>
+      </c>
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P9" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="Q9" s="4" t="inlineStr"/>
@@ -1059,76 +1047,84 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W9" s="4" t="n">
-        <v>0</v>
+      <c r="W9" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MFOEM:000002</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>appraisal process</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>An appraisal process is a mental process that gives rise to an appraisal</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050522</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MF:0000018</t>
+          <t>MFOEM:000002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>appraisal process</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1141,7 +1137,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>The process whereby relevant aspects of our mental experience are focused on specific targets</t>
+          <t>An appraisal process is a mental process that gives rise to an appraisal</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1171,268 +1167,272 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MF:0000018</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>The process whereby relevant aspects of our mental experience are focused on specific targets</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>BCIO:013000</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Individual human activity of a member of a BCI population that is prompted by the BCI and influences the effect of the BCI on the outcome behaviour.</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q12" s="3" t="inlineStr"/>
-      <c r="R12" s="3" t="inlineStr"/>
-      <c r="S12" s="3" t="inlineStr"/>
-      <c r="T12" s="3" t="inlineStr"/>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; PS</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>BCIO:013010</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Behaviour change intervention engagement in which the human activity is a behaviour.</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>This is distinguished from engagement that involves thought processes.</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>Any behaviour performed to engage with an intervention and its content.</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr"/>
-      <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="inlineStr"/>
-      <c r="R13" s="3" t="inlineStr"/>
-      <c r="S13" s="3" t="inlineStr"/>
-      <c r="T13" s="3" t="inlineStr"/>
-      <c r="U13" s="3" t="inlineStr"/>
-      <c r="V13" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013025</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement duration</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the length of an engagement event.</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>A 30 minute session, 1 hour spent 'logged in'.</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Receiving an intervention is included in engagement​: "Participants received at least 30 minutes of counselling"​
-</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr"/>
-      <c r="R14" s="3" t="inlineStr"/>
-      <c r="S14" s="3" t="inlineStr"/>
-      <c r="T14" s="3" t="inlineStr"/>
-      <c r="U14" s="3" t="inlineStr"/>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; PS</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050523</t>
+          <t>BCIO:013025</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
+          <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the length of an engagement event.</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>A 30 minute session, 1 hour spent 'logged in'.</t>
+        </is>
+      </c>
       <c r="K15" s="4" t="inlineStr"/>
       <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Receiving an intervention is included in engagement​: "Participants received at least 30 minutes of counselling"​
+</t>
+        </is>
+      </c>
       <c r="O15" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai</t>
         </is>
       </c>
       <c r="P15" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="Q15" s="4" t="inlineStr"/>
@@ -1445,128 +1445,132 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W15" s="4" t="n">
-        <v>0</v>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050523</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>BCIO:013020</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
 The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr"/>
-      <c r="R16" s="3" t="inlineStr"/>
-      <c r="S16" s="3" t="inlineStr"/>
-      <c r="T16" s="3" t="inlineStr"/>
-      <c r="U16" s="3" t="inlineStr"/>
-      <c r="V16" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050524</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement frequency statistic</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
       <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N17" s="4" t="inlineStr"/>
       <c r="O17" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM</t>
         </is>
       </c>
       <c r="P17" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="Q17" s="4" t="inlineStr"/>
@@ -1579,535 +1583,551 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W17" s="4" t="n">
-        <v>0</v>
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050524</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement frequency statistic</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>BCIO:050525</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
         </is>
       </c>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr"/>
-      <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr"/>
-      <c r="V18" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>BCIO:013040</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>Behaviour change intervention engagement in which the human activity is a cognitive process.</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr"/>
-      <c r="R19" s="3" t="inlineStr"/>
-      <c r="S19" s="3" t="inlineStr"/>
-      <c r="T19" s="3" t="inlineStr"/>
-      <c r="U19" s="3" t="inlineStr"/>
-      <c r="V19" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr"/>
+      <c r="K20" s="5" t="inlineStr"/>
+      <c r="L20" s="5" t="inlineStr"/>
+      <c r="M20" s="5" t="inlineStr"/>
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr"/>
+      <c r="U20" s="5" t="inlineStr"/>
+      <c r="V20" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X20" s="5" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>BCIO:013055</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>cognitive BCI engagement through appraisal</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>appraisal process</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>A cognitive BCI engagement that involves an appraisal process.</t>
         </is>
       </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>“Appraisal process” is defined as “A mental process that gives rise to an appraisal.”</t>
         </is>
       </c>
-      <c r="I20" s="3" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr"/>
-      <c r="K20" s="3" t="inlineStr"/>
-      <c r="L20" s="3" t="inlineStr"/>
-      <c r="M20" s="3" t="inlineStr"/>
-      <c r="N20" s="3" t="inlineStr"/>
-      <c r="O20" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P20" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q20" s="3" t="inlineStr"/>
-      <c r="R20" s="3" t="inlineStr"/>
-      <c r="S20" s="3" t="inlineStr"/>
-      <c r="T20" s="3" t="inlineStr"/>
-      <c r="U20" s="3" t="inlineStr"/>
-      <c r="V20" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr"/>
+      <c r="L21" s="5" t="inlineStr"/>
+      <c r="M21" s="5" t="inlineStr"/>
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr"/>
+      <c r="U21" s="5" t="inlineStr"/>
+      <c r="V21" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X21" s="5" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>BCIO:013045</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">cognitive BCI engagement through attention </t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr"/>
+      <c r="E22" s="5" t="inlineStr"/>
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>attending</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>A cognitive BCI engagement that involves attending.</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
-      <c r="I21" s="3" t="inlineStr">
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>Paying attention to an intervention’s content</t>
         </is>
       </c>
-      <c r="J21" s="3" t="inlineStr"/>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
-      <c r="O21" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P21" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q21" s="3" t="inlineStr"/>
-      <c r="R21" s="3" t="inlineStr"/>
-      <c r="S21" s="3" t="inlineStr"/>
-      <c r="T21" s="3" t="inlineStr"/>
-      <c r="U21" s="3" t="inlineStr"/>
-      <c r="V21" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>Paying attention to certain images or information within the intervention</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr"/>
+      <c r="L22" s="5" t="inlineStr"/>
+      <c r="M22" s="5" t="inlineStr"/>
+      <c r="N22" s="5" t="inlineStr"/>
+      <c r="O22" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; PS</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr"/>
+      <c r="U22" s="5" t="inlineStr"/>
+      <c r="V22" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W22" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" s="5" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>BCIO:013050</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">cognitive BCI engagement through comprehension </t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr"/>
+      <c r="E23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
-      <c r="I22" s="3" t="inlineStr"/>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
         </is>
       </c>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr">
-        <is>
-          <t>Annotation queries: 
-1) What about skills? Do new skills demonstrate comprehension of the intervention content, or is this behavioural engagement, or neither!? e.g., RW/SM: neither
-"Skills: A checklist developed by Cardon et al. was used to evaluate back care skills. ...The tasks included (1) sitting at a table, (2) lifting a 3-kg book box from the floor..."
-2) Is it okay for something to be both an MoA and evidence of engagement? we think so. ​RW/SM: yes
-E.g. Knowledge: "Knowledge: It was assessed through a multiple-choice quiz including 10 items about general and specific back care knowledge based on the content of back promotion​
-program... 
-RW: you can delete the notes in this cell now</t>
-        </is>
-      </c>
-      <c r="O22" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P22" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="inlineStr"/>
-      <c r="R22" s="3" t="inlineStr"/>
-      <c r="S22" s="3" t="inlineStr"/>
-      <c r="T22" s="3" t="inlineStr"/>
-      <c r="U22" s="3" t="inlineStr"/>
-      <c r="V22" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr"/>
+      <c r="L23" s="5" t="inlineStr"/>
+      <c r="M23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X23" s="5" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>MF:0000008</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>A mental process that creates, modifies or has as participant some cognitive representation</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Ai</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>BCIO:006110</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr">
+      <c r="H25" s="3" t="inlineStr"/>
+      <c r="I25" s="3" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr"/>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="inlineStr"/>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr"/>
+      <c r="O25" s="3" t="inlineStr">
         <is>
           <t>Ai</t>
         </is>
       </c>
-      <c r="P24" s="2" t="inlineStr">
+      <c r="P25" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr"/>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>STATO:0000047</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>A count is a data item denoted by an integer and represented the number of instances or occurrences of an entity</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+      <c r="Q25" s="3" t="inlineStr"/>
+      <c r="R25" s="3" t="inlineStr"/>
+      <c r="S25" s="3" t="inlineStr"/>
+      <c r="T25" s="3" t="inlineStr"/>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W25" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFOEM:000001</t>
+          <t>STATO:0000047</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
+          <t>A count is a data item denoted by an integer and represented the number of instances or occurrences of an entity</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2137,479 +2157,495 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MFOEM:000001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>BCIO:013060</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr"/>
+      <c r="E28" s="5" t="inlineStr"/>
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Behaviour change intervention engagement in which the human activity is an emotion process. </t>
         </is>
       </c>
-      <c r="H27" s="3" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
 “Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
-      <c r="I27" s="3" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>Enjoying or liking the intervention</t>
         </is>
       </c>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="inlineStr"/>
-      <c r="M27" s="3" t="inlineStr"/>
-      <c r="N27" s="3" t="inlineStr"/>
-      <c r="O27" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P27" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q27" s="3" t="inlineStr"/>
-      <c r="R27" s="3" t="inlineStr"/>
-      <c r="S27" s="3" t="inlineStr"/>
-      <c r="T27" s="3" t="inlineStr"/>
-      <c r="U27" s="3" t="inlineStr"/>
-      <c r="V27" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr"/>
+      <c r="L28" s="5" t="inlineStr"/>
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X28" s="5" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>BCIO:013065</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement through enjoyment</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr"/>
+      <c r="E29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>enjoyment</t>
         </is>
       </c>
-      <c r="G28" s="3" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Emotional BCI engagement that involves enjoyment. </t>
         </is>
       </c>
-      <c r="H28" s="3" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>Experiencing pleasure through interacting/using the intervention.</t>
-        </is>
-      </c>
-      <c r="J28" s="3" t="inlineStr"/>
-      <c r="K28" s="3" t="inlineStr"/>
-      <c r="L28" s="3" t="inlineStr"/>
-      <c r="M28" s="3" t="inlineStr"/>
-      <c r="N28" s="3" t="inlineStr"/>
-      <c r="O28" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P28" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q28" s="3" t="inlineStr"/>
-      <c r="R28" s="3" t="inlineStr"/>
-      <c r="S28" s="3" t="inlineStr"/>
-      <c r="T28" s="3" t="inlineStr"/>
-      <c r="U28" s="3" t="inlineStr"/>
-      <c r="V28" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr"/>
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q29" s="5" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr"/>
+      <c r="T29" s="5" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr"/>
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W29" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X29" s="5" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>BCIO:050526</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement through fear</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr"/>
+      <c r="E30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves fear.</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr"/>
-      <c r="K29" s="4" t="inlineStr"/>
-      <c r="L29" s="4" t="inlineStr"/>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr"/>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="J30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr"/>
+      <c r="L30" s="5" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="inlineStr"/>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="4" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>BCIO:013075</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional BCI engagement through interest </t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr"/>
+      <c r="E31" s="5" t="inlineStr"/>
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>interest</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves interest.</t>
         </is>
       </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
 “Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
 The opposite of interest is boredom.</t>
         </is>
       </c>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr"/>
+      <c r="K31" s="5" t="inlineStr"/>
+      <c r="L31" s="5" t="inlineStr"/>
+      <c r="M31" s="5" t="inlineStr"/>
+      <c r="N31" s="5" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q31" s="5" t="inlineStr"/>
+      <c r="R31" s="5" t="inlineStr"/>
+      <c r="S31" s="5" t="inlineStr"/>
+      <c r="T31" s="5" t="inlineStr"/>
+      <c r="U31" s="5" t="inlineStr"/>
+      <c r="V31" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W31" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" s="5" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050527</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through mistrust</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>“Mistrust” is defined as “An emotion that involves feeling suspicious of, or doubting the honesty, fairness or abilities of something or someone.”</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:013070</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>Emotional BCI engagement that involves satisfaction.</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr"/>
+      <c r="K33" s="4" t="inlineStr"/>
+      <c r="L33" s="4" t="inlineStr"/>
+      <c r="M33" s="4" t="inlineStr"/>
+      <c r="N33" s="4" t="inlineStr"/>
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM</t>
         </is>
       </c>
-      <c r="P30" s="3" t="inlineStr">
+      <c r="P33" s="4" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q30" s="3" t="inlineStr"/>
-      <c r="R30" s="3" t="inlineStr"/>
-      <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr"/>
-      <c r="U30" s="3" t="inlineStr"/>
-      <c r="V30" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="3" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050527</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through mistrust</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
-        </is>
-      </c>
-      <c r="H31" s="4" t="inlineStr">
-        <is>
-          <t>“Mistrust” is defined as “An emotion that involves feeling suspicious of, or doubting the honesty, fairness or abilities of something or someone.”</t>
-        </is>
-      </c>
-      <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr"/>
-      <c r="O31" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013070</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>Emotional BCI engagement that involves satisfaction.</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
-        </is>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr"/>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P32" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q32" s="3" t="inlineStr"/>
-      <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr"/>
-      <c r="U32" s="3" t="inlineStr"/>
-      <c r="V32" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MFOEM:000218</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
+      <c r="Q33" s="4" t="inlineStr"/>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="inlineStr"/>
+      <c r="T33" s="4" t="inlineStr"/>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W33" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>MFOEM:000218</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2622,7 +2658,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -2632,7 +2668,11 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>External</t>
@@ -2643,30 +2683,40 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="n">
-        <v>0</v>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PATO:0000044</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2676,11 +2726,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>External</t>
@@ -2691,38 +2737,32 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MFOEM:000033</t>
+          <t>PATO:0000044</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+          <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2752,1497 +2792,1553 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W36" t="n">
-        <v>0</v>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MFOEM:000033</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>BCIO:050528</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>maximum BCI engagement period</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr"/>
-      <c r="F37" s="4" t="inlineStr"/>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>The maximum period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K37" s="4" t="inlineStr"/>
-      <c r="L37" s="4" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P37" s="4" t="inlineStr">
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="4" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="Q38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>BCIO:050529</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>maximum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr"/>
-      <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="inlineStr"/>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="4" t="inlineStr"/>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr"/>
-      <c r="O38" s="4" t="inlineStr">
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P38" s="4" t="inlineStr">
+      <c r="P39" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr"/>
-      <c r="R38" s="4" t="inlineStr"/>
-      <c r="S38" s="4" t="inlineStr"/>
-      <c r="T38" s="4" t="inlineStr"/>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="4" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>BCIO:050530</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="4" t="inlineStr"/>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr"/>
-      <c r="O39" s="4" t="inlineStr">
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P39" s="4" t="inlineStr">
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="4" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>BCIO:050531</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="4" t="inlineStr"/>
-      <c r="O40" s="4" t="inlineStr">
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P40" s="4" t="inlineStr">
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q40" s="4" t="inlineStr"/>
-      <c r="R40" s="4" t="inlineStr"/>
-      <c r="S40" s="4" t="inlineStr"/>
-      <c r="T40" s="4" t="inlineStr"/>
-      <c r="U40" s="4" t="inlineStr"/>
-      <c r="V40" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" s="4" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>BCIO:050532</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr"/>
-      <c r="O41" s="4" t="inlineStr">
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P41" s="4" t="inlineStr">
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="inlineStr"/>
-      <c r="V41" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" s="4" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>BCIO:050533</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>mean BCI engagement period</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr"/>
-      <c r="F42" s="4" t="inlineStr"/>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H42" s="4" t="inlineStr"/>
-      <c r="I42" s="4" t="inlineStr"/>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>The mean period of intervention  that participants engaged with.</t>
         </is>
       </c>
-      <c r="K42" s="4" t="inlineStr"/>
-      <c r="L42" s="4" t="inlineStr"/>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr"/>
-      <c r="O42" s="4" t="inlineStr">
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P42" s="4" t="inlineStr">
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q42" s="4" t="inlineStr"/>
-      <c r="R42" s="4" t="inlineStr"/>
-      <c r="S42" s="4" t="inlineStr"/>
-      <c r="T42" s="4" t="inlineStr"/>
-      <c r="U42" s="4" t="inlineStr"/>
-      <c r="V42" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" s="4" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>BCIO:050534</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr"/>
-      <c r="F43" s="4" t="inlineStr"/>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr"/>
-      <c r="I43" s="4" t="inlineStr"/>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K43" s="4" t="inlineStr"/>
-      <c r="L43" s="4" t="inlineStr"/>
-      <c r="M43" s="4" t="inlineStr"/>
-      <c r="N43" s="4" t="inlineStr"/>
-      <c r="O43" s="4" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P43" s="4" t="inlineStr">
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q43" s="4" t="inlineStr"/>
-      <c r="R43" s="4" t="inlineStr"/>
-      <c r="S43" s="4" t="inlineStr"/>
-      <c r="T43" s="4" t="inlineStr"/>
-      <c r="U43" s="4" t="inlineStr"/>
-      <c r="V43" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="4" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr"/>
+      <c r="T44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>BCIO:050535</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr"/>
-      <c r="F44" s="4" t="inlineStr"/>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="4" t="inlineStr"/>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K44" s="4" t="inlineStr"/>
-      <c r="L44" s="4" t="inlineStr"/>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr"/>
-      <c r="O44" s="4" t="inlineStr">
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P44" s="4" t="inlineStr">
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q44" s="4" t="inlineStr"/>
-      <c r="R44" s="4" t="inlineStr"/>
-      <c r="S44" s="4" t="inlineStr"/>
-      <c r="T44" s="4" t="inlineStr"/>
-      <c r="U44" s="4" t="inlineStr"/>
-      <c r="V44" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="4" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
+      <c r="T45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>BCIO:050536</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="4" t="inlineStr"/>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="inlineStr"/>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>The mean frequency of intervention sessionsattended by participants.</t>
         </is>
       </c>
-      <c r="K45" s="4" t="inlineStr"/>
-      <c r="L45" s="4" t="inlineStr"/>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr"/>
-      <c r="O45" s="4" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P45" s="4" t="inlineStr">
+      <c r="P46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr"/>
-      <c r="R45" s="4" t="inlineStr"/>
-      <c r="S45" s="4" t="inlineStr"/>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
-      <c r="V45" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="4" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr"/>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>BCIO:050537</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr"/>
-      <c r="O46" s="4" t="inlineStr">
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P46" s="4" t="inlineStr">
+      <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="4" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr"/>
+      <c r="T47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>BCIO:050538</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>median BCI engagement period</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="4" t="inlineStr"/>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr">
         <is>
           <t>The median period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="4" t="inlineStr"/>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr"/>
-      <c r="O47" s="4" t="inlineStr">
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P47" s="4" t="inlineStr">
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q47" s="4" t="inlineStr"/>
-      <c r="R47" s="4" t="inlineStr"/>
-      <c r="S47" s="4" t="inlineStr"/>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
-      <c r="V47" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="4" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr"/>
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>BCIO:050539</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
-      <c r="O48" s="4" t="inlineStr">
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr"/>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr"/>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="4" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr"/>
+      <c r="T49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>BCIO:050540</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="4" t="inlineStr"/>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K49" s="4" t="inlineStr"/>
-      <c r="L49" s="4" t="inlineStr"/>
-      <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="4" t="inlineStr"/>
-      <c r="O49" s="4" t="inlineStr">
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P49" s="4" t="inlineStr">
+      <c r="P50" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q49" s="4" t="inlineStr"/>
-      <c r="R49" s="4" t="inlineStr"/>
-      <c r="S49" s="4" t="inlineStr"/>
-      <c r="T49" s="4" t="inlineStr"/>
-      <c r="U49" s="4" t="inlineStr"/>
-      <c r="V49" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="4" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="Q50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr"/>
+      <c r="T50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>BCIO:050541</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr"/>
-      <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H50" s="4" t="inlineStr"/>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K50" s="4" t="inlineStr"/>
-      <c r="L50" s="4" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
-      <c r="O50" s="4" t="inlineStr">
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="P51" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr"/>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr"/>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="4" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="Q51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr"/>
+      <c r="T51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>BCIO:050542</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K51" s="4" t="inlineStr"/>
-      <c r="L51" s="4" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr">
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P51" s="4" t="inlineStr">
+      <c r="P52" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q51" s="4" t="inlineStr"/>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr"/>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" s="4" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="Q52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr"/>
+      <c r="T52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>BCIO:050543</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>minimum BCI engagement period</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr"/>
-      <c r="G52" s="4" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H52" s="4" t="inlineStr"/>
-      <c r="I52" s="4" t="inlineStr"/>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr">
         <is>
           <t>The minimum period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K52" s="4" t="inlineStr"/>
-      <c r="L52" s="4" t="inlineStr"/>
-      <c r="M52" s="4" t="inlineStr"/>
-      <c r="N52" s="4" t="inlineStr"/>
-      <c r="O52" s="4" t="inlineStr">
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P52" s="4" t="inlineStr">
+      <c r="P53" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q52" s="4" t="inlineStr"/>
-      <c r="R52" s="4" t="inlineStr"/>
-      <c r="S52" s="4" t="inlineStr"/>
-      <c r="T52" s="4" t="inlineStr"/>
-      <c r="U52" s="4" t="inlineStr"/>
-      <c r="V52" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" s="4" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr"/>
+      <c r="T53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>BCIO:050544</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr"/>
-      <c r="F53" s="4" t="inlineStr"/>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr"/>
-      <c r="I53" s="4" t="inlineStr"/>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr">
         <is>
           <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K53" s="4" t="inlineStr"/>
-      <c r="L53" s="4" t="inlineStr"/>
-      <c r="M53" s="4" t="inlineStr"/>
-      <c r="N53" s="4" t="inlineStr"/>
-      <c r="O53" s="4" t="inlineStr">
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P53" s="4" t="inlineStr">
+      <c r="P54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q53" s="4" t="inlineStr"/>
-      <c r="R53" s="4" t="inlineStr"/>
-      <c r="S53" s="4" t="inlineStr"/>
-      <c r="T53" s="4" t="inlineStr"/>
-      <c r="U53" s="4" t="inlineStr"/>
-      <c r="V53" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" s="4" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="Q54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
+      <c r="T54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>BCIO:050545</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr"/>
-      <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="4" t="inlineStr"/>
-      <c r="J54" s="4" t="inlineStr">
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K54" s="4" t="inlineStr"/>
-      <c r="L54" s="4" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr"/>
-      <c r="N54" s="4" t="inlineStr"/>
-      <c r="O54" s="4" t="inlineStr">
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P54" s="4" t="inlineStr">
+      <c r="P55" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q54" s="4" t="inlineStr"/>
-      <c r="R54" s="4" t="inlineStr"/>
-      <c r="S54" s="4" t="inlineStr"/>
-      <c r="T54" s="4" t="inlineStr"/>
-      <c r="U54" s="4" t="inlineStr"/>
-      <c r="V54" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" s="4" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="Q55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr"/>
+      <c r="T55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>BCIO:050546</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr"/>
-      <c r="F55" s="4" t="inlineStr"/>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="4" t="inlineStr"/>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K55" s="4" t="inlineStr"/>
-      <c r="L55" s="4" t="inlineStr"/>
-      <c r="M55" s="4" t="inlineStr"/>
-      <c r="N55" s="4" t="inlineStr"/>
-      <c r="O55" s="4" t="inlineStr">
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P55" s="4" t="inlineStr">
+      <c r="P56" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q55" s="4" t="inlineStr"/>
-      <c r="R55" s="4" t="inlineStr"/>
-      <c r="S55" s="4" t="inlineStr"/>
-      <c r="T55" s="4" t="inlineStr"/>
-      <c r="U55" s="4" t="inlineStr"/>
-      <c r="V55" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" s="4" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="Q56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr"/>
+      <c r="T56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>BCIO:050547</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr"/>
-      <c r="F56" s="4" t="inlineStr"/>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H56" s="4" t="inlineStr"/>
-      <c r="I56" s="4" t="inlineStr"/>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr"/>
-      <c r="L56" s="4" t="inlineStr"/>
-      <c r="M56" s="4" t="inlineStr"/>
-      <c r="N56" s="4" t="inlineStr"/>
-      <c r="O56" s="4" t="inlineStr">
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P56" s="4" t="inlineStr">
+      <c r="P57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q56" s="4" t="inlineStr"/>
-      <c r="R56" s="4" t="inlineStr"/>
-      <c r="S56" s="4" t="inlineStr"/>
-      <c r="T56" s="4" t="inlineStr"/>
-      <c r="U56" s="4" t="inlineStr"/>
-      <c r="V56" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" s="4" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="Q57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr"/>
+      <c r="T57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>BCIO:050548</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>mistrust</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr"/>
-      <c r="E57" s="4" t="inlineStr"/>
-      <c r="F57" s="4" t="inlineStr"/>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>An emotion that involves feeling suspicious of, or doubting the honesty, fairness or abilities of something or someone.</t>
         </is>
       </c>
-      <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="4" t="inlineStr"/>
-      <c r="J57" s="4" t="inlineStr"/>
-      <c r="K57" s="4" t="inlineStr"/>
-      <c r="L57" s="4" t="inlineStr"/>
-      <c r="M57" s="4" t="inlineStr"/>
-      <c r="N57" s="4" t="inlineStr"/>
-      <c r="O57" s="4" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P57" s="4" t="inlineStr">
+      <c r="P58" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q57" s="4" t="inlineStr"/>
-      <c r="R57" s="4" t="inlineStr"/>
-      <c r="S57" s="4" t="inlineStr"/>
-      <c r="T57" s="4" t="inlineStr"/>
-      <c r="U57" s="4" t="inlineStr"/>
-      <c r="V57" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W57" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" s="4" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>BCIO:013015</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>number of BCI engagement events</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr"/>
-      <c r="G58" s="3" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
         </is>
       </c>
-      <c r="H58" s="3" t="inlineStr">
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
 Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
-      <c r="I58" s="3" t="inlineStr"/>
-      <c r="J58" s="3" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
-      <c r="K58" s="3" t="inlineStr"/>
-      <c r="L58" s="3" t="inlineStr"/>
-      <c r="M58" s="3" t="inlineStr">
+      <c r="K59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N58" s="3" t="inlineStr">
+      <c r="N59" s="4" t="inlineStr">
         <is>
           <t>Annotation note: you can annotate "proportion" "behaviour" "value" when needed... "*40*% of participants *logged in*  *3* times" ​
 OR "number" "behaviour" "value"... "*three* young people *attended*  *two* sessions"​</t>
         </is>
       </c>
-      <c r="O58" s="3" t="inlineStr">
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai</t>
         </is>
       </c>
-      <c r="P58" s="3" t="inlineStr">
+      <c r="P59" s="4" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="Q58" s="3" t="inlineStr"/>
-      <c r="R58" s="3" t="inlineStr"/>
-      <c r="S58" s="3" t="inlineStr"/>
-      <c r="T58" s="3" t="inlineStr"/>
-      <c r="U58" s="3" t="inlineStr"/>
-      <c r="V58" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MFOEM:000169</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr"/>
+      <c r="Q59" s="4" t="inlineStr"/>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr"/>
+      <c r="T59" s="4" t="inlineStr"/>
+      <c r="U59" s="4" t="inlineStr"/>
+      <c r="V59" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W59" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>MFOEM:000169</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -4270,70 +4366,124 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="W60" t="n">
-        <v>0</v>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>BCIO:050549</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>temporal reference point associated with behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="D61" s="4" t="inlineStr"/>
-      <c r="E61" s="4" t="inlineStr"/>
-      <c r="F61" s="4" t="inlineStr"/>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A time point against which behavioural BCI engagement is referenced. </t>
         </is>
       </c>
-      <c r="H61" s="4" t="inlineStr"/>
-      <c r="I61" s="4" t="inlineStr"/>
-      <c r="J61" s="4" t="inlineStr">
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
-      <c r="K61" s="4" t="inlineStr"/>
-      <c r="L61" s="4" t="inlineStr"/>
-      <c r="M61" s="4" t="inlineStr"/>
-      <c r="N61" s="4" t="inlineStr"/>
-      <c r="O61" s="4" t="inlineStr">
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P61" s="4" t="inlineStr">
+      <c r="P62" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q61" s="4" t="inlineStr"/>
-      <c r="R61" s="4" t="inlineStr"/>
-      <c r="S61" s="4" t="inlineStr"/>
-      <c r="T61" s="4" t="inlineStr"/>
-      <c r="U61" s="4" t="inlineStr"/>
-      <c r="V61" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W61" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" s="4" t="inlineStr"/>
+      <c r="Q62" s="2" t="inlineStr"/>
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr"/>
+      <c r="T62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X62" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -599,7 +599,9 @@
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr"/>
-      <c r="W2" s="2" t="inlineStr"/>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="X2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1055,66 +1057,66 @@
       <c r="X9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>BCIO:050522</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" s="2" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1369,350 +1371,345 @@
       <c r="X14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>BCIO:013025</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="I15" s="5" t="inlineStr">
         <is>
           <t>A unit of time that describes the length of an engagement event.</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>A 30 minute session, 1 hour spent 'logged in'.</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>A 30-minute session, 1 hour spent 'logged in'</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Receiving an intervention is included in engagement​: "Participants received at least 30 minutes of counselling"​
-</t>
-        </is>
-      </c>
-      <c r="O15" s="4" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; PS</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="inlineStr"/>
+      <c r="T15" s="5" t="inlineStr"/>
+      <c r="U15" s="5" t="inlineStr"/>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>BCIO:050523</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr"/>
+      <c r="F16" s="5" t="inlineStr"/>
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr"/>
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="J16" s="5" t="inlineStr"/>
+      <c r="K16" s="5" t="inlineStr"/>
+      <c r="L16" s="5" t="inlineStr"/>
+      <c r="M16" s="5" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X16" s="2" t="inlineStr"/>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="R16" s="5" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr"/>
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="5" t="inlineStr"/>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>BCIO:013020</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="inlineStr"/>
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
 The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr"/>
-      <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr"/>
+      <c r="L17" s="5" t="inlineStr"/>
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr"/>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="inlineStr"/>
+      <c r="N17" s="5" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr"/>
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>BCIO:050524</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr"/>
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="J18" s="5" t="inlineStr"/>
+      <c r="K18" s="5" t="inlineStr"/>
+      <c r="L18" s="5" t="inlineStr"/>
+      <c r="M18" s="5" t="inlineStr"/>
+      <c r="N18" s="5" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X18" s="2" t="inlineStr"/>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr"/>
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="5" t="inlineStr"/>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>BCIO:050525</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr"/>
+      <c r="F19" s="5" t="inlineStr"/>
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="J19" s="5" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr"/>
+      <c r="L19" s="5" t="inlineStr"/>
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr"/>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X19" s="2" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
@@ -2506,136 +2503,136 @@
       <c r="X31" s="5" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>BCIO:050527</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr"/>
+      <c r="E32" s="5" t="inlineStr"/>
+      <c r="F32" s="5" t="inlineStr"/>
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>“Mistrust” is defined as “An emotion that involves feeling suspicious of, or doubting the honesty, fairness or abilities of something or someone.”</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="J32" s="5" t="inlineStr"/>
+      <c r="K32" s="5" t="inlineStr"/>
+      <c r="L32" s="5" t="inlineStr"/>
+      <c r="M32" s="5" t="inlineStr"/>
+      <c r="N32" s="5" t="inlineStr"/>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr"/>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" s="2" t="inlineStr"/>
+      <c r="P32" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr"/>
+      <c r="T32" s="5" t="inlineStr"/>
+      <c r="U32" s="5" t="inlineStr"/>
+      <c r="V32" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W32" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" s="5" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>BCIO:013070</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr"/>
-      <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr"/>
+      <c r="E33" s="5" t="inlineStr"/>
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr"/>
-      <c r="K33" s="4" t="inlineStr"/>
-      <c r="L33" s="4" t="inlineStr"/>
-      <c r="M33" s="4" t="inlineStr"/>
-      <c r="N33" s="4" t="inlineStr"/>
-      <c r="O33" s="4" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM</t>
-        </is>
-      </c>
-      <c r="P33" s="4" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr"/>
-      <c r="S33" s="4" t="inlineStr"/>
-      <c r="T33" s="4" t="inlineStr"/>
-      <c r="U33" s="4" t="inlineStr"/>
-      <c r="V33" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W33" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X33" s="4" t="inlineStr"/>
+      <c r="J33" s="5" t="inlineStr"/>
+      <c r="K33" s="5" t="inlineStr"/>
+      <c r="L33" s="5" t="inlineStr"/>
+      <c r="M33" s="5" t="inlineStr"/>
+      <c r="N33" s="5" t="inlineStr"/>
+      <c r="O33" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; CM; PS</t>
+        </is>
+      </c>
+      <c r="P33" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="inlineStr"/>
+      <c r="T33" s="5" t="inlineStr"/>
+      <c r="U33" s="5" t="inlineStr"/>
+      <c r="V33" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W33" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2990,202 +2987,202 @@
       <c r="X39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>BCIO:050530</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr"/>
+      <c r="F40" s="5" t="inlineStr"/>
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr"/>
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr"/>
+      <c r="L40" s="5" t="inlineStr"/>
+      <c r="M40" s="5" t="inlineStr"/>
+      <c r="N40" s="5" t="inlineStr"/>
+      <c r="O40" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr"/>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X40" s="2" t="inlineStr"/>
+      <c r="P40" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q40" s="5" t="inlineStr"/>
+      <c r="R40" s="5" t="inlineStr"/>
+      <c r="S40" s="5" t="inlineStr"/>
+      <c r="T40" s="5" t="inlineStr"/>
+      <c r="U40" s="5" t="inlineStr"/>
+      <c r="V40" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W40" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" s="5" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>BCIO:050531</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr"/>
+      <c r="F41" s="5" t="inlineStr"/>
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr"/>
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr"/>
+      <c r="L41" s="5" t="inlineStr"/>
+      <c r="M41" s="5" t="inlineStr"/>
+      <c r="N41" s="5" t="inlineStr"/>
+      <c r="O41" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P41" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr"/>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" s="2" t="inlineStr"/>
+      <c r="P41" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q41" s="5" t="inlineStr"/>
+      <c r="R41" s="5" t="inlineStr"/>
+      <c r="S41" s="5" t="inlineStr"/>
+      <c r="T41" s="5" t="inlineStr"/>
+      <c r="U41" s="5" t="inlineStr"/>
+      <c r="V41" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W41" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>BCIO:050532</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr"/>
+      <c r="F42" s="5" t="inlineStr"/>
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr"/>
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr"/>
+      <c r="L42" s="5" t="inlineStr"/>
+      <c r="M42" s="5" t="inlineStr"/>
+      <c r="N42" s="5" t="inlineStr"/>
+      <c r="O42" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr"/>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr"/>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X42" s="2" t="inlineStr"/>
+      <c r="P42" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q42" s="5" t="inlineStr"/>
+      <c r="R42" s="5" t="inlineStr"/>
+      <c r="S42" s="5" t="inlineStr"/>
+      <c r="T42" s="5" t="inlineStr"/>
+      <c r="U42" s="5" t="inlineStr"/>
+      <c r="V42" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W42" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X42" s="5" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3320,202 +3317,202 @@
       <c r="X44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>BCIO:050535</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr"/>
+      <c r="F45" s="5" t="inlineStr"/>
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr">
+      <c r="H45" s="5" t="inlineStr"/>
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr"/>
+      <c r="L45" s="5" t="inlineStr"/>
+      <c r="M45" s="5" t="inlineStr"/>
+      <c r="N45" s="5" t="inlineStr"/>
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P45" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" s="2" t="inlineStr"/>
+      <c r="P45" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q45" s="5" t="inlineStr"/>
+      <c r="R45" s="5" t="inlineStr"/>
+      <c r="S45" s="5" t="inlineStr"/>
+      <c r="T45" s="5" t="inlineStr"/>
+      <c r="U45" s="5" t="inlineStr"/>
+      <c r="V45" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W45" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>BCIO:050536</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr"/>
+      <c r="F46" s="5" t="inlineStr"/>
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>The mean frequency of intervention sessionsattended by participants.</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr">
+      <c r="H46" s="5" t="inlineStr"/>
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>The mean frequency of intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr"/>
+      <c r="L46" s="5" t="inlineStr"/>
+      <c r="M46" s="5" t="inlineStr"/>
+      <c r="N46" s="5" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr"/>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" s="2" t="inlineStr"/>
+      <c r="P46" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q46" s="5" t="inlineStr"/>
+      <c r="R46" s="5" t="inlineStr"/>
+      <c r="S46" s="5" t="inlineStr"/>
+      <c r="T46" s="5" t="inlineStr"/>
+      <c r="U46" s="5" t="inlineStr"/>
+      <c r="V46" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W46" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X46" s="5" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>BCIO:050537</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr"/>
+      <c r="F47" s="5" t="inlineStr"/>
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr">
+      <c r="H47" s="5" t="inlineStr"/>
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr">
+      <c r="K47" s="5" t="inlineStr"/>
+      <c r="L47" s="5" t="inlineStr"/>
+      <c r="M47" s="5" t="inlineStr"/>
+      <c r="N47" s="5" t="inlineStr"/>
+      <c r="O47" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr"/>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr"/>
-      <c r="T47" s="2" t="inlineStr"/>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W47" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X47" s="2" t="inlineStr"/>
+      <c r="P47" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q47" s="5" t="inlineStr"/>
+      <c r="R47" s="5" t="inlineStr"/>
+      <c r="S47" s="5" t="inlineStr"/>
+      <c r="T47" s="5" t="inlineStr"/>
+      <c r="U47" s="5" t="inlineStr"/>
+      <c r="V47" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W47" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3650,202 +3647,202 @@
       <c r="X49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>BCIO:050540</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr"/>
+      <c r="F50" s="5" t="inlineStr"/>
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr">
+      <c r="H50" s="5" t="inlineStr"/>
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="J50" s="5" t="inlineStr">
         <is>
           <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr">
+      <c r="K50" s="5" t="inlineStr"/>
+      <c r="L50" s="5" t="inlineStr"/>
+      <c r="M50" s="5" t="inlineStr"/>
+      <c r="N50" s="5" t="inlineStr"/>
+      <c r="O50" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr"/>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
-      <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" s="2" t="inlineStr"/>
+      <c r="P50" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q50" s="5" t="inlineStr"/>
+      <c r="R50" s="5" t="inlineStr"/>
+      <c r="S50" s="5" t="inlineStr"/>
+      <c r="T50" s="5" t="inlineStr"/>
+      <c r="U50" s="5" t="inlineStr"/>
+      <c r="V50" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W50" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X50" s="5" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>BCIO:050541</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr"/>
+      <c r="F51" s="5" t="inlineStr"/>
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr">
+      <c r="H51" s="5" t="inlineStr"/>
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="J51" s="5" t="inlineStr">
         <is>
           <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr">
+      <c r="K51" s="5" t="inlineStr"/>
+      <c r="L51" s="5" t="inlineStr"/>
+      <c r="M51" s="5" t="inlineStr"/>
+      <c r="N51" s="5" t="inlineStr"/>
+      <c r="O51" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr"/>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
-      <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W51" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" s="2" t="inlineStr"/>
+      <c r="P51" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q51" s="5" t="inlineStr"/>
+      <c r="R51" s="5" t="inlineStr"/>
+      <c r="S51" s="5" t="inlineStr"/>
+      <c r="T51" s="5" t="inlineStr"/>
+      <c r="U51" s="5" t="inlineStr"/>
+      <c r="V51" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W51" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>BCIO:050542</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr"/>
+      <c r="F52" s="5" t="inlineStr"/>
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr">
+      <c r="H52" s="5" t="inlineStr"/>
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr"/>
+      <c r="L52" s="5" t="inlineStr"/>
+      <c r="M52" s="5" t="inlineStr"/>
+      <c r="N52" s="5" t="inlineStr"/>
+      <c r="O52" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr"/>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
-      <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" s="2" t="inlineStr"/>
+      <c r="P52" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q52" s="5" t="inlineStr"/>
+      <c r="R52" s="5" t="inlineStr"/>
+      <c r="S52" s="5" t="inlineStr"/>
+      <c r="T52" s="5" t="inlineStr"/>
+      <c r="U52" s="5" t="inlineStr"/>
+      <c r="V52" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W52" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X52" s="5" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3980,202 +3977,202 @@
       <c r="X54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>BCIO:050545</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr"/>
+      <c r="F55" s="5" t="inlineStr"/>
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="H55" s="5" t="inlineStr"/>
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr"/>
+      <c r="L55" s="5" t="inlineStr"/>
+      <c r="M55" s="5" t="inlineStr"/>
+      <c r="N55" s="5" t="inlineStr"/>
+      <c r="O55" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr"/>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
-      <c r="T55" s="2" t="inlineStr"/>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" s="2" t="inlineStr"/>
+      <c r="P55" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q55" s="5" t="inlineStr"/>
+      <c r="R55" s="5" t="inlineStr"/>
+      <c r="S55" s="5" t="inlineStr"/>
+      <c r="T55" s="5" t="inlineStr"/>
+      <c r="U55" s="5" t="inlineStr"/>
+      <c r="V55" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W55" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>BCIO:050546</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr"/>
+      <c r="F56" s="5" t="inlineStr"/>
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr"/>
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr"/>
+      <c r="L56" s="5" t="inlineStr"/>
+      <c r="M56" s="5" t="inlineStr"/>
+      <c r="N56" s="5" t="inlineStr"/>
+      <c r="O56" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr"/>
-      <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr"/>
-      <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" s="2" t="inlineStr"/>
+      <c r="P56" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q56" s="5" t="inlineStr"/>
+      <c r="R56" s="5" t="inlineStr"/>
+      <c r="S56" s="5" t="inlineStr"/>
+      <c r="T56" s="5" t="inlineStr"/>
+      <c r="U56" s="5" t="inlineStr"/>
+      <c r="V56" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W56" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X56" s="5" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>BCIO:050547</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr"/>
+      <c r="F57" s="5" t="inlineStr"/>
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr"/>
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="J57" s="5" t="inlineStr">
         <is>
           <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr">
+      <c r="K57" s="5" t="inlineStr"/>
+      <c r="L57" s="5" t="inlineStr"/>
+      <c r="M57" s="5" t="inlineStr"/>
+      <c r="N57" s="5" t="inlineStr"/>
+      <c r="O57" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P57" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q57" s="2" t="inlineStr"/>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr"/>
-      <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" s="2" t="inlineStr"/>
+      <c r="P57" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q57" s="5" t="inlineStr"/>
+      <c r="R57" s="5" t="inlineStr"/>
+      <c r="S57" s="5" t="inlineStr"/>
+      <c r="T57" s="5" t="inlineStr"/>
+      <c r="U57" s="5" t="inlineStr"/>
+      <c r="V57" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W57" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -4236,84 +4233,79 @@
       <c r="X58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>BCIO:013015</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>number of BCI engagement events</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr"/>
-      <c r="F59" s="4" t="inlineStr"/>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr"/>
+      <c r="F59" s="5" t="inlineStr"/>
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
         </is>
       </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
 Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr"/>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
-      <c r="K59" s="4" t="inlineStr"/>
-      <c r="L59" s="4" t="inlineStr"/>
-      <c r="M59" s="4" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr"/>
+      <c r="L59" s="5" t="inlineStr"/>
+      <c r="M59" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N59" s="4" t="inlineStr">
-        <is>
-          <t>Annotation note: you can annotate "proportion" "behaviour" "value" when needed... "*40*% of participants *logged in*  *3* times" ​
-OR "number" "behaviour" "value"... "*three* young people *attended*  *two* sessions"​</t>
-        </is>
-      </c>
-      <c r="O59" s="4" t="inlineStr">
-        <is>
-          <t>EJH; Ai</t>
-        </is>
-      </c>
-      <c r="P59" s="4" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Q59" s="4" t="inlineStr"/>
-      <c r="R59" s="4" t="inlineStr"/>
-      <c r="S59" s="4" t="inlineStr"/>
-      <c r="T59" s="4" t="inlineStr"/>
-      <c r="U59" s="4" t="inlineStr"/>
-      <c r="V59" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W59" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" s="4" t="inlineStr"/>
+      <c r="N59" s="5" t="inlineStr"/>
+      <c r="O59" s="5" t="inlineStr">
+        <is>
+          <t>EJH; Ai; PS</t>
+        </is>
+      </c>
+      <c r="P59" s="5" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q59" s="5" t="inlineStr"/>
+      <c r="R59" s="5" t="inlineStr"/>
+      <c r="S59" s="5" t="inlineStr"/>
+      <c r="T59" s="5" t="inlineStr"/>
+      <c r="U59" s="5" t="inlineStr"/>
+      <c r="V59" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W59" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -45,11 +45,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="002f4f4f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -599,8 +593,10 @@
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr"/>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X2" s="2" t="inlineStr"/>
     </row>
@@ -727,12 +723,12 @@
       <c r="N4" s="4" t="inlineStr"/>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P4" s="4" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Q4" s="4" t="inlineStr"/>
@@ -753,66 +749,66 @@
       <c r="X4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>BCIO:050521</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>A data item that is about a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr"/>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1031,12 +1027,12 @@
       <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="4" t="inlineStr">
         <is>
-          <t>EJH; Ai</t>
+          <t>EJH; Ai; PS</t>
         </is>
       </c>
       <c r="P9" s="4" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Q9" s="4" t="inlineStr"/>
@@ -1057,66 +1053,66 @@
       <c r="X9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>BCIO:050522</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr"/>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="4" t="inlineStr"/>
+      <c r="M10" s="4" t="inlineStr"/>
+      <c r="N10" s="4" t="inlineStr"/>
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P10" s="5" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="inlineStr"/>
-      <c r="R10" s="5" t="inlineStr"/>
-      <c r="S10" s="5" t="inlineStr"/>
-      <c r="T10" s="5" t="inlineStr"/>
-      <c r="U10" s="5" t="inlineStr"/>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" s="5" t="inlineStr"/>
+      <c r="Q10" s="4" t="inlineStr"/>
+      <c r="R10" s="4" t="inlineStr"/>
+      <c r="S10" s="4" t="inlineStr"/>
+      <c r="T10" s="4" t="inlineStr"/>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1235,765 +1231,765 @@
       <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>BCIO:013000</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>Individual human activity of a member of a BCI population that is prompted by the BCI and influences the effect of the BCI on the outcome behaviour.</t>
         </is>
       </c>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr"/>
+      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr"/>
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="P13" s="5" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q13" s="5" t="inlineStr"/>
-      <c r="R13" s="5" t="inlineStr"/>
-      <c r="S13" s="5" t="inlineStr"/>
-      <c r="T13" s="5" t="inlineStr"/>
-      <c r="U13" s="5" t="inlineStr"/>
-      <c r="V13" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W13" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Q13" s="4" t="inlineStr"/>
+      <c r="R13" s="4" t="inlineStr"/>
+      <c r="S13" s="4" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr"/>
+      <c r="U13" s="4" t="inlineStr"/>
+      <c r="V13" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W13" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>BCIO:013010</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>Behaviour change intervention engagement in which the human activity is a behaviour.</t>
         </is>
       </c>
-      <c r="H14" s="5" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>This is distinguished from engagement that involves thought processes.</t>
         </is>
       </c>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>Any behaviour performed to engage with an intervention and its content.</t>
         </is>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
         </is>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr"/>
+      <c r="L14" s="4" t="inlineStr"/>
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="inlineStr"/>
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="P14" s="5" t="inlineStr">
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="inlineStr"/>
-      <c r="R14" s="5" t="inlineStr"/>
-      <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="5" t="inlineStr"/>
-      <c r="U14" s="5" t="inlineStr"/>
-      <c r="V14" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" s="5" t="inlineStr"/>
+      <c r="Q14" s="4" t="inlineStr"/>
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr"/>
+      <c r="T14" s="4" t="inlineStr"/>
+      <c r="U14" s="4" t="inlineStr"/>
+      <c r="V14" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>BCIO:013025</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
         </is>
       </c>
-      <c r="H15" s="5" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
-      <c r="I15" s="5" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
         <is>
           <t>A unit of time that describes the length of an engagement event.</t>
         </is>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>A 30-minute session, 1 hour spent 'logged in'</t>
         </is>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="P15" s="5" t="inlineStr">
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q15" s="5" t="inlineStr"/>
-      <c r="R15" s="5" t="inlineStr"/>
-      <c r="S15" s="5" t="inlineStr"/>
-      <c r="T15" s="5" t="inlineStr"/>
-      <c r="U15" s="5" t="inlineStr"/>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X15" s="5" t="inlineStr"/>
+      <c r="Q15" s="4" t="inlineStr"/>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr"/>
+      <c r="T15" s="4" t="inlineStr"/>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>BCIO:050523</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr"/>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P16" s="5" t="inlineStr">
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="inlineStr"/>
-      <c r="R16" s="5" t="inlineStr"/>
-      <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="5" t="inlineStr"/>
-      <c r="U16" s="5" t="inlineStr"/>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W16" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>BCIO:013020</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
         </is>
       </c>
-      <c r="H17" s="5" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
 The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
         </is>
       </c>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr"/>
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P17" s="5" t="inlineStr">
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
-      <c r="R17" s="5" t="inlineStr"/>
-      <c r="S17" s="5" t="inlineStr"/>
-      <c r="T17" s="5" t="inlineStr"/>
-      <c r="U17" s="5" t="inlineStr"/>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" s="5" t="inlineStr"/>
+      <c r="Q17" s="4" t="inlineStr"/>
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr"/>
+      <c r="T17" s="4" t="inlineStr"/>
+      <c r="U17" s="4" t="inlineStr"/>
+      <c r="V17" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>BCIO:050524</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr">
+      <c r="H18" s="4" t="inlineStr"/>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P18" s="5" t="inlineStr">
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr"/>
-      <c r="R18" s="5" t="inlineStr"/>
-      <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="5" t="inlineStr"/>
-      <c r="U18" s="5" t="inlineStr"/>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X18" s="5" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>BCIO:050525</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
         </is>
       </c>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr"/>
+      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P19" s="5" t="inlineStr">
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q19" s="5" t="inlineStr"/>
-      <c r="R19" s="5" t="inlineStr"/>
-      <c r="S19" s="5" t="inlineStr"/>
-      <c r="T19" s="5" t="inlineStr"/>
-      <c r="U19" s="5" t="inlineStr"/>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X19" s="5" t="inlineStr"/>
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>BCIO:013040</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>Behaviour change intervention engagement in which the human activity is a cognitive process.</t>
         </is>
       </c>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P20" s="5" t="inlineStr">
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q20" s="5" t="inlineStr"/>
-      <c r="R20" s="5" t="inlineStr"/>
-      <c r="S20" s="5" t="inlineStr"/>
-      <c r="T20" s="5" t="inlineStr"/>
-      <c r="U20" s="5" t="inlineStr"/>
-      <c r="V20" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr"/>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W20" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>BCIO:013055</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>cognitive BCI engagement through appraisal</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>appraisal process</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>A cognitive BCI engagement that involves an appraisal process.</t>
         </is>
       </c>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>“Appraisal process” is defined as “A mental process that gives rise to an appraisal.”</t>
         </is>
       </c>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P21" s="5" t="inlineStr">
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q21" s="5" t="inlineStr"/>
-      <c r="R21" s="5" t="inlineStr"/>
-      <c r="S21" s="5" t="inlineStr"/>
-      <c r="T21" s="5" t="inlineStr"/>
-      <c r="U21" s="5" t="inlineStr"/>
-      <c r="V21" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W21" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X21" s="5" t="inlineStr"/>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W21" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>BCIO:013045</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cognitive BCI engagement through attention </t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>attending</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>A cognitive BCI engagement that involves attending.</t>
         </is>
       </c>
-      <c r="H22" s="5" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
-      <c r="I22" s="5" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
         <is>
           <t>Paying attention to an intervention’s content</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>Paying attention to certain images or information within the intervention</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr">
+      <c r="K22" s="4" t="inlineStr"/>
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="P22" s="5" t="inlineStr">
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q22" s="5" t="inlineStr"/>
-      <c r="R22" s="5" t="inlineStr"/>
-      <c r="S22" s="5" t="inlineStr"/>
-      <c r="T22" s="5" t="inlineStr"/>
-      <c r="U22" s="5" t="inlineStr"/>
-      <c r="V22" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W22" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X22" s="5" t="inlineStr"/>
+      <c r="Q22" s="4" t="inlineStr"/>
+      <c r="R22" s="4" t="inlineStr"/>
+      <c r="S22" s="4" t="inlineStr"/>
+      <c r="T22" s="4" t="inlineStr"/>
+      <c r="U22" s="4" t="inlineStr"/>
+      <c r="V22" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>BCIO:013050</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cognitive BCI engagement through comprehension </t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>cognitive BCI engagement</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
-      <c r="H23" s="5" t="inlineStr">
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="K23" s="4" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P23" s="5" t="inlineStr">
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q23" s="5" t="inlineStr"/>
-      <c r="R23" s="5" t="inlineStr"/>
-      <c r="S23" s="5" t="inlineStr"/>
-      <c r="T23" s="5" t="inlineStr"/>
-      <c r="U23" s="5" t="inlineStr"/>
-      <c r="V23" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W23" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Q23" s="4" t="inlineStr"/>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr"/>
+      <c r="U23" s="4" t="inlineStr"/>
+      <c r="V23" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2020,7 +2016,11 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -2028,7 +2028,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Ai</t>
+          <t>Ai; PS</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2054,58 +2054,58 @@
       <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>BCIO:006110</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr"/>
-      <c r="I25" s="3" t="inlineStr"/>
-      <c r="J25" s="3" t="inlineStr"/>
-      <c r="K25" s="3" t="inlineStr"/>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr"/>
-      <c r="N25" s="3" t="inlineStr"/>
-      <c r="O25" s="3" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P25" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Q25" s="3" t="inlineStr"/>
-      <c r="R25" s="3" t="inlineStr"/>
-      <c r="S25" s="3" t="inlineStr"/>
-      <c r="T25" s="3" t="inlineStr"/>
-      <c r="U25" s="3" t="inlineStr"/>
-      <c r="V25" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W25" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X25" s="3" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2220,419 +2220,419 @@
       <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>BCIO:013060</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr"/>
-      <c r="E28" s="5" t="inlineStr"/>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Behaviour change intervention engagement in which the human activity is an emotion process. </t>
         </is>
       </c>
-      <c r="H28" s="5" t="inlineStr">
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
 “Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
+      <c r="I28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
         </is>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>Enjoying or liking the intervention</t>
         </is>
       </c>
-      <c r="K28" s="5" t="inlineStr"/>
-      <c r="L28" s="5" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="K28" s="4" t="inlineStr"/>
+      <c r="L28" s="4" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P28" s="5" t="inlineStr">
+      <c r="P28" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q28" s="5" t="inlineStr"/>
-      <c r="R28" s="5" t="inlineStr"/>
-      <c r="S28" s="5" t="inlineStr"/>
-      <c r="T28" s="5" t="inlineStr"/>
-      <c r="U28" s="5" t="inlineStr"/>
-      <c r="V28" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W28" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X28" s="5" t="inlineStr"/>
+      <c r="Q28" s="4" t="inlineStr"/>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr"/>
+      <c r="T28" s="4" t="inlineStr"/>
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>BCIO:013065</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement through enjoyment</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr"/>
-      <c r="E29" s="5" t="inlineStr"/>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>enjoyment</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Emotional BCI engagement that involves enjoyment. </t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
         </is>
       </c>
-      <c r="J29" s="5" t="inlineStr"/>
-      <c r="K29" s="5" t="inlineStr"/>
-      <c r="L29" s="5" t="inlineStr"/>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr"/>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr"/>
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P29" s="5" t="inlineStr">
+      <c r="P29" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q29" s="5" t="inlineStr"/>
-      <c r="R29" s="5" t="inlineStr"/>
-      <c r="S29" s="5" t="inlineStr"/>
-      <c r="T29" s="5" t="inlineStr"/>
-      <c r="U29" s="5" t="inlineStr"/>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X29" s="5" t="inlineStr"/>
+      <c r="Q29" s="4" t="inlineStr"/>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr"/>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W29" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>BCIO:050526</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement through fear</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr"/>
-      <c r="E30" s="5" t="inlineStr"/>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves fear.</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr"/>
-      <c r="J30" s="5" t="inlineStr"/>
-      <c r="K30" s="5" t="inlineStr"/>
-      <c r="L30" s="5" t="inlineStr"/>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr"/>
-      <c r="O30" s="5" t="inlineStr">
+      <c r="I30" s="4" t="inlineStr"/>
+      <c r="J30" s="4" t="inlineStr"/>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P30" s="5" t="inlineStr">
+      <c r="P30" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q30" s="5" t="inlineStr"/>
-      <c r="R30" s="5" t="inlineStr"/>
-      <c r="S30" s="5" t="inlineStr"/>
-      <c r="T30" s="5" t="inlineStr"/>
-      <c r="U30" s="5" t="inlineStr"/>
-      <c r="V30" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X30" s="5" t="inlineStr"/>
+      <c r="Q30" s="4" t="inlineStr"/>
+      <c r="R30" s="4" t="inlineStr"/>
+      <c r="S30" s="4" t="inlineStr"/>
+      <c r="T30" s="4" t="inlineStr"/>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W30" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>BCIO:013075</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional BCI engagement through interest </t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr"/>
-      <c r="E31" s="5" t="inlineStr"/>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>interest</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves interest.</t>
         </is>
       </c>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
 “Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
 The opposite of interest is boredom.</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I31" s="4" t="inlineStr">
         <is>
           <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
         </is>
       </c>
-      <c r="J31" s="5" t="inlineStr"/>
-      <c r="K31" s="5" t="inlineStr"/>
-      <c r="L31" s="5" t="inlineStr"/>
-      <c r="M31" s="5" t="inlineStr"/>
-      <c r="N31" s="5" t="inlineStr"/>
-      <c r="O31" s="5" t="inlineStr">
+      <c r="J31" s="4" t="inlineStr"/>
+      <c r="K31" s="4" t="inlineStr"/>
+      <c r="L31" s="4" t="inlineStr"/>
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr"/>
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P31" s="5" t="inlineStr">
+      <c r="P31" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q31" s="5" t="inlineStr"/>
-      <c r="R31" s="5" t="inlineStr"/>
-      <c r="S31" s="5" t="inlineStr"/>
-      <c r="T31" s="5" t="inlineStr"/>
-      <c r="U31" s="5" t="inlineStr"/>
-      <c r="V31" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W31" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X31" s="5" t="inlineStr"/>
+      <c r="Q31" s="4" t="inlineStr"/>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr"/>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
+      <c r="V31" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W31" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" s="4" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>BCIO:050527</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr"/>
-      <c r="E32" s="5" t="inlineStr"/>
-      <c r="F32" s="5" t="inlineStr"/>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
         </is>
       </c>
-      <c r="H32" s="5" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
-      <c r="I32" s="5" t="inlineStr"/>
-      <c r="J32" s="5" t="inlineStr"/>
-      <c r="K32" s="5" t="inlineStr"/>
-      <c r="L32" s="5" t="inlineStr"/>
-      <c r="M32" s="5" t="inlineStr"/>
-      <c r="N32" s="5" t="inlineStr"/>
-      <c r="O32" s="5" t="inlineStr">
+      <c r="I32" s="4" t="inlineStr"/>
+      <c r="J32" s="4" t="inlineStr"/>
+      <c r="K32" s="4" t="inlineStr"/>
+      <c r="L32" s="4" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr"/>
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P32" s="5" t="inlineStr">
+      <c r="P32" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q32" s="5" t="inlineStr"/>
-      <c r="R32" s="5" t="inlineStr"/>
-      <c r="S32" s="5" t="inlineStr"/>
-      <c r="T32" s="5" t="inlineStr"/>
-      <c r="U32" s="5" t="inlineStr"/>
-      <c r="V32" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W32" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" s="5" t="inlineStr"/>
+      <c r="Q32" s="4" t="inlineStr"/>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr"/>
+      <c r="T32" s="4" t="inlineStr"/>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W32" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>BCIO:013070</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr"/>
-      <c r="E33" s="5" t="inlineStr"/>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
-      <c r="I33" s="5" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
-      <c r="J33" s="5" t="inlineStr"/>
-      <c r="K33" s="5" t="inlineStr"/>
-      <c r="L33" s="5" t="inlineStr"/>
-      <c r="M33" s="5" t="inlineStr"/>
-      <c r="N33" s="5" t="inlineStr"/>
-      <c r="O33" s="5" t="inlineStr">
+      <c r="J33" s="4" t="inlineStr"/>
+      <c r="K33" s="4" t="inlineStr"/>
+      <c r="L33" s="4" t="inlineStr"/>
+      <c r="M33" s="4" t="inlineStr"/>
+      <c r="N33" s="4" t="inlineStr"/>
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P33" s="5" t="inlineStr">
+      <c r="P33" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q33" s="5" t="inlineStr"/>
-      <c r="R33" s="5" t="inlineStr"/>
-      <c r="S33" s="5" t="inlineStr"/>
-      <c r="T33" s="5" t="inlineStr"/>
-      <c r="U33" s="5" t="inlineStr"/>
-      <c r="V33" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W33" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X33" s="5" t="inlineStr"/>
+      <c r="Q33" s="4" t="inlineStr"/>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="inlineStr"/>
+      <c r="T33" s="4" t="inlineStr"/>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W33" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2855,1324 +2855,1324 @@
       <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>BCIO:050528</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>maximum BCI engagement period</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr"/>
+      <c r="J38" s="4" t="inlineStr">
         <is>
           <t>The maximum period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr">
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr"/>
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" s="4" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr"/>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr"/>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X38" s="2" t="inlineStr"/>
+      <c r="P38" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q38" s="4" t="inlineStr"/>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr"/>
+      <c r="T38" s="4" t="inlineStr"/>
+      <c r="U38" s="4" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W38" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>BCIO:050529</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>maximum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr">
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr"/>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X39" s="2" t="inlineStr"/>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="inlineStr"/>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr"/>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W39" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>BCIO:050530</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr"/>
-      <c r="F40" s="5" t="inlineStr"/>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H40" s="5" t="inlineStr"/>
-      <c r="I40" s="5" t="inlineStr"/>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr"/>
+      <c r="I40" s="4" t="inlineStr"/>
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K40" s="5" t="inlineStr"/>
-      <c r="L40" s="5" t="inlineStr"/>
-      <c r="M40" s="5" t="inlineStr"/>
-      <c r="N40" s="5" t="inlineStr"/>
-      <c r="O40" s="5" t="inlineStr">
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P40" s="5" t="inlineStr">
+      <c r="P40" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q40" s="5" t="inlineStr"/>
-      <c r="R40" s="5" t="inlineStr"/>
-      <c r="S40" s="5" t="inlineStr"/>
-      <c r="T40" s="5" t="inlineStr"/>
-      <c r="U40" s="5" t="inlineStr"/>
-      <c r="V40" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W40" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X40" s="5" t="inlineStr"/>
+      <c r="Q40" s="4" t="inlineStr"/>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr"/>
+      <c r="T40" s="4" t="inlineStr"/>
+      <c r="U40" s="4" t="inlineStr"/>
+      <c r="V40" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W40" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>BCIO:050531</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr"/>
-      <c r="F41" s="5" t="inlineStr"/>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H41" s="5" t="inlineStr"/>
-      <c r="I41" s="5" t="inlineStr"/>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="H41" s="4" t="inlineStr"/>
+      <c r="I41" s="4" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K41" s="5" t="inlineStr"/>
-      <c r="L41" s="5" t="inlineStr"/>
-      <c r="M41" s="5" t="inlineStr"/>
-      <c r="N41" s="5" t="inlineStr"/>
-      <c r="O41" s="5" t="inlineStr">
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P41" s="5" t="inlineStr">
+      <c r="P41" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q41" s="5" t="inlineStr"/>
-      <c r="R41" s="5" t="inlineStr"/>
-      <c r="S41" s="5" t="inlineStr"/>
-      <c r="T41" s="5" t="inlineStr"/>
-      <c r="U41" s="5" t="inlineStr"/>
-      <c r="V41" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W41" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" s="5" t="inlineStr"/>
+      <c r="Q41" s="4" t="inlineStr"/>
+      <c r="R41" s="4" t="inlineStr"/>
+      <c r="S41" s="4" t="inlineStr"/>
+      <c r="T41" s="4" t="inlineStr"/>
+      <c r="U41" s="4" t="inlineStr"/>
+      <c r="V41" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W41" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>BCIO:050532</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr"/>
-      <c r="F42" s="5" t="inlineStr"/>
-      <c r="G42" s="5" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H42" s="5" t="inlineStr"/>
-      <c r="I42" s="5" t="inlineStr"/>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="H42" s="4" t="inlineStr"/>
+      <c r="I42" s="4" t="inlineStr"/>
+      <c r="J42" s="4" t="inlineStr">
         <is>
           <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K42" s="5" t="inlineStr"/>
-      <c r="L42" s="5" t="inlineStr"/>
-      <c r="M42" s="5" t="inlineStr"/>
-      <c r="N42" s="5" t="inlineStr"/>
-      <c r="O42" s="5" t="inlineStr">
+      <c r="K42" s="4" t="inlineStr"/>
+      <c r="L42" s="4" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr"/>
+      <c r="N42" s="4" t="inlineStr"/>
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P42" s="5" t="inlineStr">
+      <c r="P42" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q42" s="5" t="inlineStr"/>
-      <c r="R42" s="5" t="inlineStr"/>
-      <c r="S42" s="5" t="inlineStr"/>
-      <c r="T42" s="5" t="inlineStr"/>
-      <c r="U42" s="5" t="inlineStr"/>
-      <c r="V42" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W42" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X42" s="5" t="inlineStr"/>
+      <c r="Q42" s="4" t="inlineStr"/>
+      <c r="R42" s="4" t="inlineStr"/>
+      <c r="S42" s="4" t="inlineStr"/>
+      <c r="T42" s="4" t="inlineStr"/>
+      <c r="U42" s="4" t="inlineStr"/>
+      <c r="V42" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W42" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X42" s="4" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>BCIO:050533</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>mean BCI engagement period</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr">
+      <c r="H43" s="4" t="inlineStr"/>
+      <c r="I43" s="4" t="inlineStr"/>
+      <c r="J43" s="4" t="inlineStr">
         <is>
           <t>The mean period of intervention  that participants engaged with.</t>
         </is>
       </c>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr">
+      <c r="K43" s="4" t="inlineStr"/>
+      <c r="L43" s="4" t="inlineStr"/>
+      <c r="M43" s="4" t="inlineStr"/>
+      <c r="N43" s="4" t="inlineStr"/>
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr"/>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr"/>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X43" s="2" t="inlineStr"/>
+      <c r="P43" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q43" s="4" t="inlineStr"/>
+      <c r="R43" s="4" t="inlineStr"/>
+      <c r="S43" s="4" t="inlineStr"/>
+      <c r="T43" s="4" t="inlineStr"/>
+      <c r="U43" s="4" t="inlineStr"/>
+      <c r="V43" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W43" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>BCIO:050534</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="H44" s="4" t="inlineStr"/>
+      <c r="I44" s="4" t="inlineStr"/>
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr">
+      <c r="K44" s="4" t="inlineStr"/>
+      <c r="L44" s="4" t="inlineStr"/>
+      <c r="M44" s="4" t="inlineStr"/>
+      <c r="N44" s="4" t="inlineStr"/>
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr"/>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr"/>
-      <c r="T44" s="2" t="inlineStr"/>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X44" s="2" t="inlineStr"/>
+      <c r="P44" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q44" s="4" t="inlineStr"/>
+      <c r="R44" s="4" t="inlineStr"/>
+      <c r="S44" s="4" t="inlineStr"/>
+      <c r="T44" s="4" t="inlineStr"/>
+      <c r="U44" s="4" t="inlineStr"/>
+      <c r="V44" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W44" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X44" s="4" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>BCIO:050535</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D45" s="5" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E45" s="5" t="inlineStr"/>
-      <c r="F45" s="5" t="inlineStr"/>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H45" s="5" t="inlineStr"/>
-      <c r="I45" s="5" t="inlineStr"/>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="H45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr">
         <is>
           <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K45" s="5" t="inlineStr"/>
-      <c r="L45" s="5" t="inlineStr"/>
-      <c r="M45" s="5" t="inlineStr"/>
-      <c r="N45" s="5" t="inlineStr"/>
-      <c r="O45" s="5" t="inlineStr">
+      <c r="K45" s="4" t="inlineStr"/>
+      <c r="L45" s="4" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P45" s="5" t="inlineStr">
+      <c r="P45" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q45" s="5" t="inlineStr"/>
-      <c r="R45" s="5" t="inlineStr"/>
-      <c r="S45" s="5" t="inlineStr"/>
-      <c r="T45" s="5" t="inlineStr"/>
-      <c r="U45" s="5" t="inlineStr"/>
-      <c r="V45" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W45" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" s="5" t="inlineStr"/>
+      <c r="Q45" s="4" t="inlineStr"/>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr"/>
+      <c r="T45" s="4" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W45" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X45" s="4" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>BCIO:050536</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D46" s="5" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E46" s="5" t="inlineStr"/>
-      <c r="F46" s="5" t="inlineStr"/>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H46" s="5" t="inlineStr"/>
-      <c r="I46" s="5" t="inlineStr"/>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="H46" s="4" t="inlineStr"/>
+      <c r="I46" s="4" t="inlineStr"/>
+      <c r="J46" s="4" t="inlineStr">
         <is>
           <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K46" s="5" t="inlineStr"/>
-      <c r="L46" s="5" t="inlineStr"/>
-      <c r="M46" s="5" t="inlineStr"/>
-      <c r="N46" s="5" t="inlineStr"/>
-      <c r="O46" s="5" t="inlineStr">
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr"/>
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr"/>
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P46" s="5" t="inlineStr">
+      <c r="P46" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q46" s="5" t="inlineStr"/>
-      <c r="R46" s="5" t="inlineStr"/>
-      <c r="S46" s="5" t="inlineStr"/>
-      <c r="T46" s="5" t="inlineStr"/>
-      <c r="U46" s="5" t="inlineStr"/>
-      <c r="V46" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W46" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" s="5" t="inlineStr"/>
+      <c r="Q46" s="4" t="inlineStr"/>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr"/>
+      <c r="T46" s="4" t="inlineStr"/>
+      <c r="U46" s="4" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W46" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>BCIO:050537</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D47" s="5" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E47" s="5" t="inlineStr"/>
-      <c r="F47" s="5" t="inlineStr"/>
-      <c r="G47" s="5" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H47" s="5" t="inlineStr"/>
-      <c r="I47" s="5" t="inlineStr"/>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="H47" s="4" t="inlineStr"/>
+      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K47" s="5" t="inlineStr"/>
-      <c r="L47" s="5" t="inlineStr"/>
-      <c r="M47" s="5" t="inlineStr"/>
-      <c r="N47" s="5" t="inlineStr"/>
-      <c r="O47" s="5" t="inlineStr">
+      <c r="K47" s="4" t="inlineStr"/>
+      <c r="L47" s="4" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr"/>
+      <c r="N47" s="4" t="inlineStr"/>
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P47" s="5" t="inlineStr">
+      <c r="P47" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q47" s="5" t="inlineStr"/>
-      <c r="R47" s="5" t="inlineStr"/>
-      <c r="S47" s="5" t="inlineStr"/>
-      <c r="T47" s="5" t="inlineStr"/>
-      <c r="U47" s="5" t="inlineStr"/>
-      <c r="V47" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W47" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X47" s="5" t="inlineStr"/>
+      <c r="Q47" s="4" t="inlineStr"/>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr"/>
+      <c r="T47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="inlineStr"/>
+      <c r="V47" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W47" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X47" s="4" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>BCIO:050538</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>median BCI engagement period</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>The median period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr">
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr"/>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X48" s="2" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr"/>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr"/>
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W48" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>BCIO:050539</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr">
+      <c r="H49" s="4" t="inlineStr"/>
+      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr">
+      <c r="K49" s="4" t="inlineStr"/>
+      <c r="L49" s="4" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
-      <c r="T49" s="2" t="inlineStr"/>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X49" s="2" t="inlineStr"/>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr"/>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="4" t="inlineStr"/>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W49" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>BCIO:050540</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr"/>
-      <c r="F50" s="5" t="inlineStr"/>
-      <c r="G50" s="5" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H50" s="5" t="inlineStr"/>
-      <c r="I50" s="5" t="inlineStr"/>
-      <c r="J50" s="5" t="inlineStr">
+      <c r="H50" s="4" t="inlineStr"/>
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K50" s="5" t="inlineStr"/>
-      <c r="L50" s="5" t="inlineStr"/>
-      <c r="M50" s="5" t="inlineStr"/>
-      <c r="N50" s="5" t="inlineStr"/>
-      <c r="O50" s="5" t="inlineStr">
+      <c r="K50" s="4" t="inlineStr"/>
+      <c r="L50" s="4" t="inlineStr"/>
+      <c r="M50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr"/>
+      <c r="O50" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P50" s="5" t="inlineStr">
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q50" s="5" t="inlineStr"/>
-      <c r="R50" s="5" t="inlineStr"/>
-      <c r="S50" s="5" t="inlineStr"/>
-      <c r="T50" s="5" t="inlineStr"/>
-      <c r="U50" s="5" t="inlineStr"/>
-      <c r="V50" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W50" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" s="5" t="inlineStr"/>
+      <c r="Q50" s="4" t="inlineStr"/>
+      <c r="R50" s="4" t="inlineStr"/>
+      <c r="S50" s="4" t="inlineStr"/>
+      <c r="T50" s="4" t="inlineStr"/>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W50" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X50" s="4" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>BCIO:050541</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr"/>
-      <c r="F51" s="5" t="inlineStr"/>
-      <c r="G51" s="5" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H51" s="5" t="inlineStr"/>
-      <c r="I51" s="5" t="inlineStr"/>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K51" s="5" t="inlineStr"/>
-      <c r="L51" s="5" t="inlineStr"/>
-      <c r="M51" s="5" t="inlineStr"/>
-      <c r="N51" s="5" t="inlineStr"/>
-      <c r="O51" s="5" t="inlineStr">
+      <c r="K51" s="4" t="inlineStr"/>
+      <c r="L51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P51" s="5" t="inlineStr">
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q51" s="5" t="inlineStr"/>
-      <c r="R51" s="5" t="inlineStr"/>
-      <c r="S51" s="5" t="inlineStr"/>
-      <c r="T51" s="5" t="inlineStr"/>
-      <c r="U51" s="5" t="inlineStr"/>
-      <c r="V51" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W51" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" s="5" t="inlineStr"/>
+      <c r="Q51" s="4" t="inlineStr"/>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr"/>
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W51" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X51" s="4" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>BCIO:050542</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr"/>
-      <c r="F52" s="5" t="inlineStr"/>
-      <c r="G52" s="5" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H52" s="5" t="inlineStr"/>
-      <c r="I52" s="5" t="inlineStr"/>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="H52" s="4" t="inlineStr"/>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr"/>
-      <c r="L52" s="5" t="inlineStr"/>
-      <c r="M52" s="5" t="inlineStr"/>
-      <c r="N52" s="5" t="inlineStr"/>
-      <c r="O52" s="5" t="inlineStr">
+      <c r="K52" s="4" t="inlineStr"/>
+      <c r="L52" s="4" t="inlineStr"/>
+      <c r="M52" s="4" t="inlineStr"/>
+      <c r="N52" s="4" t="inlineStr"/>
+      <c r="O52" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P52" s="5" t="inlineStr">
+      <c r="P52" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q52" s="5" t="inlineStr"/>
-      <c r="R52" s="5" t="inlineStr"/>
-      <c r="S52" s="5" t="inlineStr"/>
-      <c r="T52" s="5" t="inlineStr"/>
-      <c r="U52" s="5" t="inlineStr"/>
-      <c r="V52" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W52" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" s="5" t="inlineStr"/>
+      <c r="Q52" s="4" t="inlineStr"/>
+      <c r="R52" s="4" t="inlineStr"/>
+      <c r="S52" s="4" t="inlineStr"/>
+      <c r="T52" s="4" t="inlineStr"/>
+      <c r="U52" s="4" t="inlineStr"/>
+      <c r="V52" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W52" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X52" s="4" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>BCIO:050543</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>minimum BCI engagement period</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period statistic</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>BCI engagement period</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
         <is>
           <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr">
+      <c r="H53" s="4" t="inlineStr"/>
+      <c r="I53" s="4" t="inlineStr"/>
+      <c r="J53" s="4" t="inlineStr">
         <is>
           <t>The minimum period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr">
+      <c r="K53" s="4" t="inlineStr"/>
+      <c r="L53" s="4" t="inlineStr"/>
+      <c r="M53" s="4" t="inlineStr"/>
+      <c r="N53" s="4" t="inlineStr"/>
+      <c r="O53" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P53" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr"/>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr"/>
-      <c r="T53" s="2" t="inlineStr"/>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W53" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X53" s="2" t="inlineStr"/>
+      <c r="P53" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q53" s="4" t="inlineStr"/>
+      <c r="R53" s="4" t="inlineStr"/>
+      <c r="S53" s="4" t="inlineStr"/>
+      <c r="T53" s="4" t="inlineStr"/>
+      <c r="U53" s="4" t="inlineStr"/>
+      <c r="V53" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W53" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>BCIO:050544</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr">
+      <c r="K54" s="4" t="inlineStr"/>
+      <c r="L54" s="4" t="inlineStr"/>
+      <c r="M54" s="4" t="inlineStr"/>
+      <c r="N54" s="4" t="inlineStr"/>
+      <c r="O54" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr"/>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
-      <c r="T54" s="2" t="inlineStr"/>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" s="2" t="inlineStr"/>
+      <c r="P54" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q54" s="4" t="inlineStr"/>
+      <c r="R54" s="4" t="inlineStr"/>
+      <c r="S54" s="4" t="inlineStr"/>
+      <c r="T54" s="4" t="inlineStr"/>
+      <c r="U54" s="4" t="inlineStr"/>
+      <c r="V54" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W54" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X54" s="4" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>BCIO:050545</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr"/>
-      <c r="F55" s="5" t="inlineStr"/>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H55" s="5" t="inlineStr"/>
-      <c r="I55" s="5" t="inlineStr"/>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K55" s="5" t="inlineStr"/>
-      <c r="L55" s="5" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr"/>
-      <c r="O55" s="5" t="inlineStr">
+      <c r="K55" s="4" t="inlineStr"/>
+      <c r="L55" s="4" t="inlineStr"/>
+      <c r="M55" s="4" t="inlineStr"/>
+      <c r="N55" s="4" t="inlineStr"/>
+      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P55" s="5" t="inlineStr">
+      <c r="P55" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q55" s="5" t="inlineStr"/>
-      <c r="R55" s="5" t="inlineStr"/>
-      <c r="S55" s="5" t="inlineStr"/>
-      <c r="T55" s="5" t="inlineStr"/>
-      <c r="U55" s="5" t="inlineStr"/>
-      <c r="V55" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W55" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" s="5" t="inlineStr"/>
+      <c r="Q55" s="4" t="inlineStr"/>
+      <c r="R55" s="4" t="inlineStr"/>
+      <c r="S55" s="4" t="inlineStr"/>
+      <c r="T55" s="4" t="inlineStr"/>
+      <c r="U55" s="4" t="inlineStr"/>
+      <c r="V55" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W55" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>BCIO:050546</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr"/>
-      <c r="F56" s="5" t="inlineStr"/>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H56" s="5" t="inlineStr"/>
-      <c r="I56" s="5" t="inlineStr"/>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="H56" s="4" t="inlineStr"/>
+      <c r="I56" s="4" t="inlineStr"/>
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K56" s="5" t="inlineStr"/>
-      <c r="L56" s="5" t="inlineStr"/>
-      <c r="M56" s="5" t="inlineStr"/>
-      <c r="N56" s="5" t="inlineStr"/>
-      <c r="O56" s="5" t="inlineStr">
+      <c r="K56" s="4" t="inlineStr"/>
+      <c r="L56" s="4" t="inlineStr"/>
+      <c r="M56" s="4" t="inlineStr"/>
+      <c r="N56" s="4" t="inlineStr"/>
+      <c r="O56" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P56" s="5" t="inlineStr">
+      <c r="P56" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q56" s="5" t="inlineStr"/>
-      <c r="R56" s="5" t="inlineStr"/>
-      <c r="S56" s="5" t="inlineStr"/>
-      <c r="T56" s="5" t="inlineStr"/>
-      <c r="U56" s="5" t="inlineStr"/>
-      <c r="V56" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W56" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" s="5" t="inlineStr"/>
+      <c r="Q56" s="4" t="inlineStr"/>
+      <c r="R56" s="4" t="inlineStr"/>
+      <c r="S56" s="4" t="inlineStr"/>
+      <c r="T56" s="4" t="inlineStr"/>
+      <c r="U56" s="4" t="inlineStr"/>
+      <c r="V56" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W56" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X56" s="4" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>BCIO:050547</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr"/>
-      <c r="F57" s="5" t="inlineStr"/>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H57" s="5" t="inlineStr"/>
-      <c r="I57" s="5" t="inlineStr"/>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="H57" s="4" t="inlineStr"/>
+      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr">
         <is>
           <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K57" s="5" t="inlineStr"/>
-      <c r="L57" s="5" t="inlineStr"/>
-      <c r="M57" s="5" t="inlineStr"/>
-      <c r="N57" s="5" t="inlineStr"/>
-      <c r="O57" s="5" t="inlineStr">
+      <c r="K57" s="4" t="inlineStr"/>
+      <c r="L57" s="4" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr"/>
+      <c r="O57" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P57" s="5" t="inlineStr">
+      <c r="P57" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q57" s="5" t="inlineStr"/>
-      <c r="R57" s="5" t="inlineStr"/>
-      <c r="S57" s="5" t="inlineStr"/>
-      <c r="T57" s="5" t="inlineStr"/>
-      <c r="U57" s="5" t="inlineStr"/>
-      <c r="V57" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W57" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" s="5" t="inlineStr"/>
+      <c r="Q57" s="4" t="inlineStr"/>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr"/>
+      <c r="T57" s="4" t="inlineStr"/>
+      <c r="U57" s="4" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W57" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -4233,79 +4233,79 @@
       <c r="X58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>BCIO:013015</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>number of BCI engagement events</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D59" s="5" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E59" s="5" t="inlineStr"/>
-      <c r="F59" s="5" t="inlineStr"/>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
         </is>
       </c>
-      <c r="H59" s="5" t="inlineStr">
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
 Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
-      <c r="I59" s="5" t="inlineStr"/>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
-      <c r="K59" s="5" t="inlineStr"/>
-      <c r="L59" s="5" t="inlineStr"/>
-      <c r="M59" s="5" t="inlineStr">
+      <c r="K59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N59" s="5" t="inlineStr"/>
-      <c r="O59" s="5" t="inlineStr">
+      <c r="N59" s="4" t="inlineStr"/>
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="P59" s="5" t="inlineStr">
+      <c r="P59" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q59" s="5" t="inlineStr"/>
-      <c r="R59" s="5" t="inlineStr"/>
-      <c r="S59" s="5" t="inlineStr"/>
-      <c r="T59" s="5" t="inlineStr"/>
-      <c r="U59" s="5" t="inlineStr"/>
-      <c r="V59" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W59" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" s="5" t="inlineStr"/>
+      <c r="Q59" s="4" t="inlineStr"/>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr"/>
+      <c r="T59" s="4" t="inlineStr"/>
+      <c r="U59" s="4" t="inlineStr"/>
+      <c r="V59" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W59" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4416,66 +4416,66 @@
       <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>BCIO:050549</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>temporal reference point associated with behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr"/>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A time point against which behavioural BCI engagement is referenced. </t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr">
+      <c r="H62" s="4" t="inlineStr"/>
+      <c r="I62" s="4" t="inlineStr"/>
+      <c r="J62" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr">
+      <c r="K62" s="4" t="inlineStr"/>
+      <c r="L62" s="4" t="inlineStr"/>
+      <c r="M62" s="4" t="inlineStr"/>
+      <c r="N62" s="4" t="inlineStr"/>
+      <c r="O62" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P62" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q62" s="2" t="inlineStr"/>
-      <c r="R62" s="2" t="inlineStr"/>
-      <c r="S62" s="2" t="inlineStr"/>
-      <c r="T62" s="2" t="inlineStr"/>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W62" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X62" s="2" t="inlineStr"/>
+      <c r="P62" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q62" s="4" t="inlineStr"/>
+      <c r="R62" s="4" t="inlineStr"/>
+      <c r="S62" s="4" t="inlineStr"/>
+      <c r="T62" s="4" t="inlineStr"/>
+      <c r="U62" s="4" t="inlineStr"/>
+      <c r="V62" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W62" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X62" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -2064,7 +2064,11 @@
           <t>comprehension</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -2054,62 +2054,62 @@
       <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>BCIO:006110</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>Ai; PS</t>
         </is>
       </c>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X25" s="2" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W25" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1139,7 +1139,11 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Evaluating the usefulness or relevance of something.</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1147,7 +1151,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Ai</t>
+          <t>Ai; PS</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1197,7 +1201,11 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Focusing on particular internal or external stimuli.</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1205,7 +1213,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Ai</t>
+          <t>Ai; PS</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -4179,62 +4187,62 @@
       <c r="X57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050548</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MFOEM:000225</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>mistrust</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>An emotion that involves feeling suspicious of, or doubting the honesty, fairness or abilities of something or someone.</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P58" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q58" s="2" t="inlineStr"/>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr"/>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W58" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X58" s="2" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -4332,7 +4340,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled</t>
+          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -4344,7 +4352,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Ai</t>
+          <t>Ai; PS</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -2120,58 +2120,58 @@
       <c r="X25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>STATO:0000047</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>A count is a data item denoted by an integer and represented the number of instances or occurrences of an entity</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="H26" s="3" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2755,58 +2755,58 @@
       <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>PATO:0000044</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -728,7 +734,7 @@
       </c>
       <c r="P4" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q4" s="4" t="inlineStr"/>
@@ -790,7 +796,7 @@
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr"/>
@@ -1032,7 +1038,7 @@
       </c>
       <c r="P9" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q9" s="4" t="inlineStr"/>
@@ -1094,7 +1100,7 @@
       </c>
       <c r="P10" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q10" s="4" t="inlineStr"/>
@@ -1284,7 +1290,7 @@
       </c>
       <c r="P13" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q13" s="4" t="inlineStr"/>
@@ -1354,7 +1360,7 @@
       </c>
       <c r="P14" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q14" s="4" t="inlineStr"/>
@@ -1433,7 +1439,7 @@
       </c>
       <c r="P15" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q15" s="4" t="inlineStr"/>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr"/>
@@ -1571,7 +1577,7 @@
       </c>
       <c r="P17" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q17" s="4" t="inlineStr"/>
@@ -1633,7 +1639,7 @@
       </c>
       <c r="P18" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q18" s="4" t="inlineStr"/>
@@ -1695,7 +1701,7 @@
       </c>
       <c r="P19" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q19" s="4" t="inlineStr"/>
@@ -1765,7 +1771,7 @@
       </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr"/>
@@ -1835,7 +1841,7 @@
       </c>
       <c r="P21" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q21" s="4" t="inlineStr"/>
@@ -1909,7 +1915,7 @@
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr"/>
@@ -1979,7 +1985,7 @@
       </c>
       <c r="P23" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr"/>
@@ -2099,7 +2105,7 @@
       </c>
       <c r="P25" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q25" s="4" t="inlineStr"/>
@@ -2286,7 +2292,7 @@
       </c>
       <c r="P28" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q28" s="4" t="inlineStr"/>
@@ -2356,7 +2362,7 @@
       </c>
       <c r="P29" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr"/>
@@ -2422,7 +2428,7 @@
       </c>
       <c r="P30" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q30" s="4" t="inlineStr"/>
@@ -2494,7 +2500,7 @@
       </c>
       <c r="P31" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q31" s="4" t="inlineStr"/>
@@ -2515,136 +2521,136 @@
       <c r="X31" s="4" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>BCIO:050527</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr"/>
-      <c r="E32" s="4" t="inlineStr"/>
-      <c r="F32" s="4" t="inlineStr"/>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr"/>
+      <c r="E32" s="5" t="inlineStr"/>
+      <c r="F32" s="5" t="inlineStr"/>
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr"/>
-      <c r="J32" s="4" t="inlineStr"/>
-      <c r="K32" s="4" t="inlineStr"/>
-      <c r="L32" s="4" t="inlineStr"/>
-      <c r="M32" s="4" t="inlineStr"/>
-      <c r="N32" s="4" t="inlineStr"/>
-      <c r="O32" s="4" t="inlineStr">
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="J32" s="5" t="inlineStr"/>
+      <c r="K32" s="5" t="inlineStr"/>
+      <c r="L32" s="5" t="inlineStr"/>
+      <c r="M32" s="5" t="inlineStr"/>
+      <c r="N32" s="5" t="inlineStr"/>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P32" s="4" t="inlineStr">
+      <c r="P32" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q32" s="4" t="inlineStr"/>
-      <c r="R32" s="4" t="inlineStr"/>
-      <c r="S32" s="4" t="inlineStr"/>
-      <c r="T32" s="4" t="inlineStr"/>
-      <c r="U32" s="4" t="inlineStr"/>
-      <c r="V32" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W32" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" s="4" t="inlineStr"/>
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr"/>
+      <c r="T32" s="5" t="inlineStr"/>
+      <c r="U32" s="5" t="inlineStr"/>
+      <c r="V32" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W32" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" s="5" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>BCIO:013070</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr"/>
-      <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr"/>
+      <c r="E33" s="5" t="inlineStr"/>
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr"/>
-      <c r="K33" s="4" t="inlineStr"/>
-      <c r="L33" s="4" t="inlineStr"/>
-      <c r="M33" s="4" t="inlineStr"/>
-      <c r="N33" s="4" t="inlineStr"/>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr"/>
+      <c r="K33" s="5" t="inlineStr"/>
+      <c r="L33" s="5" t="inlineStr"/>
+      <c r="M33" s="5" t="inlineStr"/>
+      <c r="N33" s="5" t="inlineStr"/>
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P33" s="4" t="inlineStr">
+      <c r="P33" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr"/>
-      <c r="S33" s="4" t="inlineStr"/>
-      <c r="T33" s="4" t="inlineStr"/>
-      <c r="U33" s="4" t="inlineStr"/>
-      <c r="V33" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W33" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X33" s="4" t="inlineStr"/>
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="inlineStr"/>
+      <c r="T33" s="5" t="inlineStr"/>
+      <c r="U33" s="5" t="inlineStr"/>
+      <c r="V33" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W33" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" s="5" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2912,7 +2918,7 @@
       </c>
       <c r="P38" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q38" s="4" t="inlineStr"/>
@@ -2933,268 +2939,268 @@
       <c r="X38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>BCIO:050529</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>maximum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr"/>
+      <c r="F39" s="5" t="inlineStr"/>
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="4" t="inlineStr"/>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="H39" s="5" t="inlineStr"/>
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr"/>
-      <c r="O39" s="4" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr"/>
+      <c r="L39" s="5" t="inlineStr"/>
+      <c r="M39" s="5" t="inlineStr"/>
+      <c r="N39" s="5" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P39" s="4" t="inlineStr">
+      <c r="P39" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W39" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X39" s="4" t="inlineStr"/>
+      <c r="Q39" s="5" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr"/>
+      <c r="S39" s="5" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr"/>
+      <c r="U39" s="5" t="inlineStr"/>
+      <c r="V39" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" s="5" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>BCIO:050530</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr"/>
+      <c r="F40" s="5" t="inlineStr"/>
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr"/>
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="4" t="inlineStr"/>
-      <c r="O40" s="4" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr"/>
+      <c r="L40" s="5" t="inlineStr"/>
+      <c r="M40" s="5" t="inlineStr"/>
+      <c r="N40" s="5" t="inlineStr"/>
+      <c r="O40" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P40" s="4" t="inlineStr">
+      <c r="P40" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q40" s="4" t="inlineStr"/>
-      <c r="R40" s="4" t="inlineStr"/>
-      <c r="S40" s="4" t="inlineStr"/>
-      <c r="T40" s="4" t="inlineStr"/>
-      <c r="U40" s="4" t="inlineStr"/>
-      <c r="V40" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W40" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X40" s="4" t="inlineStr"/>
+      <c r="Q40" s="5" t="inlineStr"/>
+      <c r="R40" s="5" t="inlineStr"/>
+      <c r="S40" s="5" t="inlineStr"/>
+      <c r="T40" s="5" t="inlineStr"/>
+      <c r="U40" s="5" t="inlineStr"/>
+      <c r="V40" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W40" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" s="5" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>BCIO:050531</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr"/>
+      <c r="F41" s="5" t="inlineStr"/>
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr"/>
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr"/>
-      <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr"/>
-      <c r="O41" s="4" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr"/>
+      <c r="L41" s="5" t="inlineStr"/>
+      <c r="M41" s="5" t="inlineStr"/>
+      <c r="N41" s="5" t="inlineStr"/>
+      <c r="O41" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P41" s="4" t="inlineStr">
+      <c r="P41" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="inlineStr"/>
-      <c r="V41" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W41" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" s="4" t="inlineStr"/>
+      <c r="Q41" s="5" t="inlineStr"/>
+      <c r="R41" s="5" t="inlineStr"/>
+      <c r="S41" s="5" t="inlineStr"/>
+      <c r="T41" s="5" t="inlineStr"/>
+      <c r="U41" s="5" t="inlineStr"/>
+      <c r="V41" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W41" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" s="5" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>BCIO:050532</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr"/>
-      <c r="F42" s="4" t="inlineStr"/>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr"/>
+      <c r="F42" s="5" t="inlineStr"/>
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H42" s="4" t="inlineStr"/>
-      <c r="I42" s="4" t="inlineStr"/>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr"/>
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K42" s="4" t="inlineStr"/>
-      <c r="L42" s="4" t="inlineStr"/>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr"/>
-      <c r="O42" s="4" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr"/>
+      <c r="L42" s="5" t="inlineStr"/>
+      <c r="M42" s="5" t="inlineStr"/>
+      <c r="N42" s="5" t="inlineStr"/>
+      <c r="O42" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P42" s="4" t="inlineStr">
+      <c r="P42" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q42" s="4" t="inlineStr"/>
-      <c r="R42" s="4" t="inlineStr"/>
-      <c r="S42" s="4" t="inlineStr"/>
-      <c r="T42" s="4" t="inlineStr"/>
-      <c r="U42" s="4" t="inlineStr"/>
-      <c r="V42" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W42" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X42" s="4" t="inlineStr"/>
+      <c r="Q42" s="5" t="inlineStr"/>
+      <c r="R42" s="5" t="inlineStr"/>
+      <c r="S42" s="5" t="inlineStr"/>
+      <c r="T42" s="5" t="inlineStr"/>
+      <c r="U42" s="5" t="inlineStr"/>
+      <c r="V42" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W42" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X42" s="5" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -3242,7 +3248,7 @@
       </c>
       <c r="P43" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q43" s="4" t="inlineStr"/>
@@ -3263,268 +3269,268 @@
       <c r="X43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>BCIO:050534</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr"/>
-      <c r="F44" s="4" t="inlineStr"/>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr"/>
+      <c r="F44" s="5" t="inlineStr"/>
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="4" t="inlineStr"/>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="H44" s="5" t="inlineStr"/>
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K44" s="4" t="inlineStr"/>
-      <c r="L44" s="4" t="inlineStr"/>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr"/>
-      <c r="O44" s="4" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr"/>
+      <c r="L44" s="5" t="inlineStr"/>
+      <c r="M44" s="5" t="inlineStr"/>
+      <c r="N44" s="5" t="inlineStr"/>
+      <c r="O44" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P44" s="4" t="inlineStr">
+      <c r="P44" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q44" s="4" t="inlineStr"/>
-      <c r="R44" s="4" t="inlineStr"/>
-      <c r="S44" s="4" t="inlineStr"/>
-      <c r="T44" s="4" t="inlineStr"/>
-      <c r="U44" s="4" t="inlineStr"/>
-      <c r="V44" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W44" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X44" s="4" t="inlineStr"/>
+      <c r="Q44" s="5" t="inlineStr"/>
+      <c r="R44" s="5" t="inlineStr"/>
+      <c r="S44" s="5" t="inlineStr"/>
+      <c r="T44" s="5" t="inlineStr"/>
+      <c r="U44" s="5" t="inlineStr"/>
+      <c r="V44" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W44" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X44" s="5" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>BCIO:050535</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="4" t="inlineStr"/>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr"/>
+      <c r="F45" s="5" t="inlineStr"/>
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="inlineStr"/>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="H45" s="5" t="inlineStr"/>
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K45" s="4" t="inlineStr"/>
-      <c r="L45" s="4" t="inlineStr"/>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr"/>
-      <c r="O45" s="4" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr"/>
+      <c r="L45" s="5" t="inlineStr"/>
+      <c r="M45" s="5" t="inlineStr"/>
+      <c r="N45" s="5" t="inlineStr"/>
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P45" s="4" t="inlineStr">
+      <c r="P45" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr"/>
-      <c r="R45" s="4" t="inlineStr"/>
-      <c r="S45" s="4" t="inlineStr"/>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
-      <c r="V45" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W45" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" s="4" t="inlineStr"/>
+      <c r="Q45" s="5" t="inlineStr"/>
+      <c r="R45" s="5" t="inlineStr"/>
+      <c r="S45" s="5" t="inlineStr"/>
+      <c r="T45" s="5" t="inlineStr"/>
+      <c r="U45" s="5" t="inlineStr"/>
+      <c r="V45" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W45" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>BCIO:050536</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr"/>
+      <c r="F46" s="5" t="inlineStr"/>
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="H46" s="5" t="inlineStr"/>
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="J46" s="5" t="inlineStr">
         <is>
           <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr"/>
-      <c r="O46" s="4" t="inlineStr">
+      <c r="K46" s="5" t="inlineStr"/>
+      <c r="L46" s="5" t="inlineStr"/>
+      <c r="M46" s="5" t="inlineStr"/>
+      <c r="N46" s="5" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P46" s="4" t="inlineStr">
+      <c r="P46" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W46" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" s="4" t="inlineStr"/>
+      <c r="Q46" s="5" t="inlineStr"/>
+      <c r="R46" s="5" t="inlineStr"/>
+      <c r="S46" s="5" t="inlineStr"/>
+      <c r="T46" s="5" t="inlineStr"/>
+      <c r="U46" s="5" t="inlineStr"/>
+      <c r="V46" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W46" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X46" s="5" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>BCIO:050537</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr"/>
-      <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr"/>
+      <c r="F47" s="5" t="inlineStr"/>
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="4" t="inlineStr"/>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="H47" s="5" t="inlineStr"/>
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="4" t="inlineStr"/>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr"/>
-      <c r="O47" s="4" t="inlineStr">
+      <c r="K47" s="5" t="inlineStr"/>
+      <c r="L47" s="5" t="inlineStr"/>
+      <c r="M47" s="5" t="inlineStr"/>
+      <c r="N47" s="5" t="inlineStr"/>
+      <c r="O47" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P47" s="4" t="inlineStr">
+      <c r="P47" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q47" s="4" t="inlineStr"/>
-      <c r="R47" s="4" t="inlineStr"/>
-      <c r="S47" s="4" t="inlineStr"/>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
-      <c r="V47" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W47" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X47" s="4" t="inlineStr"/>
+      <c r="Q47" s="5" t="inlineStr"/>
+      <c r="R47" s="5" t="inlineStr"/>
+      <c r="S47" s="5" t="inlineStr"/>
+      <c r="T47" s="5" t="inlineStr"/>
+      <c r="U47" s="5" t="inlineStr"/>
+      <c r="V47" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W47" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -3572,7 +3578,7 @@
       </c>
       <c r="P48" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q48" s="4" t="inlineStr"/>
@@ -3593,268 +3599,268 @@
       <c r="X48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>BCIO:050539</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr"/>
+      <c r="F49" s="5" t="inlineStr"/>
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="4" t="inlineStr"/>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="H49" s="5" t="inlineStr"/>
+      <c r="I49" s="5" t="inlineStr"/>
+      <c r="J49" s="5" t="inlineStr">
         <is>
           <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K49" s="4" t="inlineStr"/>
-      <c r="L49" s="4" t="inlineStr"/>
-      <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="4" t="inlineStr"/>
-      <c r="O49" s="4" t="inlineStr">
+      <c r="K49" s="5" t="inlineStr"/>
+      <c r="L49" s="5" t="inlineStr"/>
+      <c r="M49" s="5" t="inlineStr"/>
+      <c r="N49" s="5" t="inlineStr"/>
+      <c r="O49" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P49" s="4" t="inlineStr">
+      <c r="P49" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q49" s="4" t="inlineStr"/>
-      <c r="R49" s="4" t="inlineStr"/>
-      <c r="S49" s="4" t="inlineStr"/>
-      <c r="T49" s="4" t="inlineStr"/>
-      <c r="U49" s="4" t="inlineStr"/>
-      <c r="V49" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W49" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X49" s="4" t="inlineStr"/>
+      <c r="Q49" s="5" t="inlineStr"/>
+      <c r="R49" s="5" t="inlineStr"/>
+      <c r="S49" s="5" t="inlineStr"/>
+      <c r="T49" s="5" t="inlineStr"/>
+      <c r="U49" s="5" t="inlineStr"/>
+      <c r="V49" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W49" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>BCIO:050540</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr"/>
-      <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr"/>
+      <c r="F50" s="5" t="inlineStr"/>
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H50" s="4" t="inlineStr"/>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="H50" s="5" t="inlineStr"/>
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="J50" s="5" t="inlineStr">
         <is>
           <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K50" s="4" t="inlineStr"/>
-      <c r="L50" s="4" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
-      <c r="O50" s="4" t="inlineStr">
+      <c r="K50" s="5" t="inlineStr"/>
+      <c r="L50" s="5" t="inlineStr"/>
+      <c r="M50" s="5" t="inlineStr"/>
+      <c r="N50" s="5" t="inlineStr"/>
+      <c r="O50" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="P50" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr"/>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr"/>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W50" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" s="4" t="inlineStr"/>
+      <c r="Q50" s="5" t="inlineStr"/>
+      <c r="R50" s="5" t="inlineStr"/>
+      <c r="S50" s="5" t="inlineStr"/>
+      <c r="T50" s="5" t="inlineStr"/>
+      <c r="U50" s="5" t="inlineStr"/>
+      <c r="V50" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W50" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X50" s="5" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>BCIO:050541</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr"/>
+      <c r="F51" s="5" t="inlineStr"/>
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="H51" s="5" t="inlineStr"/>
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="J51" s="5" t="inlineStr">
         <is>
           <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K51" s="4" t="inlineStr"/>
-      <c r="L51" s="4" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr">
+      <c r="K51" s="5" t="inlineStr"/>
+      <c r="L51" s="5" t="inlineStr"/>
+      <c r="M51" s="5" t="inlineStr"/>
+      <c r="N51" s="5" t="inlineStr"/>
+      <c r="O51" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P51" s="4" t="inlineStr">
+      <c r="P51" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q51" s="4" t="inlineStr"/>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr"/>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W51" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" s="4" t="inlineStr"/>
+      <c r="Q51" s="5" t="inlineStr"/>
+      <c r="R51" s="5" t="inlineStr"/>
+      <c r="S51" s="5" t="inlineStr"/>
+      <c r="T51" s="5" t="inlineStr"/>
+      <c r="U51" s="5" t="inlineStr"/>
+      <c r="V51" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W51" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>BCIO:050542</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr"/>
-      <c r="G52" s="4" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr"/>
+      <c r="F52" s="5" t="inlineStr"/>
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H52" s="4" t="inlineStr"/>
-      <c r="I52" s="4" t="inlineStr"/>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="H52" s="5" t="inlineStr"/>
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K52" s="4" t="inlineStr"/>
-      <c r="L52" s="4" t="inlineStr"/>
-      <c r="M52" s="4" t="inlineStr"/>
-      <c r="N52" s="4" t="inlineStr"/>
-      <c r="O52" s="4" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr"/>
+      <c r="L52" s="5" t="inlineStr"/>
+      <c r="M52" s="5" t="inlineStr"/>
+      <c r="N52" s="5" t="inlineStr"/>
+      <c r="O52" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P52" s="4" t="inlineStr">
+      <c r="P52" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q52" s="4" t="inlineStr"/>
-      <c r="R52" s="4" t="inlineStr"/>
-      <c r="S52" s="4" t="inlineStr"/>
-      <c r="T52" s="4" t="inlineStr"/>
-      <c r="U52" s="4" t="inlineStr"/>
-      <c r="V52" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W52" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" s="4" t="inlineStr"/>
+      <c r="Q52" s="5" t="inlineStr"/>
+      <c r="R52" s="5" t="inlineStr"/>
+      <c r="S52" s="5" t="inlineStr"/>
+      <c r="T52" s="5" t="inlineStr"/>
+      <c r="U52" s="5" t="inlineStr"/>
+      <c r="V52" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W52" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X52" s="5" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -3902,7 +3908,7 @@
       </c>
       <c r="P53" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q53" s="4" t="inlineStr"/>
@@ -3923,268 +3929,268 @@
       <c r="X53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>BCIO:050544</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr"/>
-      <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr"/>
+      <c r="F54" s="5" t="inlineStr"/>
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="4" t="inlineStr"/>
-      <c r="J54" s="4" t="inlineStr">
+      <c r="H54" s="5" t="inlineStr"/>
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="J54" s="5" t="inlineStr">
         <is>
           <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K54" s="4" t="inlineStr"/>
-      <c r="L54" s="4" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr"/>
-      <c r="N54" s="4" t="inlineStr"/>
-      <c r="O54" s="4" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr"/>
+      <c r="L54" s="5" t="inlineStr"/>
+      <c r="M54" s="5" t="inlineStr"/>
+      <c r="N54" s="5" t="inlineStr"/>
+      <c r="O54" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P54" s="4" t="inlineStr">
+      <c r="P54" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q54" s="4" t="inlineStr"/>
-      <c r="R54" s="4" t="inlineStr"/>
-      <c r="S54" s="4" t="inlineStr"/>
-      <c r="T54" s="4" t="inlineStr"/>
-      <c r="U54" s="4" t="inlineStr"/>
-      <c r="V54" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W54" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" s="4" t="inlineStr"/>
+      <c r="Q54" s="5" t="inlineStr"/>
+      <c r="R54" s="5" t="inlineStr"/>
+      <c r="S54" s="5" t="inlineStr"/>
+      <c r="T54" s="5" t="inlineStr"/>
+      <c r="U54" s="5" t="inlineStr"/>
+      <c r="V54" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W54" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X54" s="5" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>BCIO:050545</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr"/>
-      <c r="F55" s="4" t="inlineStr"/>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr"/>
+      <c r="F55" s="5" t="inlineStr"/>
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="4" t="inlineStr"/>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="H55" s="5" t="inlineStr"/>
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K55" s="4" t="inlineStr"/>
-      <c r="L55" s="4" t="inlineStr"/>
-      <c r="M55" s="4" t="inlineStr"/>
-      <c r="N55" s="4" t="inlineStr"/>
-      <c r="O55" s="4" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr"/>
+      <c r="L55" s="5" t="inlineStr"/>
+      <c r="M55" s="5" t="inlineStr"/>
+      <c r="N55" s="5" t="inlineStr"/>
+      <c r="O55" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P55" s="4" t="inlineStr">
+      <c r="P55" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q55" s="4" t="inlineStr"/>
-      <c r="R55" s="4" t="inlineStr"/>
-      <c r="S55" s="4" t="inlineStr"/>
-      <c r="T55" s="4" t="inlineStr"/>
-      <c r="U55" s="4" t="inlineStr"/>
-      <c r="V55" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W55" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" s="4" t="inlineStr"/>
+      <c r="Q55" s="5" t="inlineStr"/>
+      <c r="R55" s="5" t="inlineStr"/>
+      <c r="S55" s="5" t="inlineStr"/>
+      <c r="T55" s="5" t="inlineStr"/>
+      <c r="U55" s="5" t="inlineStr"/>
+      <c r="V55" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W55" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>BCIO:050546</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr"/>
-      <c r="F56" s="4" t="inlineStr"/>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr"/>
+      <c r="F56" s="5" t="inlineStr"/>
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H56" s="4" t="inlineStr"/>
-      <c r="I56" s="4" t="inlineStr"/>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr"/>
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr"/>
-      <c r="L56" s="4" t="inlineStr"/>
-      <c r="M56" s="4" t="inlineStr"/>
-      <c r="N56" s="4" t="inlineStr"/>
-      <c r="O56" s="4" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr"/>
+      <c r="L56" s="5" t="inlineStr"/>
+      <c r="M56" s="5" t="inlineStr"/>
+      <c r="N56" s="5" t="inlineStr"/>
+      <c r="O56" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P56" s="4" t="inlineStr">
+      <c r="P56" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q56" s="4" t="inlineStr"/>
-      <c r="R56" s="4" t="inlineStr"/>
-      <c r="S56" s="4" t="inlineStr"/>
-      <c r="T56" s="4" t="inlineStr"/>
-      <c r="U56" s="4" t="inlineStr"/>
-      <c r="V56" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W56" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" s="4" t="inlineStr"/>
+      <c r="Q56" s="5" t="inlineStr"/>
+      <c r="R56" s="5" t="inlineStr"/>
+      <c r="S56" s="5" t="inlineStr"/>
+      <c r="T56" s="5" t="inlineStr"/>
+      <c r="U56" s="5" t="inlineStr"/>
+      <c r="V56" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W56" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X56" s="5" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>BCIO:050547</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr"/>
-      <c r="F57" s="4" t="inlineStr"/>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr"/>
+      <c r="F57" s="5" t="inlineStr"/>
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="4" t="inlineStr"/>
-      <c r="J57" s="4" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr"/>
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="J57" s="5" t="inlineStr">
         <is>
           <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K57" s="4" t="inlineStr"/>
-      <c r="L57" s="4" t="inlineStr"/>
-      <c r="M57" s="4" t="inlineStr"/>
-      <c r="N57" s="4" t="inlineStr"/>
-      <c r="O57" s="4" t="inlineStr">
+      <c r="K57" s="5" t="inlineStr"/>
+      <c r="L57" s="5" t="inlineStr"/>
+      <c r="M57" s="5" t="inlineStr"/>
+      <c r="N57" s="5" t="inlineStr"/>
+      <c r="O57" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P57" s="4" t="inlineStr">
+      <c r="P57" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q57" s="4" t="inlineStr"/>
-      <c r="R57" s="4" t="inlineStr"/>
-      <c r="S57" s="4" t="inlineStr"/>
-      <c r="T57" s="4" t="inlineStr"/>
-      <c r="U57" s="4" t="inlineStr"/>
-      <c r="V57" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W57" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" s="4" t="inlineStr"/>
+      <c r="Q57" s="5" t="inlineStr"/>
+      <c r="R57" s="5" t="inlineStr"/>
+      <c r="S57" s="5" t="inlineStr"/>
+      <c r="T57" s="5" t="inlineStr"/>
+      <c r="U57" s="5" t="inlineStr"/>
+      <c r="V57" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W57" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4245,79 +4251,79 @@
       <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>BCIO:013015</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>number of BCI engagement events</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr"/>
-      <c r="F59" s="4" t="inlineStr"/>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr"/>
+      <c r="F59" s="5" t="inlineStr"/>
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
         </is>
       </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
 Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr"/>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
-      <c r="K59" s="4" t="inlineStr"/>
-      <c r="L59" s="4" t="inlineStr"/>
-      <c r="M59" s="4" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr"/>
+      <c r="L59" s="5" t="inlineStr"/>
+      <c r="M59" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N59" s="4" t="inlineStr"/>
-      <c r="O59" s="4" t="inlineStr">
+      <c r="N59" s="5" t="inlineStr"/>
+      <c r="O59" s="5" t="inlineStr">
         <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="P59" s="4" t="inlineStr">
+      <c r="P59" s="5" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q59" s="4" t="inlineStr"/>
-      <c r="R59" s="4" t="inlineStr"/>
-      <c r="S59" s="4" t="inlineStr"/>
-      <c r="T59" s="4" t="inlineStr"/>
-      <c r="U59" s="4" t="inlineStr"/>
-      <c r="V59" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W59" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" s="4" t="inlineStr"/>
+      <c r="Q59" s="5" t="inlineStr"/>
+      <c r="R59" s="5" t="inlineStr"/>
+      <c r="S59" s="5" t="inlineStr"/>
+      <c r="T59" s="5" t="inlineStr"/>
+      <c r="U59" s="5" t="inlineStr"/>
+      <c r="V59" s="5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W59" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X59" s="5" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4469,7 +4475,7 @@
       </c>
       <c r="P62" s="4" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="Q62" s="4" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -2521,136 +2521,136 @@
       <c r="X31" s="4" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>BCIO:050527</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr"/>
-      <c r="E32" s="5" t="inlineStr"/>
-      <c r="F32" s="5" t="inlineStr"/>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
         </is>
       </c>
-      <c r="H32" s="5" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
-      <c r="I32" s="5" t="inlineStr"/>
-      <c r="J32" s="5" t="inlineStr"/>
-      <c r="K32" s="5" t="inlineStr"/>
-      <c r="L32" s="5" t="inlineStr"/>
-      <c r="M32" s="5" t="inlineStr"/>
-      <c r="N32" s="5" t="inlineStr"/>
-      <c r="O32" s="5" t="inlineStr">
+      <c r="I32" s="4" t="inlineStr"/>
+      <c r="J32" s="4" t="inlineStr"/>
+      <c r="K32" s="4" t="inlineStr"/>
+      <c r="L32" s="4" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr"/>
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q32" s="5" t="inlineStr"/>
-      <c r="R32" s="5" t="inlineStr"/>
-      <c r="S32" s="5" t="inlineStr"/>
-      <c r="T32" s="5" t="inlineStr"/>
-      <c r="U32" s="5" t="inlineStr"/>
-      <c r="V32" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W32" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" s="5" t="inlineStr"/>
+      <c r="P32" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q32" s="4" t="inlineStr"/>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr"/>
+      <c r="T32" s="4" t="inlineStr"/>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W32" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>BCIO:013070</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>emotional BCI engagement</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr"/>
-      <c r="E33" s="5" t="inlineStr"/>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
-      <c r="I33" s="5" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
-      <c r="J33" s="5" t="inlineStr"/>
-      <c r="K33" s="5" t="inlineStr"/>
-      <c r="L33" s="5" t="inlineStr"/>
-      <c r="M33" s="5" t="inlineStr"/>
-      <c r="N33" s="5" t="inlineStr"/>
-      <c r="O33" s="5" t="inlineStr">
+      <c r="J33" s="4" t="inlineStr"/>
+      <c r="K33" s="4" t="inlineStr"/>
+      <c r="L33" s="4" t="inlineStr"/>
+      <c r="M33" s="4" t="inlineStr"/>
+      <c r="N33" s="4" t="inlineStr"/>
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q33" s="5" t="inlineStr"/>
-      <c r="R33" s="5" t="inlineStr"/>
-      <c r="S33" s="5" t="inlineStr"/>
-      <c r="T33" s="5" t="inlineStr"/>
-      <c r="U33" s="5" t="inlineStr"/>
-      <c r="V33" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W33" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X33" s="5" t="inlineStr"/>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr"/>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="inlineStr"/>
+      <c r="T33" s="4" t="inlineStr"/>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W33" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2939,70 +2939,70 @@
       <c r="X38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>BCIO:050529</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>maximum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr"/>
-      <c r="F39" s="5" t="inlineStr"/>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H39" s="5" t="inlineStr"/>
-      <c r="I39" s="5" t="inlineStr"/>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K39" s="5" t="inlineStr"/>
-      <c r="L39" s="5" t="inlineStr"/>
-      <c r="M39" s="5" t="inlineStr"/>
-      <c r="N39" s="5" t="inlineStr"/>
-      <c r="O39" s="5" t="inlineStr">
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P39" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q39" s="5" t="inlineStr"/>
-      <c r="R39" s="5" t="inlineStr"/>
-      <c r="S39" s="5" t="inlineStr"/>
-      <c r="T39" s="5" t="inlineStr"/>
-      <c r="U39" s="5" t="inlineStr"/>
-      <c r="V39" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W39" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X39" s="5" t="inlineStr"/>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="inlineStr"/>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr"/>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W39" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
@@ -3269,70 +3269,70 @@
       <c r="X43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>BCIO:050534</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D44" s="5" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E44" s="5" t="inlineStr"/>
-      <c r="F44" s="5" t="inlineStr"/>
-      <c r="G44" s="5" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H44" s="5" t="inlineStr"/>
-      <c r="I44" s="5" t="inlineStr"/>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="H44" s="4" t="inlineStr"/>
+      <c r="I44" s="4" t="inlineStr"/>
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K44" s="5" t="inlineStr"/>
-      <c r="L44" s="5" t="inlineStr"/>
-      <c r="M44" s="5" t="inlineStr"/>
-      <c r="N44" s="5" t="inlineStr"/>
-      <c r="O44" s="5" t="inlineStr">
+      <c r="K44" s="4" t="inlineStr"/>
+      <c r="L44" s="4" t="inlineStr"/>
+      <c r="M44" s="4" t="inlineStr"/>
+      <c r="N44" s="4" t="inlineStr"/>
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P44" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q44" s="5" t="inlineStr"/>
-      <c r="R44" s="5" t="inlineStr"/>
-      <c r="S44" s="5" t="inlineStr"/>
-      <c r="T44" s="5" t="inlineStr"/>
-      <c r="U44" s="5" t="inlineStr"/>
-      <c r="V44" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W44" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X44" s="5" t="inlineStr"/>
+      <c r="P44" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q44" s="4" t="inlineStr"/>
+      <c r="R44" s="4" t="inlineStr"/>
+      <c r="S44" s="4" t="inlineStr"/>
+      <c r="T44" s="4" t="inlineStr"/>
+      <c r="U44" s="4" t="inlineStr"/>
+      <c r="V44" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W44" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X44" s="4" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
@@ -3599,70 +3599,70 @@
       <c r="X48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>BCIO:050539</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D49" s="5" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E49" s="5" t="inlineStr"/>
-      <c r="F49" s="5" t="inlineStr"/>
-      <c r="G49" s="5" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H49" s="5" t="inlineStr"/>
-      <c r="I49" s="5" t="inlineStr"/>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="H49" s="4" t="inlineStr"/>
+      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K49" s="5" t="inlineStr"/>
-      <c r="L49" s="5" t="inlineStr"/>
-      <c r="M49" s="5" t="inlineStr"/>
-      <c r="N49" s="5" t="inlineStr"/>
-      <c r="O49" s="5" t="inlineStr">
+      <c r="K49" s="4" t="inlineStr"/>
+      <c r="L49" s="4" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P49" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q49" s="5" t="inlineStr"/>
-      <c r="R49" s="5" t="inlineStr"/>
-      <c r="S49" s="5" t="inlineStr"/>
-      <c r="T49" s="5" t="inlineStr"/>
-      <c r="U49" s="5" t="inlineStr"/>
-      <c r="V49" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W49" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X49" s="5" t="inlineStr"/>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr"/>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="4" t="inlineStr"/>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W49" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
@@ -3929,70 +3929,70 @@
       <c r="X53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>BCIO:050544</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr"/>
-      <c r="F54" s="5" t="inlineStr"/>
-      <c r="G54" s="5" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr">
         <is>
           <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H54" s="5" t="inlineStr"/>
-      <c r="I54" s="5" t="inlineStr"/>
-      <c r="J54" s="5" t="inlineStr">
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K54" s="5" t="inlineStr"/>
-      <c r="L54" s="5" t="inlineStr"/>
-      <c r="M54" s="5" t="inlineStr"/>
-      <c r="N54" s="5" t="inlineStr"/>
-      <c r="O54" s="5" t="inlineStr">
+      <c r="K54" s="4" t="inlineStr"/>
+      <c r="L54" s="4" t="inlineStr"/>
+      <c r="M54" s="4" t="inlineStr"/>
+      <c r="N54" s="4" t="inlineStr"/>
+      <c r="O54" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P54" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q54" s="5" t="inlineStr"/>
-      <c r="R54" s="5" t="inlineStr"/>
-      <c r="S54" s="5" t="inlineStr"/>
-      <c r="T54" s="5" t="inlineStr"/>
-      <c r="U54" s="5" t="inlineStr"/>
-      <c r="V54" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W54" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" s="5" t="inlineStr"/>
+      <c r="P54" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q54" s="4" t="inlineStr"/>
+      <c r="R54" s="4" t="inlineStr"/>
+      <c r="S54" s="4" t="inlineStr"/>
+      <c r="T54" s="4" t="inlineStr"/>
+      <c r="U54" s="4" t="inlineStr"/>
+      <c r="V54" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W54" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X54" s="4" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -3005,70 +3005,70 @@
       <c r="X39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>BCIO:050530</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr"/>
-      <c r="F40" s="5" t="inlineStr"/>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H40" s="5" t="inlineStr"/>
-      <c r="I40" s="5" t="inlineStr"/>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr"/>
+      <c r="I40" s="4" t="inlineStr"/>
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K40" s="5" t="inlineStr"/>
-      <c r="L40" s="5" t="inlineStr"/>
-      <c r="M40" s="5" t="inlineStr"/>
-      <c r="N40" s="5" t="inlineStr"/>
-      <c r="O40" s="5" t="inlineStr">
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P40" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q40" s="5" t="inlineStr"/>
-      <c r="R40" s="5" t="inlineStr"/>
-      <c r="S40" s="5" t="inlineStr"/>
-      <c r="T40" s="5" t="inlineStr"/>
-      <c r="U40" s="5" t="inlineStr"/>
-      <c r="V40" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W40" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X40" s="5" t="inlineStr"/>
+      <c r="P40" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q40" s="4" t="inlineStr"/>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr"/>
+      <c r="T40" s="4" t="inlineStr"/>
+      <c r="U40" s="4" t="inlineStr"/>
+      <c r="V40" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W40" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
@@ -3335,70 +3335,70 @@
       <c r="X44" s="4" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>BCIO:050535</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D45" s="5" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E45" s="5" t="inlineStr"/>
-      <c r="F45" s="5" t="inlineStr"/>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H45" s="5" t="inlineStr"/>
-      <c r="I45" s="5" t="inlineStr"/>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="H45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr">
         <is>
           <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K45" s="5" t="inlineStr"/>
-      <c r="L45" s="5" t="inlineStr"/>
-      <c r="M45" s="5" t="inlineStr"/>
-      <c r="N45" s="5" t="inlineStr"/>
-      <c r="O45" s="5" t="inlineStr">
+      <c r="K45" s="4" t="inlineStr"/>
+      <c r="L45" s="4" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P45" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q45" s="5" t="inlineStr"/>
-      <c r="R45" s="5" t="inlineStr"/>
-      <c r="S45" s="5" t="inlineStr"/>
-      <c r="T45" s="5" t="inlineStr"/>
-      <c r="U45" s="5" t="inlineStr"/>
-      <c r="V45" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W45" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" s="5" t="inlineStr"/>
+      <c r="P45" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q45" s="4" t="inlineStr"/>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr"/>
+      <c r="T45" s="4" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W45" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X45" s="4" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
@@ -3665,70 +3665,70 @@
       <c r="X49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>BCIO:050540</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr"/>
-      <c r="F50" s="5" t="inlineStr"/>
-      <c r="G50" s="5" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H50" s="5" t="inlineStr"/>
-      <c r="I50" s="5" t="inlineStr"/>
-      <c r="J50" s="5" t="inlineStr">
+      <c r="H50" s="4" t="inlineStr"/>
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K50" s="5" t="inlineStr"/>
-      <c r="L50" s="5" t="inlineStr"/>
-      <c r="M50" s="5" t="inlineStr"/>
-      <c r="N50" s="5" t="inlineStr"/>
-      <c r="O50" s="5" t="inlineStr">
+      <c r="K50" s="4" t="inlineStr"/>
+      <c r="L50" s="4" t="inlineStr"/>
+      <c r="M50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr"/>
+      <c r="O50" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P50" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q50" s="5" t="inlineStr"/>
-      <c r="R50" s="5" t="inlineStr"/>
-      <c r="S50" s="5" t="inlineStr"/>
-      <c r="T50" s="5" t="inlineStr"/>
-      <c r="U50" s="5" t="inlineStr"/>
-      <c r="V50" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W50" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" s="5" t="inlineStr"/>
+      <c r="P50" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q50" s="4" t="inlineStr"/>
+      <c r="R50" s="4" t="inlineStr"/>
+      <c r="S50" s="4" t="inlineStr"/>
+      <c r="T50" s="4" t="inlineStr"/>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W50" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X50" s="4" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
@@ -3995,70 +3995,70 @@
       <c r="X54" s="4" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>BCIO:050545</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement duration</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr"/>
-      <c r="F55" s="5" t="inlineStr"/>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
-      <c r="H55" s="5" t="inlineStr"/>
-      <c r="I55" s="5" t="inlineStr"/>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K55" s="5" t="inlineStr"/>
-      <c r="L55" s="5" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr"/>
-      <c r="O55" s="5" t="inlineStr">
+      <c r="K55" s="4" t="inlineStr"/>
+      <c r="L55" s="4" t="inlineStr"/>
+      <c r="M55" s="4" t="inlineStr"/>
+      <c r="N55" s="4" t="inlineStr"/>
+      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P55" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q55" s="5" t="inlineStr"/>
-      <c r="R55" s="5" t="inlineStr"/>
-      <c r="S55" s="5" t="inlineStr"/>
-      <c r="T55" s="5" t="inlineStr"/>
-      <c r="U55" s="5" t="inlineStr"/>
-      <c r="V55" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W55" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" s="5" t="inlineStr"/>
+      <c r="P55" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q55" s="4" t="inlineStr"/>
+      <c r="R55" s="4" t="inlineStr"/>
+      <c r="S55" s="4" t="inlineStr"/>
+      <c r="T55" s="4" t="inlineStr"/>
+      <c r="U55" s="4" t="inlineStr"/>
+      <c r="V55" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W55" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -3071,70 +3071,70 @@
       <c r="X40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>BCIO:050531</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr"/>
-      <c r="F41" s="5" t="inlineStr"/>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H41" s="5" t="inlineStr"/>
-      <c r="I41" s="5" t="inlineStr"/>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="H41" s="4" t="inlineStr"/>
+      <c r="I41" s="4" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K41" s="5" t="inlineStr"/>
-      <c r="L41" s="5" t="inlineStr"/>
-      <c r="M41" s="5" t="inlineStr"/>
-      <c r="N41" s="5" t="inlineStr"/>
-      <c r="O41" s="5" t="inlineStr">
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q41" s="5" t="inlineStr"/>
-      <c r="R41" s="5" t="inlineStr"/>
-      <c r="S41" s="5" t="inlineStr"/>
-      <c r="T41" s="5" t="inlineStr"/>
-      <c r="U41" s="5" t="inlineStr"/>
-      <c r="V41" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W41" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" s="5" t="inlineStr"/>
+      <c r="P41" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q41" s="4" t="inlineStr"/>
+      <c r="R41" s="4" t="inlineStr"/>
+      <c r="S41" s="4" t="inlineStr"/>
+      <c r="T41" s="4" t="inlineStr"/>
+      <c r="U41" s="4" t="inlineStr"/>
+      <c r="V41" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W41" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="inlineStr">
@@ -3401,70 +3401,70 @@
       <c r="X45" s="4" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>BCIO:050536</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D46" s="5" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E46" s="5" t="inlineStr"/>
-      <c r="F46" s="5" t="inlineStr"/>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H46" s="5" t="inlineStr"/>
-      <c r="I46" s="5" t="inlineStr"/>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="H46" s="4" t="inlineStr"/>
+      <c r="I46" s="4" t="inlineStr"/>
+      <c r="J46" s="4" t="inlineStr">
         <is>
           <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K46" s="5" t="inlineStr"/>
-      <c r="L46" s="5" t="inlineStr"/>
-      <c r="M46" s="5" t="inlineStr"/>
-      <c r="N46" s="5" t="inlineStr"/>
-      <c r="O46" s="5" t="inlineStr">
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr"/>
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr"/>
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P46" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q46" s="5" t="inlineStr"/>
-      <c r="R46" s="5" t="inlineStr"/>
-      <c r="S46" s="5" t="inlineStr"/>
-      <c r="T46" s="5" t="inlineStr"/>
-      <c r="U46" s="5" t="inlineStr"/>
-      <c r="V46" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W46" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" s="5" t="inlineStr"/>
+      <c r="P46" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q46" s="4" t="inlineStr"/>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr"/>
+      <c r="T46" s="4" t="inlineStr"/>
+      <c r="U46" s="4" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W46" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
@@ -3731,70 +3731,70 @@
       <c r="X50" s="4" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>BCIO:050541</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr"/>
-      <c r="F51" s="5" t="inlineStr"/>
-      <c r="G51" s="5" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H51" s="5" t="inlineStr"/>
-      <c r="I51" s="5" t="inlineStr"/>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K51" s="5" t="inlineStr"/>
-      <c r="L51" s="5" t="inlineStr"/>
-      <c r="M51" s="5" t="inlineStr"/>
-      <c r="N51" s="5" t="inlineStr"/>
-      <c r="O51" s="5" t="inlineStr">
+      <c r="K51" s="4" t="inlineStr"/>
+      <c r="L51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P51" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q51" s="5" t="inlineStr"/>
-      <c r="R51" s="5" t="inlineStr"/>
-      <c r="S51" s="5" t="inlineStr"/>
-      <c r="T51" s="5" t="inlineStr"/>
-      <c r="U51" s="5" t="inlineStr"/>
-      <c r="V51" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W51" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" s="5" t="inlineStr"/>
+      <c r="P51" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q51" s="4" t="inlineStr"/>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr"/>
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W51" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X51" s="4" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
@@ -4061,70 +4061,70 @@
       <c r="X55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>BCIO:050546</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr"/>
-      <c r="F56" s="5" t="inlineStr"/>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="H56" s="5" t="inlineStr"/>
-      <c r="I56" s="5" t="inlineStr"/>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="H56" s="4" t="inlineStr"/>
+      <c r="I56" s="4" t="inlineStr"/>
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K56" s="5" t="inlineStr"/>
-      <c r="L56" s="5" t="inlineStr"/>
-      <c r="M56" s="5" t="inlineStr"/>
-      <c r="N56" s="5" t="inlineStr"/>
-      <c r="O56" s="5" t="inlineStr">
+      <c r="K56" s="4" t="inlineStr"/>
+      <c r="L56" s="4" t="inlineStr"/>
+      <c r="M56" s="4" t="inlineStr"/>
+      <c r="N56" s="4" t="inlineStr"/>
+      <c r="O56" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P56" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q56" s="5" t="inlineStr"/>
-      <c r="R56" s="5" t="inlineStr"/>
-      <c r="S56" s="5" t="inlineStr"/>
-      <c r="T56" s="5" t="inlineStr"/>
-      <c r="U56" s="5" t="inlineStr"/>
-      <c r="V56" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W56" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" s="5" t="inlineStr"/>
+      <c r="P56" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q56" s="4" t="inlineStr"/>
+      <c r="R56" s="4" t="inlineStr"/>
+      <c r="S56" s="4" t="inlineStr"/>
+      <c r="T56" s="4" t="inlineStr"/>
+      <c r="U56" s="4" t="inlineStr"/>
+      <c r="V56" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W56" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X56" s="4" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3137,70 +3131,70 @@
       <c r="X41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>BCIO:050532</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr"/>
-      <c r="F42" s="5" t="inlineStr"/>
-      <c r="G42" s="5" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H42" s="5" t="inlineStr"/>
-      <c r="I42" s="5" t="inlineStr"/>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="H42" s="4" t="inlineStr"/>
+      <c r="I42" s="4" t="inlineStr"/>
+      <c r="J42" s="4" t="inlineStr">
         <is>
           <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K42" s="5" t="inlineStr"/>
-      <c r="L42" s="5" t="inlineStr"/>
-      <c r="M42" s="5" t="inlineStr"/>
-      <c r="N42" s="5" t="inlineStr"/>
-      <c r="O42" s="5" t="inlineStr">
+      <c r="K42" s="4" t="inlineStr"/>
+      <c r="L42" s="4" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr"/>
+      <c r="N42" s="4" t="inlineStr"/>
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P42" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q42" s="5" t="inlineStr"/>
-      <c r="R42" s="5" t="inlineStr"/>
-      <c r="S42" s="5" t="inlineStr"/>
-      <c r="T42" s="5" t="inlineStr"/>
-      <c r="U42" s="5" t="inlineStr"/>
-      <c r="V42" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W42" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X42" s="5" t="inlineStr"/>
+      <c r="P42" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q42" s="4" t="inlineStr"/>
+      <c r="R42" s="4" t="inlineStr"/>
+      <c r="S42" s="4" t="inlineStr"/>
+      <c r="T42" s="4" t="inlineStr"/>
+      <c r="U42" s="4" t="inlineStr"/>
+      <c r="V42" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W42" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X42" s="4" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -3467,70 +3461,70 @@
       <c r="X46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>BCIO:050537</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D47" s="5" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E47" s="5" t="inlineStr"/>
-      <c r="F47" s="5" t="inlineStr"/>
-      <c r="G47" s="5" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H47" s="5" t="inlineStr"/>
-      <c r="I47" s="5" t="inlineStr"/>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="H47" s="4" t="inlineStr"/>
+      <c r="I47" s="4" t="inlineStr"/>
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K47" s="5" t="inlineStr"/>
-      <c r="L47" s="5" t="inlineStr"/>
-      <c r="M47" s="5" t="inlineStr"/>
-      <c r="N47" s="5" t="inlineStr"/>
-      <c r="O47" s="5" t="inlineStr">
+      <c r="K47" s="4" t="inlineStr"/>
+      <c r="L47" s="4" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr"/>
+      <c r="N47" s="4" t="inlineStr"/>
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P47" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q47" s="5" t="inlineStr"/>
-      <c r="R47" s="5" t="inlineStr"/>
-      <c r="S47" s="5" t="inlineStr"/>
-      <c r="T47" s="5" t="inlineStr"/>
-      <c r="U47" s="5" t="inlineStr"/>
-      <c r="V47" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W47" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X47" s="5" t="inlineStr"/>
+      <c r="P47" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q47" s="4" t="inlineStr"/>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr"/>
+      <c r="T47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="inlineStr"/>
+      <c r="V47" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W47" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X47" s="4" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -3797,70 +3791,70 @@
       <c r="X51" s="4" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>BCIO:050542</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>median behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr"/>
-      <c r="F52" s="5" t="inlineStr"/>
-      <c r="G52" s="5" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H52" s="5" t="inlineStr"/>
-      <c r="I52" s="5" t="inlineStr"/>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="H52" s="4" t="inlineStr"/>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr"/>
-      <c r="L52" s="5" t="inlineStr"/>
-      <c r="M52" s="5" t="inlineStr"/>
-      <c r="N52" s="5" t="inlineStr"/>
-      <c r="O52" s="5" t="inlineStr">
+      <c r="K52" s="4" t="inlineStr"/>
+      <c r="L52" s="4" t="inlineStr"/>
+      <c r="M52" s="4" t="inlineStr"/>
+      <c r="N52" s="4" t="inlineStr"/>
+      <c r="O52" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P52" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q52" s="5" t="inlineStr"/>
-      <c r="R52" s="5" t="inlineStr"/>
-      <c r="S52" s="5" t="inlineStr"/>
-      <c r="T52" s="5" t="inlineStr"/>
-      <c r="U52" s="5" t="inlineStr"/>
-      <c r="V52" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W52" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" s="5" t="inlineStr"/>
+      <c r="P52" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q52" s="4" t="inlineStr"/>
+      <c r="R52" s="4" t="inlineStr"/>
+      <c r="S52" s="4" t="inlineStr"/>
+      <c r="T52" s="4" t="inlineStr"/>
+      <c r="U52" s="4" t="inlineStr"/>
+      <c r="V52" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W52" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X52" s="4" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -4127,70 +4121,70 @@
       <c r="X56" s="4" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>BCIO:050547</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr"/>
-      <c r="F57" s="5" t="inlineStr"/>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
-      <c r="H57" s="5" t="inlineStr"/>
-      <c r="I57" s="5" t="inlineStr"/>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="H57" s="4" t="inlineStr"/>
+      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr">
         <is>
           <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K57" s="5" t="inlineStr"/>
-      <c r="L57" s="5" t="inlineStr"/>
-      <c r="M57" s="5" t="inlineStr"/>
-      <c r="N57" s="5" t="inlineStr"/>
-      <c r="O57" s="5" t="inlineStr">
+      <c r="K57" s="4" t="inlineStr"/>
+      <c r="L57" s="4" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr"/>
+      <c r="O57" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P57" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q57" s="5" t="inlineStr"/>
-      <c r="R57" s="5" t="inlineStr"/>
-      <c r="S57" s="5" t="inlineStr"/>
-      <c r="T57" s="5" t="inlineStr"/>
-      <c r="U57" s="5" t="inlineStr"/>
-      <c r="V57" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W57" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" s="5" t="inlineStr"/>
+      <c r="P57" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q57" s="4" t="inlineStr"/>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr"/>
+      <c r="T57" s="4" t="inlineStr"/>
+      <c r="U57" s="4" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W57" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4251,79 +4245,79 @@
       <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>BCIO:013015</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>number of BCI engagement events</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="D59" s="5" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E59" s="5" t="inlineStr"/>
-      <c r="F59" s="5" t="inlineStr"/>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
         </is>
       </c>
-      <c r="H59" s="5" t="inlineStr">
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
 Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
-      <c r="I59" s="5" t="inlineStr"/>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
-      <c r="K59" s="5" t="inlineStr"/>
-      <c r="L59" s="5" t="inlineStr"/>
-      <c r="M59" s="5" t="inlineStr">
+      <c r="K59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N59" s="5" t="inlineStr"/>
-      <c r="O59" s="5" t="inlineStr">
+      <c r="N59" s="4" t="inlineStr"/>
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="P59" s="5" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q59" s="5" t="inlineStr"/>
-      <c r="R59" s="5" t="inlineStr"/>
-      <c r="S59" s="5" t="inlineStr"/>
-      <c r="T59" s="5" t="inlineStr"/>
-      <c r="U59" s="5" t="inlineStr"/>
-      <c r="V59" s="5" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W59" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" s="5" t="inlineStr"/>
+      <c r="P59" s="4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q59" s="4" t="inlineStr"/>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr"/>
+      <c r="T59" s="4" t="inlineStr"/>
+      <c r="U59" s="4" t="inlineStr"/>
+      <c r="V59" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W59" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -2120,58 +2120,58 @@
       <c r="X25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>STATO:0000047</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>A count is a data item denoted by an integer and represented the number of instances or occurrences of an entity</t>
         </is>
       </c>
-      <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr"/>
-      <c r="J26" s="3" t="inlineStr"/>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Ai; PS</t>
         </is>
       </c>
-      <c r="P26" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Q26" s="3" t="inlineStr"/>
-      <c r="R26" s="3" t="inlineStr"/>
-      <c r="S26" s="3" t="inlineStr"/>
-      <c r="T26" s="3" t="inlineStr"/>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W26" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X26" s="3" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2755,58 +2755,58 @@
       <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>PATO:0000044</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time</t>
         </is>
       </c>
-      <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr"/>
-      <c r="J36" s="3" t="inlineStr"/>
-      <c r="K36" s="3" t="inlineStr"/>
-      <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
         <is>
           <t>Ai; PS</t>
         </is>
       </c>
-      <c r="P36" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Q36" s="3" t="inlineStr"/>
-      <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr"/>
-      <c r="T36" s="3" t="inlineStr"/>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W36" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X36" s="3" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4378,54 +4378,54 @@
       <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr"/>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr"/>
+      <c r="E61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr"/>
+      <c r="H61" s="3" t="inlineStr"/>
+      <c r="I61" s="3" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P61" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q61" s="3" t="inlineStr"/>
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr"/>
+      <c r="T61" s="3" t="inlineStr"/>
+      <c r="U61" s="3" t="inlineStr"/>
+      <c r="V61" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W61" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -4378,54 +4378,62 @@
       <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr"/>
-      <c r="D61" s="3" t="inlineStr"/>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr"/>
-      <c r="H61" s="3" t="inlineStr"/>
-      <c r="I61" s="3" t="inlineStr"/>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
         <is>
           <t>Ai; PS</t>
         </is>
       </c>
-      <c r="P61" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="Q61" s="3" t="inlineStr"/>
-      <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr"/>
-      <c r="T61" s="3" t="inlineStr"/>
-      <c r="U61" s="3" t="inlineStr"/>
-      <c r="V61" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W61" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X61" s="3" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1256,12 +1256,12 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>BCI population</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>BCI scenario</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -2120,58 +2120,58 @@
       <c r="X25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>STATO:0000047</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>A count is a data item denoted by an integer and represented the number of instances or occurrences of an entity</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="H26" s="3" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr">
         <is>
           <t>Ai; PS</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2755,58 +2755,58 @@
       <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>PATO:0000044</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
+      <c r="H36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr">
         <is>
           <t>Ai; PS</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,38 +1203,42 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>behavioural BCI engagement</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
           <t>behaviour change intervention engagement</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>individual human activity</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention population</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario</t>
-        </is>
-      </c>
+      <c r="D12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>Individual human activity of a member of a BCI population that is prompted by the BCI and influences the effect of the BCI on the outcome behaviour.</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr"/>
+          <t xml:space="preserve">Behaviour change intervention engagement in which the human activity is a behaviour. </t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>This is distinguished from engagement that involves thought processes.</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Any behaviour performed to engage with an intervention and its content.</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+        </is>
+      </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1263,45 +1273,54 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013010</t>
+          <t>BCIO:013025</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
+          <t>behavioural BCI engagement duration</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>Behaviour change intervention engagement in which the human activity is a behaviour.</t>
+          <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>This is distinguished from engagement that involves thought processes.</t>
+          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>Any behaviour performed to engage with an intervention and its content.</t>
+          <t>A unit of time that describes the length of an engagement event.</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+          <t>A 30-minute session, 1 hour spent 'logged in'</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N13" s="3" t="inlineStr"/>
       <c r="O13" s="3" t="inlineStr">
         <is>
@@ -1333,58 +1352,41 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
+          <t>BCIO:050523</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
           <t>behavioural BCI engagement duration</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the length of an engagement event.</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>A 30-minute session, 1 hour spent 'logged in'</t>
-        </is>
-      </c>
+          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr"/>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
@@ -1412,12 +1414,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050523</t>
+          <t>BCIO:013020</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1427,26 +1429,40 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr"/>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
+The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
+        </is>
+      </c>
       <c r="I15" s="3" t="inlineStr"/>
-      <c r="J15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
+        </is>
+      </c>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="inlineStr"/>
-      <c r="M15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N15" s="3" t="inlineStr"/>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
@@ -1474,12 +1490,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013020</t>
+          <t>BCIO:050524</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency</t>
+          <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1496,33 +1512,19 @@
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
-The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
-        </is>
-      </c>
+          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr"/>
       <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
-        </is>
-      </c>
+      <c r="J16" s="3" t="inlineStr"/>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr"/>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
@@ -1550,12 +1552,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050524</t>
+          <t>BCIO:050525</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency statistic</t>
+          <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1572,7 +1574,7 @@
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr"/>
@@ -1612,33 +1614,41 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050525</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement number statistic</t>
+          <t>cognitive BCI engagement</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
+          <t>Behaviour change intervention engagement in which the human activity is a cognitive process.</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
+        </is>
+      </c>
       <c r="J18" s="3" t="inlineStr"/>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr"/>
@@ -1646,7 +1656,7 @@
       <c r="N18" s="3" t="inlineStr"/>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P18" s="3" t="inlineStr">
@@ -1674,39 +1684,39 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:013055</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>cognitive BCI engagement through appraisal</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
           <t>cognitive BCI engagement</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>appraisal process</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>Behaviour change intervention engagement in which the human activity is a cognitive process.</t>
+          <t>A cognitive BCI engagement that involves an appraisal process.</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+          <t>“Appraisal process” is defined as “A mental process that gives rise to an appraisal.”</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr"/>
@@ -1744,12 +1754,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
+          <t>BCIO:013045</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through appraisal</t>
+          <t xml:space="preserve">cognitive BCI engagement through attention </t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1761,32 +1771,36 @@
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>appraisal process</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves an appraisal process.</t>
+          <t>A cognitive BCI engagement that involves attending.</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>“Appraisal process” is defined as “A mental process that gives rise to an appraisal.”</t>
+          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr"/>
+          <t>Paying attention to an intervention’s content</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>Paying attention to certain images or information within the intervention</t>
+        </is>
+      </c>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="inlineStr"/>
       <c r="M20" s="3" t="inlineStr"/>
       <c r="N20" s="3" t="inlineStr"/>
       <c r="O20" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>EJH; Ai; PS</t>
         </is>
       </c>
       <c r="P20" s="3" t="inlineStr">
@@ -1814,12 +1828,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive BCI engagement through attention </t>
+          <t xml:space="preserve">cognitive BCI engagement through comprehension </t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1831,27 +1845,23 @@
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves attending.</t>
+          <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>Paying attention to an intervention’s content</t>
-        </is>
-      </c>
+          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr"/>
       <c r="J21" s="3" t="inlineStr">
         <is>
-          <t>Paying attention to certain images or information within the intervention</t>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
         </is>
       </c>
       <c r="K21" s="3" t="inlineStr"/>
@@ -1860,7 +1870,7 @@
       <c r="N21" s="3" t="inlineStr"/>
       <c r="O21" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P21" s="3" t="inlineStr">
@@ -1886,297 +1896,297 @@
       <c r="X21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013050</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cognitive BCI engagement through comprehension </t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006110</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive BCI engagement that involves comprehension.</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr"/>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
-      <c r="O22" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr"/>
+      <c r="I23" s="3" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr"/>
+      <c r="K23" s="3" t="inlineStr"/>
+      <c r="L23" s="3" t="inlineStr"/>
+      <c r="M23" s="3" t="inlineStr"/>
+      <c r="N23" s="3" t="inlineStr"/>
+      <c r="O23" s="3" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="inlineStr"/>
+      <c r="R23" s="3" t="inlineStr"/>
+      <c r="S23" s="3" t="inlineStr"/>
+      <c r="T23" s="3" t="inlineStr"/>
+      <c r="U23" s="3" t="inlineStr"/>
+      <c r="V23" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W23" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MFOEM:000001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013060</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention engagement</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behaviour change intervention engagement in which the human activity is an emotion process. </t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
+“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>Enjoying or liking the intervention</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="inlineStr"/>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr"/>
+      <c r="O25" s="3" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P22" s="3" t="inlineStr">
+      <c r="P25" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="Q22" s="3" t="inlineStr"/>
-      <c r="R22" s="3" t="inlineStr"/>
-      <c r="S22" s="3" t="inlineStr"/>
-      <c r="T22" s="3" t="inlineStr"/>
-      <c r="U22" s="3" t="inlineStr"/>
-      <c r="V22" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W22" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006110</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr"/>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr">
-        <is>
-          <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="P24" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q24" s="3" t="inlineStr"/>
-      <c r="R24" s="3" t="inlineStr"/>
-      <c r="S24" s="3" t="inlineStr"/>
-      <c r="T24" s="3" t="inlineStr"/>
-      <c r="U24" s="3" t="inlineStr"/>
-      <c r="V24" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W24" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MFOEM:000001</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr"/>
+      <c r="Q25" s="3" t="inlineStr"/>
+      <c r="R25" s="3" t="inlineStr"/>
+      <c r="S25" s="3" t="inlineStr"/>
+      <c r="T25" s="3" t="inlineStr"/>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W25" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
+          <t>BCIO:013065</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
+          <t>emotional BCI engagement through enjoyment</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
           <t>emotional BCI engagement</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention engagement in which the human activity is an emotion process. </t>
+          <t xml:space="preserve">Emotional BCI engagement that involves enjoyment. </t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
-“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>Enjoying or liking the intervention</t>
-        </is>
-      </c>
+          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr"/>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="inlineStr"/>
       <c r="M26" s="3" t="inlineStr"/>
@@ -2211,12 +2221,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>BCIO:050526</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through enjoyment</t>
+          <t>emotional BCI engagement through fear</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2228,24 +2238,20 @@
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emotional BCI engagement that involves enjoyment. </t>
+          <t>Emotional BCI engagement that involves fear.</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
-        </is>
-      </c>
+          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr"/>
       <c r="J27" s="3" t="inlineStr"/>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="inlineStr"/>
@@ -2253,7 +2259,7 @@
       <c r="N27" s="3" t="inlineStr"/>
       <c r="O27" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P27" s="3" t="inlineStr">
@@ -2281,12 +2287,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050526</t>
+          <t>BCIO:013075</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through fear</t>
+          <t xml:space="preserve">emotional BCI engagement through interest </t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2298,20 +2304,26 @@
       <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves fear.</t>
+          <t>Emotional BCI engagement that involves interest.</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
-        </is>
-      </c>
-      <c r="I28" s="3" t="inlineStr"/>
+          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
+“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
+The opposite of interest is boredom.</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
+        </is>
+      </c>
       <c r="J28" s="3" t="inlineStr"/>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="inlineStr"/>
@@ -2319,7 +2331,7 @@
       <c r="N28" s="3" t="inlineStr"/>
       <c r="O28" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P28" s="3" t="inlineStr">
@@ -2347,12 +2359,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
+          <t>BCIO:050527</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">emotional BCI engagement through interest </t>
+          <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2362,28 +2374,18 @@
       </c>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
+      <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves interest.</t>
+          <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
-“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
-The opposite of interest is boredom.</t>
-        </is>
-      </c>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
-        </is>
-      </c>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr"/>
       <c r="J29" s="3" t="inlineStr"/>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="inlineStr"/>
@@ -2391,7 +2393,7 @@
       <c r="N29" s="3" t="inlineStr"/>
       <c r="O29" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P29" s="3" t="inlineStr">
@@ -2419,12 +2421,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050527</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through mistrust</t>
+          <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2434,18 +2436,26 @@
       </c>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
+          <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
-        </is>
-      </c>
-      <c r="I30" s="3" t="inlineStr"/>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
+        </is>
+      </c>
       <c r="J30" s="3" t="inlineStr"/>
       <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="inlineStr"/>
@@ -2453,7 +2463,7 @@
       <c r="N30" s="3" t="inlineStr"/>
       <c r="O30" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P30" s="3" t="inlineStr">
@@ -2479,84 +2489,72 @@
       <c r="X30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013070</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>Emotional BCI engagement that involves satisfaction.</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
-        </is>
-      </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr"/>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM; PS</t>
-        </is>
-      </c>
-      <c r="P31" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q31" s="3" t="inlineStr"/>
-      <c r="R31" s="3" t="inlineStr"/>
-      <c r="S31" s="3" t="inlineStr"/>
-      <c r="T31" s="3" t="inlineStr"/>
-      <c r="U31" s="3" t="inlineStr"/>
-      <c r="V31" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X31" s="3" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MFOEM:000218</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFOEM:000218</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2569,7 +2567,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2579,11 +2577,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>External</t>
@@ -2594,11 +2588,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2609,12 +2599,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>MFOEM:000033</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2627,7 +2617,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2637,7 +2627,11 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>External</t>
@@ -2648,7 +2642,11 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr">
         <is>
           <t>0</t>
@@ -2657,96 +2655,104 @@
       <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MFOEM:000033</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050528</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>maximum BCI engagement period</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>BCI engagement period statistic</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>BCI engagement period</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>The maximum period of intervention that participants engaged with.</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050528</t>
+          <t>BCIO:050529</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>maximum BCI engagement period</t>
+          <t>maximum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period statistic</t>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period</t>
+          <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr"/>
       <c r="I35" s="3" t="inlineStr"/>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>The maximum period of intervention that participants engaged with.</t>
+          <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
@@ -2783,36 +2789,36 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050529</t>
+          <t>BCIO:050530</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>maximum aggregate behavioural BCI engagement duration</t>
+          <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr"/>
       <c r="I36" s="3" t="inlineStr"/>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>The maximum duration of all intervention sessions attended by participants.</t>
+          <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K36" s="3" t="inlineStr"/>
@@ -2849,36 +2855,36 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050530</t>
+          <t>BCIO:050531</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement duration</t>
+          <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H37" s="3" t="inlineStr"/>
       <c r="I37" s="3" t="inlineStr"/>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>The maximum duration of intervention sessions attended by participants.</t>
+          <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr"/>
@@ -2915,17 +2921,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050531</t>
+          <t>BCIO:050532</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement frequency</t>
+          <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency statistic</t>
+          <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -2937,14 +2943,14 @@
       <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr"/>
       <c r="I38" s="3" t="inlineStr"/>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>The maximum frequency of intervention sessions attended by participants.</t>
+          <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
@@ -2981,36 +2987,36 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050532</t>
+          <t>BCIO:050533</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement number</t>
+          <t>mean BCI engagement period</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement number statistic</t>
+          <t>BCI engagement period statistic</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement</t>
+          <t>BCI engagement period</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
+          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr"/>
       <c r="I39" s="3" t="inlineStr"/>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>The maximum number of intervention sessions attended by participants.</t>
+          <t>The mean period of intervention  that participants engaged with.</t>
         </is>
       </c>
       <c r="K39" s="3" t="inlineStr"/>
@@ -3047,36 +3053,36 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050533</t>
+          <t>BCIO:050534</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>mean BCI engagement period</t>
+          <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period statistic</t>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period</t>
+          <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr"/>
       <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr"/>
       <c r="I40" s="3" t="inlineStr"/>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>The mean period of intervention  that participants engaged with.</t>
+          <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
@@ -3113,36 +3119,36 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050534</t>
+          <t>BCIO:050535</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>mean aggregate behavioural BCI engagement duration</t>
+          <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr"/>
       <c r="I41" s="3" t="inlineStr"/>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>The mean duration of all intervention sessions attended by participants.</t>
+          <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K41" s="3" t="inlineStr"/>
@@ -3179,36 +3185,36 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050535</t>
+          <t>BCIO:050536</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement duration</t>
+          <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr"/>
       <c r="I42" s="3" t="inlineStr"/>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t>The mean duration of intervention sessions attended by participants.</t>
+          <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K42" s="3" t="inlineStr"/>
@@ -3245,17 +3251,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050536</t>
+          <t>BCIO:050537</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement frequency</t>
+          <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency statistic</t>
+          <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -3267,14 +3273,14 @@
       <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr"/>
       <c r="I43" s="3" t="inlineStr"/>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>The mean frequency of intervention sessions attended by participants.</t>
+          <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
@@ -3311,36 +3317,36 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050537</t>
+          <t>BCIO:050538</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement number</t>
+          <t>median BCI engagement period</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement number statistic</t>
+          <t>BCI engagement period statistic</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement</t>
+          <t>BCI engagement period</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
+          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr"/>
       <c r="I44" s="3" t="inlineStr"/>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t>The mean number of intervention sessions attended by participants.</t>
+          <t>The median period of intervention that participants engaged with.</t>
         </is>
       </c>
       <c r="K44" s="3" t="inlineStr"/>
@@ -3377,36 +3383,36 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050538</t>
+          <t>BCIO:050539</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>median BCI engagement period</t>
+          <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period statistic</t>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period</t>
+          <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr"/>
       <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H45" s="3" t="inlineStr"/>
       <c r="I45" s="3" t="inlineStr"/>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t>The median period of intervention that participants engaged with.</t>
+          <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K45" s="3" t="inlineStr"/>
@@ -3443,36 +3449,36 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050539</t>
+          <t>BCIO:050540</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>median aggregate behavioural BCI engagement duration</t>
+          <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H46" s="3" t="inlineStr"/>
       <c r="I46" s="3" t="inlineStr"/>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t>The median duration of all intervention sessions attended by participants.</t>
+          <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K46" s="3" t="inlineStr"/>
@@ -3509,36 +3515,36 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050540</t>
+          <t>BCIO:050541</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement duration</t>
+          <t>median behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H47" s="3" t="inlineStr"/>
       <c r="I47" s="3" t="inlineStr"/>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>The median duration of intervention sessions attended by participants.</t>
+          <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
@@ -3575,17 +3581,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050541</t>
+          <t>BCIO:050542</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement frequency</t>
+          <t>median behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency statistic</t>
+          <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -3597,14 +3603,14 @@
       <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H48" s="3" t="inlineStr"/>
       <c r="I48" s="3" t="inlineStr"/>
       <c r="J48" s="3" t="inlineStr">
         <is>
-          <t>The median frequency of intervention sessions attended by participants.</t>
+          <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K48" s="3" t="inlineStr"/>
@@ -3641,36 +3647,36 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050542</t>
+          <t>BCIO:050543</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement number</t>
+          <t>minimum BCI engagement period</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement number statistic</t>
+          <t>BCI engagement period statistic</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement</t>
+          <t>BCI engagement period</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
+          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H49" s="3" t="inlineStr"/>
       <c r="I49" s="3" t="inlineStr"/>
       <c r="J49" s="3" t="inlineStr">
         <is>
-          <t>The median number of intervention sessions attended by participants.</t>
+          <t>The minimum period of intervention that participants engaged with.</t>
         </is>
       </c>
       <c r="K49" s="3" t="inlineStr"/>
@@ -3707,36 +3713,36 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050543</t>
+          <t>BCIO:050544</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>minimum BCI engagement period</t>
+          <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period statistic</t>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>BCI engagement period</t>
+          <t>aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H50" s="3" t="inlineStr"/>
       <c r="I50" s="3" t="inlineStr"/>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>The minimum period of intervention that participants engaged with.</t>
+          <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
@@ -3773,36 +3779,36 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050544</t>
+          <t>BCIO:050545</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>minimum aggregate behavioural BCI engagement duration</t>
+          <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr"/>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H51" s="3" t="inlineStr"/>
       <c r="I51" s="3" t="inlineStr"/>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>The minimum duration of all intervention sessions attended by participants.</t>
+          <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K51" s="3" t="inlineStr"/>
@@ -3839,36 +3845,36 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050545</t>
+          <t>BCIO:050546</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement duration</t>
+          <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H52" s="3" t="inlineStr"/>
       <c r="I52" s="3" t="inlineStr"/>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>The minimum duration of intervention sessions attended by participants.</t>
+          <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K52" s="3" t="inlineStr"/>
@@ -3905,17 +3911,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050546</t>
+          <t>BCIO:050547</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement frequency</t>
+          <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency statistic</t>
+          <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -3927,14 +3933,14 @@
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H53" s="3" t="inlineStr"/>
       <c r="I53" s="3" t="inlineStr"/>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>The minimum frequency of intervention sessions attended by participants.</t>
+          <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="K53" s="3" t="inlineStr"/>
@@ -3969,176 +3975,176 @@
       <c r="X53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050547</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>minimum behavioural BCI engagement number</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement number statistic</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MFOEM:000225</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mistrust</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013015</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>number of BCI engagement events</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr">
-        <is>
-          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
-        </is>
-      </c>
-      <c r="H54" s="3" t="inlineStr"/>
-      <c r="I54" s="3" t="inlineStr"/>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>The minimum number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="P54" s="3" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
+Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr">
+        <is>
+          <t>EJH; Ai; PS</t>
+        </is>
+      </c>
+      <c r="P55" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="Q54" s="3" t="inlineStr"/>
-      <c r="R54" s="3" t="inlineStr"/>
-      <c r="S54" s="3" t="inlineStr"/>
-      <c r="T54" s="3" t="inlineStr"/>
-      <c r="U54" s="3" t="inlineStr"/>
-      <c r="V54" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W54" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" s="3" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MFOEM:000225</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>mistrust</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr"/>
+      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr"/>
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr"/>
+      <c r="V55" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W55" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013015</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>number of BCI engagement events</t>
+          <t>participant engagement with behaviour change intervention</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>participant engagement with intervention</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr"/>
+          <t>behaviour change intervention population</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
-        </is>
-      </c>
-      <c r="H56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
-Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
-        </is>
-      </c>
+          <t>Participant engagement with an intervention, where the intervention focuses on changing behaviour.</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr"/>
       <c r="I56" s="3" t="inlineStr"/>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
-        </is>
-      </c>
+      <c r="J56" s="3" t="inlineStr"/>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="inlineStr"/>
-      <c r="M56" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M56" s="3" t="inlineStr"/>
       <c r="N56" s="3" t="inlineStr"/>
       <c r="O56" s="3" t="inlineStr">
         <is>
@@ -4168,77 +4174,73 @@
       <c r="X56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MFOEM:000169</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr"/>
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050916</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr"/>
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>An individual human activity that is performed by someone in an intervention population, prompted by this intervention and influences the effects of the intervention on its outcome.</t>
+        </is>
+      </c>
+      <c r="H57" s="4" t="inlineStr"/>
+      <c r="I57" s="4" t="inlineStr">
+        <is>
+          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr"/>
+      <c r="K57" s="4" t="inlineStr"/>
+      <c r="L57" s="4" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr"/>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="P57" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q57" s="4" t="inlineStr"/>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr"/>
+      <c r="T57" s="4" t="inlineStr"/>
+      <c r="U57" s="4" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr"/>
+      <c r="W57" s="4" t="inlineStr"/>
+      <c r="X57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>MFOEM:000169</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -4246,7 +4248,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4284,66 +4286,124 @@
       <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>BCIO:050549</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>temporal reference point associated with behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="3" t="inlineStr"/>
-      <c r="G59" s="3" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr"/>
+      <c r="E60" s="3" t="inlineStr"/>
+      <c r="F60" s="3" t="inlineStr"/>
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A time point against which behavioural BCI engagement is referenced. </t>
         </is>
       </c>
-      <c r="H59" s="3" t="inlineStr"/>
-      <c r="I59" s="3" t="inlineStr"/>
-      <c r="J59" s="3" t="inlineStr">
+      <c r="H60" s="3" t="inlineStr"/>
+      <c r="I60" s="3" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
-      <c r="K59" s="3" t="inlineStr"/>
-      <c r="L59" s="3" t="inlineStr"/>
-      <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr"/>
-      <c r="O59" s="3" t="inlineStr">
+      <c r="K60" s="3" t="inlineStr"/>
+      <c r="L60" s="3" t="inlineStr"/>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P59" s="3" t="inlineStr">
+      <c r="P60" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="Q59" s="3" t="inlineStr"/>
-      <c r="R59" s="3" t="inlineStr"/>
-      <c r="S59" s="3" t="inlineStr"/>
-      <c r="T59" s="3" t="inlineStr"/>
-      <c r="U59" s="3" t="inlineStr"/>
-      <c r="V59" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W59" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr"/>
+      <c r="T60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="inlineStr"/>
+      <c r="V60" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W60" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X60" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -4136,7 +4136,7 @@
       <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>Participant engagement with an intervention, where the intervention focuses on changing behaviour.</t>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr"/>
@@ -4224,7 +4224,9 @@
       <c r="T57" s="4" t="inlineStr"/>
       <c r="U57" s="4" t="inlineStr"/>
       <c r="V57" s="4" t="inlineStr"/>
-      <c r="W57" s="4" t="inlineStr"/>
+      <c r="W57" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="X57" s="4" t="inlineStr"/>
     </row>
     <row r="58">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>participant engagement with behaviour change intervention</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention engagement in which the human activity is a behaviour. </t>
+          <t xml:space="preserve">Participant engagement with behaviour change intervention in which the engagement activity is a behaviour. </t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>participant engagement with behaviour change intervention</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Behaviour change intervention engagement in which the human activity is a cognitive process.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>participant engagement with behaviour change intervention</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention engagement in which the human activity is an emotion process. </t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr">
@@ -4224,8 +4224,10 @@
       <c r="T57" s="4" t="inlineStr"/>
       <c r="U57" s="4" t="inlineStr"/>
       <c r="V57" s="4" t="inlineStr"/>
-      <c r="W57" s="4" t="n">
-        <v>0</v>
+      <c r="W57" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X57" s="4" t="inlineStr"/>
     </row>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="P57" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Q57" s="4" t="inlineStr"/>
@@ -4223,7 +4223,11 @@
       <c r="S57" s="4" t="inlineStr"/>
       <c r="T57" s="4" t="inlineStr"/>
       <c r="U57" s="4" t="inlineStr"/>
-      <c r="V57" s="4" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
           <t>0</t>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4174,66 +4168,66 @@
       <c r="X56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>BCIO:050916</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>participant engagement with intervention</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr"/>
-      <c r="E57" s="4" t="inlineStr"/>
-      <c r="F57" s="4" t="inlineStr"/>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr"/>
+      <c r="E57" s="3" t="inlineStr"/>
+      <c r="F57" s="3" t="inlineStr"/>
+      <c r="G57" s="3" t="inlineStr">
         <is>
           <t>An individual human activity that is performed by someone in an intervention population, prompted by this intervention and influences the effects of the intervention on its outcome.</t>
         </is>
       </c>
-      <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="4" t="inlineStr">
+      <c r="H57" s="3" t="inlineStr"/>
+      <c r="I57" s="3" t="inlineStr">
         <is>
           <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
-      <c r="J57" s="4" t="inlineStr"/>
-      <c r="K57" s="4" t="inlineStr"/>
-      <c r="L57" s="4" t="inlineStr"/>
-      <c r="M57" s="4" t="inlineStr"/>
-      <c r="N57" s="4" t="inlineStr"/>
-      <c r="O57" s="4" t="inlineStr">
+      <c r="J57" s="3" t="inlineStr"/>
+      <c r="K57" s="3" t="inlineStr"/>
+      <c r="L57" s="3" t="inlineStr"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="P57" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q57" s="4" t="inlineStr"/>
-      <c r="R57" s="4" t="inlineStr"/>
-      <c r="S57" s="4" t="inlineStr"/>
-      <c r="T57" s="4" t="inlineStr"/>
-      <c r="U57" s="4" t="inlineStr"/>
-      <c r="V57" s="4" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W57" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" s="4" t="inlineStr"/>
+      <c r="P57" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q57" s="3" t="inlineStr"/>
+      <c r="R57" s="3" t="inlineStr"/>
+      <c r="S57" s="3" t="inlineStr"/>
+      <c r="T57" s="3" t="inlineStr"/>
+      <c r="U57" s="3" t="inlineStr"/>
+      <c r="V57" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W57" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X57" s="3" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1073,12 +1073,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFOEM:000002</t>
+          <t>MF:0000018</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>appraisal process</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1091,13 +1091,13 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>An appraisal process is a mental process that gives rise to an appraisal</t>
+          <t>The process whereby relevant aspects of our mental experience are focused on specific targets</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Evaluating the usefulness or relevance of something.</t>
+          <t>Focusing on particular internal or external stimuli.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1133,109 +1133,126 @@
       <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MF:0000018</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>The process whereby relevant aspects of our mental experience are focused on specific targets</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Focusing on particular internal or external stimuli.</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013010</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant engagement with behaviour change intervention in which the engagement activity is a behaviour. </t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>This is distinguished from engagement that involves thought processes.</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>Any behaviour performed to engage with an intervention and its content.</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>EJH; Ai; PS</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr"/>
+      <c r="R11" s="3" t="inlineStr"/>
+      <c r="S11" s="3" t="inlineStr"/>
+      <c r="T11" s="3" t="inlineStr"/>
+      <c r="U11" s="3" t="inlineStr"/>
+      <c r="V11" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W11" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013010</t>
+          <t>BCIO:013025</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>behavioural BCI engagement duration</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
           <t>behavioural BCI engagement</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Participant engagement with behaviour change intervention in which the engagement activity is a behaviour. </t>
+          <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>This is distinguished from engagement that involves thought processes.</t>
+          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>Any behaviour performed to engage with an intervention and its content.</t>
+          <t>A unit of time that describes the length of an engagement event.</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+          <t>A 30-minute session, 1 hour spent 'logged in'</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N12" s="3" t="inlineStr"/>
       <c r="O12" s="3" t="inlineStr">
         <is>
@@ -1267,58 +1284,41 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
+          <t>BCIO:050523</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
+          <t>behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
           <t>behavioural BCI engagement duration</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A temporal interval between the start and end of a behavioural BCI engagement. </t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the length of an engagement event.</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>A 30-minute session, 1 hour spent 'logged in'</t>
-        </is>
-      </c>
+          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr"/>
+      <c r="J13" s="3" t="inlineStr"/>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M13" s="3" t="inlineStr"/>
       <c r="N13" s="3" t="inlineStr"/>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr">
@@ -1346,12 +1346,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050523</t>
+          <t>BCIO:013020</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1361,26 +1361,40 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>behavioural BCI engagement</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr"/>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
+The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
+        </is>
+      </c>
       <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
+        </is>
+      </c>
       <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="N14" s="3" t="inlineStr"/>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
@@ -1408,12 +1422,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013020</t>
+          <t>BCIO:050524</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency</t>
+          <t>behavioural BCI engagement frequency statistic</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1430,33 +1444,19 @@
       <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
-The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
-        </is>
-      </c>
+          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr"/>
       <c r="I15" s="3" t="inlineStr"/>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
-        </is>
-      </c>
+      <c r="J15" s="3" t="inlineStr"/>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="inlineStr"/>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
@@ -1484,12 +1484,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050524</t>
+          <t>BCIO:050525</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency statistic</t>
+          <t>behavioural BCI engagement number statistic</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
@@ -1546,33 +1546,41 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050525</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement number statistic</t>
+          <t>cognitive BCI engagement</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr"/>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
+        </is>
+      </c>
       <c r="J17" s="3" t="inlineStr"/>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr"/>
@@ -1580,7 +1588,7 @@
       <c r="N17" s="3" t="inlineStr"/>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
@@ -1608,49 +1616,53 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:013045</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">cognitive BCI engagement through attention </t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
           <t>cognitive BCI engagement</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
+          <t>A cognitive BCI engagement that involves attending.</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr"/>
+          <t>Paying attention to an intervention’s content</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>Paying attention to certain images or information within the intervention</t>
+        </is>
+      </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr"/>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>EJH; Ai; PS</t>
         </is>
       </c>
       <c r="P18" s="3" t="inlineStr">
@@ -1678,12 +1690,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through appraisal</t>
+          <t xml:space="preserve">cognitive BCI engagement through comprehension </t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1695,25 +1707,25 @@
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>appraisal process</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves an appraisal process.</t>
+          <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>“Appraisal process” is defined as “A mental process that gives rise to an appraisal.”</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr"/>
+          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
+        </is>
+      </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
@@ -1748,12 +1760,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
+          <t>BCIO:013055</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive BCI engagement through attention </t>
+          <t>cognitive BCI engagement through judging.</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1765,36 +1777,32 @@
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>appraisal process</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves attending.</t>
+          <t>A cognitive BCI engagement that involves an appraisal process.</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
+          <t>“Appraisal process” is defined as “A mental process that gives rise to an appraisal.”</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>Paying attention to an intervention’s content</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>Paying attention to certain images or information within the intervention</t>
-        </is>
-      </c>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr"/>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="inlineStr"/>
       <c r="M20" s="3" t="inlineStr"/>
       <c r="N20" s="3" t="inlineStr"/>
       <c r="O20" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P20" s="3" t="inlineStr">
@@ -1820,297 +1828,297 @@
       <c r="X20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013050</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cognitive BCI engagement through comprehension </t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006110</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive BCI engagement that involves comprehension.</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
-      <c r="O21" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr"/>
+      <c r="J22" s="3" t="inlineStr"/>
+      <c r="K22" s="3" t="inlineStr"/>
+      <c r="L22" s="3" t="inlineStr"/>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr"/>
+      <c r="O22" s="3" t="inlineStr">
+        <is>
+          <t>Ai; PS</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="inlineStr"/>
+      <c r="R22" s="3" t="inlineStr"/>
+      <c r="S22" s="3" t="inlineStr"/>
+      <c r="T22" s="3" t="inlineStr"/>
+      <c r="U22" s="3" t="inlineStr"/>
+      <c r="V22" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W22" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MFOEM:000001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:013060</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
+“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>Enjoying or liking the intervention</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr">
         <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="P21" s="3" t="inlineStr">
+      <c r="P24" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="Q21" s="3" t="inlineStr"/>
-      <c r="R21" s="3" t="inlineStr"/>
-      <c r="S21" s="3" t="inlineStr"/>
-      <c r="T21" s="3" t="inlineStr"/>
-      <c r="U21" s="3" t="inlineStr"/>
-      <c r="V21" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W21" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006110</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr"/>
-      <c r="J23" s="3" t="inlineStr"/>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr"/>
-      <c r="M23" s="3" t="inlineStr"/>
-      <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="inlineStr">
-        <is>
-          <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="inlineStr"/>
-      <c r="R23" s="3" t="inlineStr"/>
-      <c r="S23" s="3" t="inlineStr"/>
-      <c r="T23" s="3" t="inlineStr"/>
-      <c r="U23" s="3" t="inlineStr"/>
-      <c r="V23" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W23" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MFOEM:000001</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr"/>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
+          <t>BCIO:013065</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
+          <t>emotional BCI engagement through enjoyment</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
           <t>emotional BCI engagement</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
+          <t xml:space="preserve">Emotional BCI engagement that involves enjoyment. </t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
-“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>Enjoying or liking the intervention</t>
-        </is>
-      </c>
+          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr"/>
       <c r="K25" s="3" t="inlineStr"/>
       <c r="L25" s="3" t="inlineStr"/>
       <c r="M25" s="3" t="inlineStr"/>
@@ -2145,12 +2153,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>BCIO:050526</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through enjoyment</t>
+          <t>emotional BCI engagement through fear</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2162,24 +2170,20 @@
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emotional BCI engagement that involves enjoyment. </t>
+          <t>Emotional BCI engagement that involves fear.</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
-        </is>
-      </c>
+          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr"/>
       <c r="J26" s="3" t="inlineStr"/>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="inlineStr"/>
@@ -2187,7 +2191,7 @@
       <c r="N26" s="3" t="inlineStr"/>
       <c r="O26" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P26" s="3" t="inlineStr">
@@ -2215,12 +2219,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050526</t>
+          <t>BCIO:013075</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through fear</t>
+          <t xml:space="preserve">emotional BCI engagement through interest </t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2232,20 +2236,26 @@
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves fear.</t>
+          <t>Emotional BCI engagement that involves interest.</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr"/>
+          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
+“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
+The opposite of interest is boredom.</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
+        </is>
+      </c>
       <c r="J27" s="3" t="inlineStr"/>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="inlineStr"/>
@@ -2253,7 +2263,7 @@
       <c r="N27" s="3" t="inlineStr"/>
       <c r="O27" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P27" s="3" t="inlineStr">
@@ -2281,12 +2291,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
+          <t>BCIO:050527</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">emotional BCI engagement through interest </t>
+          <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2296,28 +2306,18 @@
       </c>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
+      <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves interest.</t>
+          <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
-“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
-The opposite of interest is boredom.</t>
-        </is>
-      </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
-        </is>
-      </c>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr"/>
       <c r="J28" s="3" t="inlineStr"/>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="inlineStr"/>
@@ -2325,7 +2325,7 @@
       <c r="N28" s="3" t="inlineStr"/>
       <c r="O28" s="3" t="inlineStr">
         <is>
-          <t>EJH; Ai; CM; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="P28" s="3" t="inlineStr">
@@ -2353,12 +2353,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050527</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through mistrust</t>
+          <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2368,18 +2368,26 @@
       </c>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emotional BCI engagement that involves mistrust. </t>
+          <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
-        </is>
-      </c>
-      <c r="I29" s="3" t="inlineStr"/>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
+        </is>
+      </c>
       <c r="J29" s="3" t="inlineStr"/>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="inlineStr"/>
@@ -2387,7 +2395,7 @@
       <c r="N29" s="3" t="inlineStr"/>
       <c r="O29" s="3" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
       <c r="P29" s="3" t="inlineStr">
@@ -2413,84 +2421,72 @@
       <c r="X29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:013070</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">emotional BCI engagement through satisfaction </t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>Emotional BCI engagement that involves satisfaction.</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
-        </is>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr">
-        <is>
-          <t>EJH; Ai; CM; PS</t>
-        </is>
-      </c>
-      <c r="P30" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="Q30" s="3" t="inlineStr"/>
-      <c r="R30" s="3" t="inlineStr"/>
-      <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr"/>
-      <c r="U30" s="3" t="inlineStr"/>
-      <c r="V30" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="W30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X30" s="3" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MFOEM:000218</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFOEM:000218</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2503,7 +2499,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2513,11 +2509,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Ai</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>External</t>
@@ -2528,11 +2520,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
           <t>0</t>
@@ -2543,12 +2531,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>MFOEM:000033</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2561,7 +2549,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2571,7 +2559,11 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>External</t>
@@ -2582,7 +2574,11 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2593,17 +2589,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFOEM:000033</t>
+          <t>MF:0000006</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2611,7 +2607,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2623,7 +2619,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Ai</t>
+          <t>Ai; PS</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1091,7 +1091,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The process whereby relevant aspects of our mental experience are focused on specific targets</t>
+          <t xml:space="preserve">A mental process whereby relevant aspects of one's mental experience are focused on specific targets. </t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1848,7 +1848,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation</t>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -1968,7 +1968,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>An emotion process is a mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1980,7 +1980,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Ai</t>
+          <t>Ai; PS</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -4246,7 +4246,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Satisfaction is an emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -4190,7 +4190,7 @@
       <c r="H57" s="3" t="inlineStr"/>
       <c r="I57" s="3" t="inlineStr">
         <is>
-          <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
       <c r="J57" s="3" t="inlineStr"/>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -491,47 +491,47 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Logical definition</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Definition Source</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Aggregate</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Definition Source</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Aggregate</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Fuzzy set</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Logical definition</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -591,27 +591,27 @@
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>An occurrence of engagement that takes place in response to intervention content.</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="n"/>
       <c r="U2" s="2" t="inlineStr">
         <is>
@@ -665,31 +665,31 @@
           <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K3" s="3" t="n"/>
       <c r="L3" s="3" t="n"/>
       <c r="M3" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n"/>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O3" s="3" t="n"/>
       <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T3" s="3" t="n"/>
       <c r="U3" s="3" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K4" s="3" t="n"/>
       <c r="L4" s="3" t="n"/>
       <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O4" s="3" t="n"/>
       <c r="P4" s="3" t="n"/>
       <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="n"/>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T4" s="3" t="n"/>
       <c r="U4" s="3" t="inlineStr">
         <is>
@@ -789,23 +789,23 @@
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T5" s="2" t="n"/>
       <c r="U5" s="2" t="inlineStr">
         <is>
@@ -844,27 +844,27 @@
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
         </is>
       </c>
-      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T6" s="2" t="n"/>
       <c r="U6" s="2" t="inlineStr">
         <is>
@@ -898,23 +898,23 @@
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n"/>
       <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T7" s="2" t="n"/>
       <c r="U7" s="2" t="inlineStr">
         <is>
@@ -968,32 +968,32 @@
           <t>90 minutes total app usage, 12 hours of counselling sessions</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K8" s="3" t="n"/>
       <c r="L8" s="3" t="n"/>
       <c r="M8" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N8" s="3" t="n"/>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O8" s="3" t="n"/>
       <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
 Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" s="3" t="n"/>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T8" s="3" t="n"/>
       <c r="U8" s="3" t="inlineStr">
         <is>
@@ -1039,23 +1039,23 @@
       <c r="H9" s="3" t="n"/>
       <c r="I9" s="3" t="n"/>
       <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="n"/>
       <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="n"/>
       <c r="Q9" s="3" t="n"/>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T9" s="3" t="n"/>
       <c r="U9" s="3" t="inlineStr">
         <is>
@@ -1096,12 +1096,12 @@
           <t>Focusing on particular internal or external stimuli.</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1152,27 +1152,27 @@
           <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K11" s="3" t="n"/>
       <c r="L11" s="3" t="n"/>
       <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O11" s="3" t="n"/>
       <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>This is distinguished from engagement that involves thought processes.</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="3" t="n"/>
+      <c r="S11" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T11" s="3" t="n"/>
       <c r="U11" s="3" t="inlineStr">
         <is>
@@ -1226,32 +1226,32 @@
           <t>A 30-minute session, 1 hour spent 'logged in'</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K12" s="3" t="n"/>
       <c r="L12" s="3" t="n"/>
       <c r="M12" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N12" s="3" t="n"/>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O12" s="3" t="n"/>
       <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="3" t="inlineStr">
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
-      <c r="R12" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="3" t="n"/>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T12" s="3" t="n"/>
       <c r="U12" s="3" t="inlineStr">
         <is>
@@ -1297,23 +1297,23 @@
       <c r="H13" s="3" t="n"/>
       <c r="I13" s="3" t="n"/>
       <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K13" s="3" t="n"/>
       <c r="L13" s="3" t="n"/>
       <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O13" s="3" t="n"/>
       <c r="P13" s="3" t="n"/>
       <c r="Q13" s="3" t="n"/>
-      <c r="R13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" s="3" t="n"/>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T13" s="3" t="n"/>
       <c r="U13" s="3" t="inlineStr">
         <is>
@@ -1363,33 +1363,33 @@
           <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K14" s="3" t="n"/>
       <c r="L14" s="3" t="n"/>
       <c r="M14" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N14" s="3" t="n"/>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O14" s="3" t="n"/>
       <c r="P14" s="3" t="n"/>
-      <c r="Q14" s="3" t="inlineStr">
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
 The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="n"/>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T14" s="3" t="n"/>
       <c r="U14" s="3" t="inlineStr">
         <is>
@@ -1435,23 +1435,23 @@
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
       <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="n"/>
       <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O15" s="3" t="n"/>
       <c r="P15" s="3" t="n"/>
       <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" s="3" t="n"/>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T15" s="3" t="n"/>
       <c r="U15" s="3" t="inlineStr">
         <is>
@@ -1497,23 +1497,23 @@
       <c r="H16" s="3" t="n"/>
       <c r="I16" s="3" t="n"/>
       <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K16" s="3" t="n"/>
       <c r="L16" s="3" t="n"/>
       <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O16" s="3" t="n"/>
       <c r="P16" s="3" t="n"/>
       <c r="Q16" s="3" t="n"/>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="n"/>
+      <c r="R16" s="3" t="n"/>
+      <c r="S16" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T16" s="3" t="n"/>
       <c r="U16" s="3" t="inlineStr">
         <is>
@@ -1563,27 +1563,27 @@
         </is>
       </c>
       <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K17" s="3" t="n"/>
       <c r="L17" s="3" t="n"/>
       <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O17" s="3" t="n"/>
       <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="n"/>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T17" s="3" t="n"/>
       <c r="U17" s="3" t="inlineStr">
         <is>
@@ -1637,27 +1637,27 @@
           <t>Paying attention to certain images or information within the intervention</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K18" s="3" t="n"/>
       <c r="L18" s="3" t="n"/>
       <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O18" s="3" t="n"/>
       <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="3" t="n"/>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T18" s="3" t="n"/>
       <c r="U18" s="3" t="inlineStr">
         <is>
@@ -1707,27 +1707,27 @@
           <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K19" s="3" t="n"/>
       <c r="L19" s="3" t="n"/>
       <c r="M19" s="3" t="n"/>
-      <c r="N19" s="3" t="n"/>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O19" s="3" t="n"/>
       <c r="P19" s="3" t="n"/>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="3" t="inlineStr">
         <is>
           <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="3" t="n"/>
+      <c r="S19" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T19" s="3" t="n"/>
       <c r="U19" s="3" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through judging.</t>
+          <t>cognitive BCI engagement through judging</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1762,7 +1762,7 @@
       <c r="E20" s="3" t="n"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>appraisal process</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
@@ -1777,27 +1777,27 @@
         </is>
       </c>
       <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K20" s="3" t="n"/>
       <c r="L20" s="3" t="n"/>
       <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="n"/>
+      <c r="N20" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O20" s="3" t="n"/>
       <c r="P20" s="3" t="n"/>
-      <c r="Q20" s="3" t="inlineStr">
-        <is>
-          <t>“Appraisal process” is defined as “A mental process that gives rise to an appraisal.”</t>
-        </is>
-      </c>
+      <c r="Q20" s="3" t="n"/>
       <c r="R20" s="3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" s="3" t="n"/>
+          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
+        </is>
+      </c>
+      <c r="S20" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T20" s="3" t="n"/>
       <c r="U20" s="3" t="inlineStr">
         <is>
@@ -1838,12 +1838,12 @@
           <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1886,23 +1886,23 @@
       <c r="H22" s="3" t="n"/>
       <c r="I22" s="3" t="n"/>
       <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K22" s="3" t="n"/>
       <c r="L22" s="3" t="n"/>
       <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="n"/>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O22" s="3" t="n"/>
       <c r="P22" s="3" t="n"/>
       <c r="Q22" s="3" t="n"/>
-      <c r="R22" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="3" t="n"/>
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T22" s="3" t="n"/>
       <c r="U22" s="3" t="inlineStr">
         <is>
@@ -1938,12 +1938,12 @@
           <t>mental process</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1998,28 +1998,28 @@
           <t>Enjoying or liking the intervention</t>
         </is>
       </c>
-      <c r="K24" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K24" s="3" t="n"/>
       <c r="L24" s="3" t="n"/>
       <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="n"/>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O24" s="3" t="n"/>
       <c r="P24" s="3" t="n"/>
-      <c r="Q24" s="3" t="inlineStr">
+      <c r="Q24" s="3" t="n"/>
+      <c r="R24" s="3" t="inlineStr">
         <is>
           <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
 “Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
-      <c r="R24" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="3" t="n"/>
+      <c r="S24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T24" s="3" t="n"/>
       <c r="U24" s="3" t="inlineStr">
         <is>
@@ -2069,27 +2069,27 @@
         </is>
       </c>
       <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K25" s="3" t="n"/>
       <c r="L25" s="3" t="n"/>
       <c r="M25" s="3" t="n"/>
-      <c r="N25" s="3" t="n"/>
+      <c r="N25" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O25" s="3" t="n"/>
       <c r="P25" s="3" t="n"/>
-      <c r="Q25" s="3" t="inlineStr">
+      <c r="Q25" s="3" t="n"/>
+      <c r="R25" s="3" t="inlineStr">
         <is>
           <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
-      <c r="R25" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" s="3" t="n"/>
+      <c r="S25" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T25" s="3" t="n"/>
       <c r="U25" s="3" t="inlineStr">
         <is>
@@ -2135,27 +2135,27 @@
       <c r="H26" s="3" t="n"/>
       <c r="I26" s="3" t="n"/>
       <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="n"/>
       <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
+      <c r="N26" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O26" s="3" t="n"/>
       <c r="P26" s="3" t="n"/>
-      <c r="Q26" s="3" t="inlineStr">
+      <c r="Q26" s="3" t="n"/>
+      <c r="R26" s="3" t="inlineStr">
         <is>
           <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
         </is>
       </c>
-      <c r="R26" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="3" t="n"/>
+      <c r="S26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T26" s="3" t="n"/>
       <c r="U26" s="3" t="inlineStr">
         <is>
@@ -2205,29 +2205,29 @@
         </is>
       </c>
       <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K27" s="3" t="n"/>
       <c r="L27" s="3" t="n"/>
       <c r="M27" s="3" t="n"/>
-      <c r="N27" s="3" t="n"/>
+      <c r="N27" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O27" s="3" t="n"/>
       <c r="P27" s="3" t="n"/>
-      <c r="Q27" s="3" t="inlineStr">
+      <c r="Q27" s="3" t="n"/>
+      <c r="R27" s="3" t="inlineStr">
         <is>
           <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
 “Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
 The opposite of interest is boredom.</t>
         </is>
       </c>
-      <c r="R27" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" s="3" t="n"/>
+      <c r="S27" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T27" s="3" t="n"/>
       <c r="U27" s="3" t="inlineStr">
         <is>
@@ -2269,27 +2269,27 @@
       <c r="H28" s="3" t="n"/>
       <c r="I28" s="3" t="n"/>
       <c r="J28" s="3" t="n"/>
-      <c r="K28" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K28" s="3" t="n"/>
       <c r="L28" s="3" t="n"/>
       <c r="M28" s="3" t="n"/>
-      <c r="N28" s="3" t="n"/>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O28" s="3" t="n"/>
       <c r="P28" s="3" t="n"/>
-      <c r="Q28" s="3" t="inlineStr">
+      <c r="Q28" s="3" t="n"/>
+      <c r="R28" s="3" t="inlineStr">
         <is>
           <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
-      <c r="R28" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" s="3" t="n"/>
+      <c r="S28" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T28" s="3" t="n"/>
       <c r="U28" s="3" t="inlineStr">
         <is>
@@ -2339,27 +2339,27 @@
         </is>
       </c>
       <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K29" s="3" t="n"/>
       <c r="L29" s="3" t="n"/>
       <c r="M29" s="3" t="n"/>
-      <c r="N29" s="3" t="n"/>
+      <c r="N29" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O29" s="3" t="n"/>
       <c r="P29" s="3" t="n"/>
-      <c r="Q29" s="3" t="inlineStr">
+      <c r="Q29" s="3" t="n"/>
+      <c r="R29" s="3" t="inlineStr">
         <is>
           <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" s="3" t="n"/>
+      <c r="S29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T29" s="3" t="n"/>
       <c r="U29" s="3" t="inlineStr">
         <is>
@@ -2395,12 +2395,12 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2437,7 +2437,7 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2469,12 +2469,12 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2511,12 +2511,12 @@
           <t>mental process</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2567,23 +2567,23 @@
           <t>The maximum period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K34" s="3" t="n"/>
       <c r="L34" s="3" t="n"/>
       <c r="M34" s="3" t="n"/>
-      <c r="N34" s="3" t="n"/>
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O34" s="3" t="n"/>
       <c r="P34" s="3" t="n"/>
       <c r="Q34" s="3" t="n"/>
-      <c r="R34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="3" t="n"/>
+      <c r="R34" s="3" t="n"/>
+      <c r="S34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T34" s="3" t="n"/>
       <c r="U34" s="3" t="inlineStr">
         <is>
@@ -2633,23 +2633,23 @@
           <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K35" s="3" t="n"/>
       <c r="L35" s="3" t="n"/>
       <c r="M35" s="3" t="n"/>
-      <c r="N35" s="3" t="n"/>
+      <c r="N35" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O35" s="3" t="n"/>
       <c r="P35" s="3" t="n"/>
       <c r="Q35" s="3" t="n"/>
-      <c r="R35" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" s="3" t="n"/>
+      <c r="R35" s="3" t="n"/>
+      <c r="S35" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T35" s="3" t="n"/>
       <c r="U35" s="3" t="inlineStr">
         <is>
@@ -2699,23 +2699,23 @@
           <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K36" s="3" t="n"/>
       <c r="L36" s="3" t="n"/>
       <c r="M36" s="3" t="n"/>
-      <c r="N36" s="3" t="n"/>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O36" s="3" t="n"/>
       <c r="P36" s="3" t="n"/>
       <c r="Q36" s="3" t="n"/>
-      <c r="R36" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="3" t="n"/>
+      <c r="R36" s="3" t="n"/>
+      <c r="S36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T36" s="3" t="n"/>
       <c r="U36" s="3" t="inlineStr">
         <is>
@@ -2765,23 +2765,23 @@
           <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K37" s="3" t="n"/>
       <c r="L37" s="3" t="n"/>
       <c r="M37" s="3" t="n"/>
-      <c r="N37" s="3" t="n"/>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O37" s="3" t="n"/>
       <c r="P37" s="3" t="n"/>
       <c r="Q37" s="3" t="n"/>
-      <c r="R37" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" s="3" t="n"/>
+      <c r="R37" s="3" t="n"/>
+      <c r="S37" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T37" s="3" t="n"/>
       <c r="U37" s="3" t="inlineStr">
         <is>
@@ -2831,23 +2831,23 @@
           <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K38" s="3" t="n"/>
       <c r="L38" s="3" t="n"/>
       <c r="M38" s="3" t="n"/>
-      <c r="N38" s="3" t="n"/>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O38" s="3" t="n"/>
       <c r="P38" s="3" t="n"/>
       <c r="Q38" s="3" t="n"/>
-      <c r="R38" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="3" t="n"/>
+      <c r="R38" s="3" t="n"/>
+      <c r="S38" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T38" s="3" t="n"/>
       <c r="U38" s="3" t="inlineStr">
         <is>
@@ -2897,23 +2897,23 @@
           <t>The mean period of intervention  that participants engaged with.</t>
         </is>
       </c>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K39" s="3" t="n"/>
       <c r="L39" s="3" t="n"/>
       <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="n"/>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O39" s="3" t="n"/>
       <c r="P39" s="3" t="n"/>
       <c r="Q39" s="3" t="n"/>
-      <c r="R39" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" s="3" t="n"/>
+      <c r="R39" s="3" t="n"/>
+      <c r="S39" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T39" s="3" t="n"/>
       <c r="U39" s="3" t="inlineStr">
         <is>
@@ -2963,23 +2963,23 @@
           <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K40" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K40" s="3" t="n"/>
       <c r="L40" s="3" t="n"/>
       <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="n"/>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O40" s="3" t="n"/>
       <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="n"/>
-      <c r="R40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" s="3" t="n"/>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T40" s="3" t="n"/>
       <c r="U40" s="3" t="inlineStr">
         <is>
@@ -3029,23 +3029,23 @@
           <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K41" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K41" s="3" t="n"/>
       <c r="L41" s="3" t="n"/>
       <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="n"/>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n"/>
       <c r="Q41" s="3" t="n"/>
-      <c r="R41" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" s="3" t="n"/>
+      <c r="R41" s="3" t="n"/>
+      <c r="S41" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T41" s="3" t="n"/>
       <c r="U41" s="3" t="inlineStr">
         <is>
@@ -3095,23 +3095,23 @@
           <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K42" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K42" s="3" t="n"/>
       <c r="L42" s="3" t="n"/>
       <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="n"/>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O42" s="3" t="n"/>
       <c r="P42" s="3" t="n"/>
       <c r="Q42" s="3" t="n"/>
-      <c r="R42" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" s="3" t="n"/>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T42" s="3" t="n"/>
       <c r="U42" s="3" t="inlineStr">
         <is>
@@ -3161,23 +3161,23 @@
           <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K43" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K43" s="3" t="n"/>
       <c r="L43" s="3" t="n"/>
       <c r="M43" s="3" t="n"/>
-      <c r="N43" s="3" t="n"/>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O43" s="3" t="n"/>
       <c r="P43" s="3" t="n"/>
       <c r="Q43" s="3" t="n"/>
-      <c r="R43" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" s="3" t="n"/>
+      <c r="R43" s="3" t="n"/>
+      <c r="S43" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T43" s="3" t="n"/>
       <c r="U43" s="3" t="inlineStr">
         <is>
@@ -3227,23 +3227,23 @@
           <t>The median period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K44" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K44" s="3" t="n"/>
       <c r="L44" s="3" t="n"/>
       <c r="M44" s="3" t="n"/>
-      <c r="N44" s="3" t="n"/>
+      <c r="N44" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O44" s="3" t="n"/>
       <c r="P44" s="3" t="n"/>
       <c r="Q44" s="3" t="n"/>
-      <c r="R44" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" s="3" t="n"/>
+      <c r="R44" s="3" t="n"/>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T44" s="3" t="n"/>
       <c r="U44" s="3" t="inlineStr">
         <is>
@@ -3293,23 +3293,23 @@
           <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K45" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K45" s="3" t="n"/>
       <c r="L45" s="3" t="n"/>
       <c r="M45" s="3" t="n"/>
-      <c r="N45" s="3" t="n"/>
+      <c r="N45" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O45" s="3" t="n"/>
       <c r="P45" s="3" t="n"/>
       <c r="Q45" s="3" t="n"/>
-      <c r="R45" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" s="3" t="n"/>
+      <c r="R45" s="3" t="n"/>
+      <c r="S45" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T45" s="3" t="n"/>
       <c r="U45" s="3" t="inlineStr">
         <is>
@@ -3359,23 +3359,23 @@
           <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K46" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K46" s="3" t="n"/>
       <c r="L46" s="3" t="n"/>
       <c r="M46" s="3" t="n"/>
-      <c r="N46" s="3" t="n"/>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O46" s="3" t="n"/>
       <c r="P46" s="3" t="n"/>
       <c r="Q46" s="3" t="n"/>
-      <c r="R46" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="3" t="n"/>
+      <c r="R46" s="3" t="n"/>
+      <c r="S46" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T46" s="3" t="n"/>
       <c r="U46" s="3" t="inlineStr">
         <is>
@@ -3425,23 +3425,23 @@
           <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K47" s="3" t="n"/>
       <c r="L47" s="3" t="n"/>
       <c r="M47" s="3" t="n"/>
-      <c r="N47" s="3" t="n"/>
+      <c r="N47" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O47" s="3" t="n"/>
       <c r="P47" s="3" t="n"/>
       <c r="Q47" s="3" t="n"/>
-      <c r="R47" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S47" s="3" t="n"/>
+      <c r="R47" s="3" t="n"/>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T47" s="3" t="n"/>
       <c r="U47" s="3" t="inlineStr">
         <is>
@@ -3491,23 +3491,23 @@
           <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K48" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K48" s="3" t="n"/>
       <c r="L48" s="3" t="n"/>
       <c r="M48" s="3" t="n"/>
-      <c r="N48" s="3" t="n"/>
+      <c r="N48" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O48" s="3" t="n"/>
       <c r="P48" s="3" t="n"/>
       <c r="Q48" s="3" t="n"/>
-      <c r="R48" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" s="3" t="n"/>
+      <c r="R48" s="3" t="n"/>
+      <c r="S48" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T48" s="3" t="n"/>
       <c r="U48" s="3" t="inlineStr">
         <is>
@@ -3557,23 +3557,23 @@
           <t>The minimum period of intervention that participants engaged with.</t>
         </is>
       </c>
-      <c r="K49" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K49" s="3" t="n"/>
       <c r="L49" s="3" t="n"/>
       <c r="M49" s="3" t="n"/>
-      <c r="N49" s="3" t="n"/>
+      <c r="N49" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O49" s="3" t="n"/>
       <c r="P49" s="3" t="n"/>
       <c r="Q49" s="3" t="n"/>
-      <c r="R49" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" s="3" t="n"/>
+      <c r="R49" s="3" t="n"/>
+      <c r="S49" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T49" s="3" t="n"/>
       <c r="U49" s="3" t="inlineStr">
         <is>
@@ -3623,23 +3623,23 @@
           <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K50" s="3" t="n"/>
       <c r="L50" s="3" t="n"/>
       <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O50" s="3" t="n"/>
       <c r="P50" s="3" t="n"/>
       <c r="Q50" s="3" t="n"/>
-      <c r="R50" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S50" s="3" t="n"/>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T50" s="3" t="n"/>
       <c r="U50" s="3" t="inlineStr">
         <is>
@@ -3689,23 +3689,23 @@
           <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K51" s="3" t="n"/>
       <c r="L51" s="3" t="n"/>
       <c r="M51" s="3" t="n"/>
-      <c r="N51" s="3" t="n"/>
+      <c r="N51" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O51" s="3" t="n"/>
       <c r="P51" s="3" t="n"/>
       <c r="Q51" s="3" t="n"/>
-      <c r="R51" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S51" s="3" t="n"/>
+      <c r="R51" s="3" t="n"/>
+      <c r="S51" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T51" s="3" t="n"/>
       <c r="U51" s="3" t="inlineStr">
         <is>
@@ -3755,23 +3755,23 @@
           <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K52" s="3" t="n"/>
       <c r="L52" s="3" t="n"/>
       <c r="M52" s="3" t="n"/>
-      <c r="N52" s="3" t="n"/>
+      <c r="N52" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O52" s="3" t="n"/>
       <c r="P52" s="3" t="n"/>
       <c r="Q52" s="3" t="n"/>
-      <c r="R52" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S52" s="3" t="n"/>
+      <c r="R52" s="3" t="n"/>
+      <c r="S52" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T52" s="3" t="n"/>
       <c r="U52" s="3" t="inlineStr">
         <is>
@@ -3821,23 +3821,23 @@
           <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
-      <c r="K53" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K53" s="3" t="n"/>
       <c r="L53" s="3" t="n"/>
       <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
+      <c r="N53" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O53" s="3" t="n"/>
       <c r="P53" s="3" t="n"/>
       <c r="Q53" s="3" t="n"/>
-      <c r="R53" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S53" s="3" t="n"/>
+      <c r="R53" s="3" t="n"/>
+      <c r="S53" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T53" s="3" t="n"/>
       <c r="U53" s="3" t="inlineStr">
         <is>
@@ -3873,12 +3873,12 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3929,32 +3929,32 @@
           <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K55" s="3" t="n"/>
       <c r="L55" s="3" t="n"/>
       <c r="M55" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N55" s="3" t="n"/>
+      <c r="N55" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O55" s="3" t="n"/>
       <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="inlineStr">
+      <c r="Q55" s="3" t="n"/>
+      <c r="R55" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
 Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
-      <c r="R55" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" s="3" t="n"/>
+      <c r="S55" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T55" s="3" t="n"/>
       <c r="U55" s="3" t="inlineStr">
         <is>
@@ -4004,23 +4004,23 @@
       <c r="H56" s="3" t="n"/>
       <c r="I56" s="3" t="n"/>
       <c r="J56" s="3" t="n"/>
-      <c r="K56" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K56" s="3" t="n"/>
       <c r="L56" s="3" t="n"/>
       <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="n"/>
+      <c r="N56" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O56" s="3" t="n"/>
       <c r="P56" s="3" t="n"/>
       <c r="Q56" s="3" t="n"/>
-      <c r="R56" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" s="3" t="n"/>
+      <c r="R56" s="3" t="n"/>
+      <c r="S56" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T56" s="3" t="n"/>
       <c r="U56" s="3" t="inlineStr">
         <is>
@@ -4066,23 +4066,23 @@
         </is>
       </c>
       <c r="J57" s="3" t="n"/>
-      <c r="K57" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K57" s="3" t="n"/>
       <c r="L57" s="3" t="n"/>
       <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="n"/>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O57" s="3" t="n"/>
       <c r="P57" s="3" t="n"/>
       <c r="Q57" s="3" t="n"/>
-      <c r="R57" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S57" s="3" t="n"/>
+      <c r="R57" s="3" t="n"/>
+      <c r="S57" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T57" s="3" t="n"/>
       <c r="U57" s="3" t="inlineStr">
         <is>
@@ -4118,12 +4118,12 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4160,12 +4160,12 @@
           <t>temporal region</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4212,23 +4212,23 @@
           <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
-      <c r="K60" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="n"/>
       <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="n"/>
+      <c r="N60" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="n"/>
       <c r="Q60" s="3" t="n"/>
-      <c r="R60" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S60" s="3" t="n"/>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T60" s="3" t="n"/>
       <c r="U60" s="3" t="inlineStr">
         <is>

--- a/Engagement/BCIO_Engagement.xlsx
+++ b/Engagement/BCIO_Engagement.xlsx
@@ -506,29 +506,29 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Fuzzy set</t>
@@ -541,22 +541,22 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Curator</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
         </is>
       </c>
     </row>
@@ -594,19 +594,19 @@
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>An occurrence of engagement that takes place in response to intervention content.</t>
+        </is>
+      </c>
       <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>An occurrence of engagement that takes place in response to intervention content.</t>
-        </is>
-      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -615,16 +615,16 @@
       <c r="T2" s="2" t="n"/>
       <c r="U2" s="2" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
           <t>EJH; Ai</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -672,19 +672,19 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
+        </is>
+      </c>
       <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
-        </is>
-      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="n"/>
       <c r="S3" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -693,16 +693,16 @@
       <c r="T3" s="3" t="n"/>
       <c r="U3" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -738,14 +738,14 @@
       <c r="K4" s="3" t="n"/>
       <c r="L4" s="3" t="n"/>
       <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N4" s="3" t="n"/>
       <c r="O4" s="3" t="n"/>
       <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="3" t="n"/>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R4" s="3" t="n"/>
       <c r="S4" s="3" t="inlineStr">
         <is>
@@ -755,16 +755,16 @@
       <c r="T4" s="3" t="n"/>
       <c r="U4" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -792,14 +792,14 @@
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
       <c r="T5" s="2" t="n"/>
       <c r="U5" s="2" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
+      <c r="X5" s="2" t="inlineStr">
+        <is>
           <t>EJH</t>
         </is>
       </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="n"/>
-      <c r="X5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -847,19 +847,19 @@
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Can we add time related entities? Ontologically correct? Thinking probably best to leave for this version</t>
         </is>
       </c>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -868,16 +868,16 @@
       <c r="T6" s="2" t="n"/>
       <c r="U6" s="2" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
           <t>EJH</t>
         </is>
       </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="n"/>
-      <c r="X6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -901,14 +901,14 @@
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
@@ -918,16 +918,16 @@
       <c r="T7" s="2" t="n"/>
       <c r="U7" s="2" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="n"/>
+      <c r="W7" s="2" t="n"/>
+      <c r="X7" s="2" t="inlineStr">
+        <is>
           <t>EJH</t>
         </is>
       </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="W7" s="2" t="n"/>
-      <c r="X7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -975,20 +975,20 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="3" t="n"/>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
 Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
         </is>
       </c>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="n"/>
       <c r="S8" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -997,16 +997,16 @@
       <c r="T8" s="3" t="n"/>
       <c r="U8" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W8" s="3" t="n"/>
-      <c r="X8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -1042,14 +1042,14 @@
       <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="n"/>
       <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N9" s="3" t="n"/>
       <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="3" t="n"/>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
@@ -1059,16 +1059,16 @@
       <c r="T9" s="3" t="n"/>
       <c r="U9" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1096,7 +1096,7 @@
           <t>Focusing on particular internal or external stimuli.</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -1155,19 +1155,19 @@
       <c r="K11" s="3" t="n"/>
       <c r="L11" s="3" t="n"/>
       <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>This is distinguished from engagement that involves thought processes.</t>
+        </is>
+      </c>
       <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="3" t="n"/>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>This is distinguished from engagement that involves thought processes.</t>
-        </is>
-      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="n"/>
       <c r="S11" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1176,16 +1176,16 @@
       <c r="T11" s="3" t="n"/>
       <c r="U11" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W11" s="3" t="n"/>
-      <c r="X11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1233,20 +1233,20 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O12" s="3" t="n"/>
-      <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="3" t="n"/>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="n"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1255,16 +1255,16 @@
       <c r="T12" s="3" t="n"/>
       <c r="U12" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W12" s="3" t="n"/>
-      <c r="X12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -1300,14 +1300,14 @@
       <c r="K13" s="3" t="n"/>
       <c r="L13" s="3" t="n"/>
       <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N13" s="3" t="n"/>
       <c r="O13" s="3" t="n"/>
       <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="3" t="n"/>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R13" s="3" t="n"/>
       <c r="S13" s="3" t="inlineStr">
         <is>
@@ -1317,16 +1317,16 @@
       <c r="T13" s="3" t="n"/>
       <c r="U13" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W13" s="3" t="n"/>
-      <c r="X13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -1370,21 +1370,21 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="n"/>
-      <c r="Q14" s="3" t="n"/>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
 The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="n"/>
       <c r="S14" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1393,16 +1393,16 @@
       <c r="T14" s="3" t="n"/>
       <c r="U14" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W14" s="3" t="n"/>
-      <c r="X14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1438,14 +1438,14 @@
       <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="n"/>
       <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N15" s="3" t="n"/>
       <c r="O15" s="3" t="n"/>
       <c r="P15" s="3" t="n"/>
-      <c r="Q15" s="3" t="n"/>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R15" s="3" t="n"/>
       <c r="S15" s="3" t="inlineStr">
         <is>
@@ -1455,16 +1455,16 @@
       <c r="T15" s="3" t="n"/>
       <c r="U15" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V15" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -1500,14 +1500,14 @@
       <c r="K16" s="3" t="n"/>
       <c r="L16" s="3" t="n"/>
       <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N16" s="3" t="n"/>
       <c r="O16" s="3" t="n"/>
       <c r="P16" s="3" t="n"/>
-      <c r="Q16" s="3" t="n"/>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R16" s="3" t="n"/>
       <c r="S16" s="3" t="inlineStr">
         <is>
@@ -1517,16 +1517,16 @@
       <c r="T16" s="3" t="n"/>
       <c r="U16" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V16" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W16" s="3" t="n"/>
-      <c r="X16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -1566,19 +1566,19 @@
       <c r="K17" s="3" t="n"/>
       <c r="L17" s="3" t="n"/>
       <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+        </is>
+      </c>
       <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
-        </is>
-      </c>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="n"/>
       <c r="S17" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1587,16 +1587,16 @@
       <c r="T17" s="3" t="n"/>
       <c r="U17" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V17" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W17" s="3" t="n"/>
-      <c r="X17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -1640,19 +1640,19 @@
       <c r="K18" s="3" t="n"/>
       <c r="L18" s="3" t="n"/>
       <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
+        </is>
+      </c>
       <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
-        </is>
-      </c>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="n"/>
       <c r="S18" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1661,16 +1661,16 @@
       <c r="T18" s="3" t="n"/>
       <c r="U18" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V18" s="3" t="n"/>
+      <c r="W18" s="3" t="n"/>
+      <c r="X18" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="V18" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W18" s="3" t="n"/>
-      <c r="X18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1710,19 +1710,19 @@
       <c r="K19" s="3" t="n"/>
       <c r="L19" s="3" t="n"/>
       <c r="M19" s="3" t="n"/>
-      <c r="N19" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
+        </is>
+      </c>
       <c r="P19" s="3" t="n"/>
-      <c r="Q19" s="3" t="n"/>
-      <c r="R19" s="3" t="inlineStr">
-        <is>
-          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
-        </is>
-      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="n"/>
       <c r="S19" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1731,16 +1731,16 @@
       <c r="T19" s="3" t="n"/>
       <c r="U19" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V19" s="3" t="n"/>
+      <c r="W19" s="3" t="n"/>
+      <c r="X19" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V19" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W19" s="3" t="n"/>
-      <c r="X19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves an appraisal process.</t>
+          <t>A cognitive BCI engagement that involves a judging process.</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -1780,19 +1780,19 @@
       <c r="K20" s="3" t="n"/>
       <c r="L20" s="3" t="n"/>
       <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="inlineStr">
+        <is>
+          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
+        </is>
+      </c>
       <c r="P20" s="3" t="n"/>
-      <c r="Q20" s="3" t="n"/>
-      <c r="R20" s="3" t="inlineStr">
-        <is>
-          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
-        </is>
-      </c>
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="n"/>
       <c r="S20" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1801,16 +1801,16 @@
       <c r="T20" s="3" t="n"/>
       <c r="U20" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V20" s="3" t="n"/>
+      <c r="W20" s="3" t="n"/>
+      <c r="X20" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V20" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W20" s="3" t="n"/>
-      <c r="X20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1838,7 +1838,7 @@
           <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1850,12 +1850,12 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
           <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -1889,14 +1889,14 @@
       <c r="K22" s="3" t="n"/>
       <c r="L22" s="3" t="n"/>
       <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N22" s="3" t="n"/>
       <c r="O22" s="3" t="n"/>
       <c r="P22" s="3" t="n"/>
-      <c r="Q22" s="3" t="n"/>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R22" s="3" t="n"/>
       <c r="S22" s="3" t="inlineStr">
         <is>
@@ -1906,16 +1906,16 @@
       <c r="T22" s="3" t="n"/>
       <c r="U22" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V22" s="3" t="n"/>
+      <c r="W22" s="3" t="n"/>
+      <c r="X22" s="3" t="inlineStr">
+        <is>
           <t>Ai; PS</t>
         </is>
       </c>
-      <c r="V22" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W22" s="3" t="n"/>
-      <c r="X22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1938,7 +1938,7 @@
           <t>mental process</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1950,12 +1950,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
           <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -2001,20 +2001,20 @@
       <c r="K24" s="3" t="n"/>
       <c r="L24" s="3" t="n"/>
       <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O24" s="3" t="n"/>
-      <c r="P24" s="3" t="n"/>
-      <c r="Q24" s="3" t="n"/>
-      <c r="R24" s="3" t="inlineStr">
+      <c r="N24" s="3" t="n"/>
+      <c r="O24" s="3" t="inlineStr">
         <is>
           <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
 “Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
+      <c r="P24" s="3" t="n"/>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="n"/>
       <c r="S24" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2023,16 +2023,16 @@
       <c r="T24" s="3" t="n"/>
       <c r="U24" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V24" s="3" t="n"/>
+      <c r="W24" s="3" t="n"/>
+      <c r="X24" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V24" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W24" s="3" t="n"/>
-      <c r="X24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -2072,19 +2072,19 @@
       <c r="K25" s="3" t="n"/>
       <c r="L25" s="3" t="n"/>
       <c r="M25" s="3" t="n"/>
-      <c r="N25" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O25" s="3" t="n"/>
+      <c r="N25" s="3" t="n"/>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
+        </is>
+      </c>
       <c r="P25" s="3" t="n"/>
-      <c r="Q25" s="3" t="n"/>
-      <c r="R25" s="3" t="inlineStr">
-        <is>
-          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
-        </is>
-      </c>
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R25" s="3" t="n"/>
       <c r="S25" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2093,16 +2093,16 @@
       <c r="T25" s="3" t="n"/>
       <c r="U25" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V25" s="3" t="n"/>
+      <c r="W25" s="3" t="n"/>
+      <c r="X25" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V25" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W25" s="3" t="n"/>
-      <c r="X25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -2138,19 +2138,19 @@
       <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="n"/>
       <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
+        </is>
+      </c>
       <c r="P26" s="3" t="n"/>
-      <c r="Q26" s="3" t="n"/>
-      <c r="R26" s="3" t="inlineStr">
-        <is>
-          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
-        </is>
-      </c>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="n"/>
       <c r="S26" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2159,16 +2159,16 @@
       <c r="T26" s="3" t="n"/>
       <c r="U26" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V26" s="3" t="n"/>
+      <c r="W26" s="3" t="n"/>
+      <c r="X26" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V26" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W26" s="3" t="n"/>
-      <c r="X26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -2208,21 +2208,21 @@
       <c r="K27" s="3" t="n"/>
       <c r="L27" s="3" t="n"/>
       <c r="M27" s="3" t="n"/>
-      <c r="N27" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O27" s="3" t="n"/>
-      <c r="P27" s="3" t="n"/>
-      <c r="Q27" s="3" t="n"/>
-      <c r="R27" s="3" t="inlineStr">
+      <c r="N27" s="3" t="n"/>
+      <c r="O27" s="3" t="inlineStr">
         <is>
           <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
 “Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
 The opposite of interest is boredom.</t>
         </is>
       </c>
+      <c r="P27" s="3" t="n"/>
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R27" s="3" t="n"/>
       <c r="S27" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2231,16 +2231,16 @@
       <c r="T27" s="3" t="n"/>
       <c r="U27" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V27" s="3" t="n"/>
+      <c r="W27" s="3" t="n"/>
+      <c r="X27" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V27" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W27" s="3" t="n"/>
-      <c r="X27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -2272,19 +2272,19 @@
       <c r="K28" s="3" t="n"/>
       <c r="L28" s="3" t="n"/>
       <c r="M28" s="3" t="n"/>
-      <c r="N28" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O28" s="3" t="n"/>
+      <c r="N28" s="3" t="n"/>
+      <c r="O28" s="3" t="inlineStr">
+        <is>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+        </is>
+      </c>
       <c r="P28" s="3" t="n"/>
-      <c r="Q28" s="3" t="n"/>
-      <c r="R28" s="3" t="inlineStr">
-        <is>
-          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
-        </is>
-      </c>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R28" s="3" t="n"/>
       <c r="S28" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2293,16 +2293,16 @@
       <c r="T28" s="3" t="n"/>
       <c r="U28" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V28" s="3" t="n"/>
+      <c r="W28" s="3" t="n"/>
+      <c r="X28" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V28" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W28" s="3" t="n"/>
-      <c r="X28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -2342,19 +2342,19 @@
       <c r="K29" s="3" t="n"/>
       <c r="L29" s="3" t="n"/>
       <c r="M29" s="3" t="n"/>
-      <c r="N29" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="inlineStr">
+        <is>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+        </is>
+      </c>
       <c r="P29" s="3" t="n"/>
-      <c r="Q29" s="3" t="n"/>
-      <c r="R29" s="3" t="inlineStr">
-        <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
-        </is>
-      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="n"/>
       <c r="S29" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2363,16 +2363,16 @@
       <c r="T29" s="3" t="n"/>
       <c r="U29" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V29" s="3" t="n"/>
+      <c r="W29" s="3" t="n"/>
+      <c r="X29" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; CM; PS</t>
         </is>
       </c>
-      <c r="V29" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W29" s="3" t="n"/>
-      <c r="X29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2395,7 +2395,7 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
           <t>Ai</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -2469,7 +2469,7 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
           <t>Ai</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
           <t>mental process</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
           <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -2570,14 +2570,14 @@
       <c r="K34" s="3" t="n"/>
       <c r="L34" s="3" t="n"/>
       <c r="M34" s="3" t="n"/>
-      <c r="N34" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N34" s="3" t="n"/>
       <c r="O34" s="3" t="n"/>
       <c r="P34" s="3" t="n"/>
-      <c r="Q34" s="3" t="n"/>
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R34" s="3" t="n"/>
       <c r="S34" s="3" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
       <c r="T34" s="3" t="n"/>
       <c r="U34" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V34" s="3" t="n"/>
+      <c r="W34" s="3" t="n"/>
+      <c r="X34" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V34" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W34" s="3" t="n"/>
-      <c r="X34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -2636,14 +2636,14 @@
       <c r="K35" s="3" t="n"/>
       <c r="L35" s="3" t="n"/>
       <c r="M35" s="3" t="n"/>
-      <c r="N35" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N35" s="3" t="n"/>
       <c r="O35" s="3" t="n"/>
       <c r="P35" s="3" t="n"/>
-      <c r="Q35" s="3" t="n"/>
+      <c r="Q35" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R35" s="3" t="n"/>
       <c r="S35" s="3" t="inlineStr">
         <is>
@@ -2653,16 +2653,16 @@
       <c r="T35" s="3" t="n"/>
       <c r="U35" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V35" s="3" t="n"/>
+      <c r="W35" s="3" t="n"/>
+      <c r="X35" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V35" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W35" s="3" t="n"/>
-      <c r="X35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2702,14 +2702,14 @@
       <c r="K36" s="3" t="n"/>
       <c r="L36" s="3" t="n"/>
       <c r="M36" s="3" t="n"/>
-      <c r="N36" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N36" s="3" t="n"/>
       <c r="O36" s="3" t="n"/>
       <c r="P36" s="3" t="n"/>
-      <c r="Q36" s="3" t="n"/>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R36" s="3" t="n"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
@@ -2719,16 +2719,16 @@
       <c r="T36" s="3" t="n"/>
       <c r="U36" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V36" s="3" t="n"/>
+      <c r="W36" s="3" t="n"/>
+      <c r="X36" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V36" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W36" s="3" t="n"/>
-      <c r="X36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -2768,14 +2768,14 @@
       <c r="K37" s="3" t="n"/>
       <c r="L37" s="3" t="n"/>
       <c r="M37" s="3" t="n"/>
-      <c r="N37" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N37" s="3" t="n"/>
       <c r="O37" s="3" t="n"/>
       <c r="P37" s="3" t="n"/>
-      <c r="Q37" s="3" t="n"/>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R37" s="3" t="n"/>
       <c r="S37" s="3" t="inlineStr">
         <is>
@@ -2785,16 +2785,16 @@
       <c r="T37" s="3" t="n"/>
       <c r="U37" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V37" s="3" t="n"/>
+      <c r="W37" s="3" t="n"/>
+      <c r="X37" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V37" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W37" s="3" t="n"/>
-      <c r="X37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -2834,14 +2834,14 @@
       <c r="K38" s="3" t="n"/>
       <c r="L38" s="3" t="n"/>
       <c r="M38" s="3" t="n"/>
-      <c r="N38" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N38" s="3" t="n"/>
       <c r="O38" s="3" t="n"/>
       <c r="P38" s="3" t="n"/>
-      <c r="Q38" s="3" t="n"/>
+      <c r="Q38" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R38" s="3" t="n"/>
       <c r="S38" s="3" t="inlineStr">
         <is>
@@ -2851,16 +2851,16 @@
       <c r="T38" s="3" t="n"/>
       <c r="U38" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V38" s="3" t="n"/>
+      <c r="W38" s="3" t="n"/>
+      <c r="X38" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V38" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W38" s="3" t="n"/>
-      <c r="X38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -2900,14 +2900,14 @@
       <c r="K39" s="3" t="n"/>
       <c r="L39" s="3" t="n"/>
       <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N39" s="3" t="n"/>
       <c r="O39" s="3" t="n"/>
       <c r="P39" s="3" t="n"/>
-      <c r="Q39" s="3" t="n"/>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
       <c r="T39" s="3" t="n"/>
       <c r="U39" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V39" s="3" t="n"/>
+      <c r="W39" s="3" t="n"/>
+      <c r="X39" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V39" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W39" s="3" t="n"/>
-      <c r="X39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -2966,14 +2966,14 @@
       <c r="K40" s="3" t="n"/>
       <c r="L40" s="3" t="n"/>
       <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N40" s="3" t="n"/>
       <c r="O40" s="3" t="n"/>
       <c r="P40" s="3" t="n"/>
-      <c r="Q40" s="3" t="n"/>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="inlineStr">
         <is>
@@ -2983,16 +2983,16 @@
       <c r="T40" s="3" t="n"/>
       <c r="U40" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V40" s="3" t="n"/>
+      <c r="W40" s="3" t="n"/>
+      <c r="X40" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V40" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W40" s="3" t="n"/>
-      <c r="X40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -3032,14 +3032,14 @@
       <c r="K41" s="3" t="n"/>
       <c r="L41" s="3" t="n"/>
       <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N41" s="3" t="n"/>
       <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n"/>
-      <c r="Q41" s="3" t="n"/>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
@@ -3049,16 +3049,16 @@
       <c r="T41" s="3" t="n"/>
       <c r="U41" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V41" s="3" t="n"/>
+      <c r="W41" s="3" t="n"/>
+      <c r="X41" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V41" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W41" s="3" t="n"/>
-      <c r="X41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -3098,14 +3098,14 @@
       <c r="K42" s="3" t="n"/>
       <c r="L42" s="3" t="n"/>
       <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N42" s="3" t="n"/>
       <c r="O42" s="3" t="n"/>
       <c r="P42" s="3" t="n"/>
-      <c r="Q42" s="3" t="n"/>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R42" s="3" t="n"/>
       <c r="S42" s="3" t="inlineStr">
         <is>
@@ -3115,16 +3115,16 @@
       <c r="T42" s="3" t="n"/>
       <c r="U42" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V42" s="3" t="n"/>
+      <c r="W42" s="3" t="n"/>
+      <c r="X42" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W42" s="3" t="n"/>
-      <c r="X42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -3164,14 +3164,14 @@
       <c r="K43" s="3" t="n"/>
       <c r="L43" s="3" t="n"/>
       <c r="M43" s="3" t="n"/>
-      <c r="N43" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N43" s="3" t="n"/>
       <c r="O43" s="3" t="n"/>
       <c r="P43" s="3" t="n"/>
-      <c r="Q43" s="3" t="n"/>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R43" s="3" t="n"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
@@ -3181,16 +3181,16 @@
       <c r="T43" s="3" t="n"/>
       <c r="U43" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V43" s="3" t="n"/>
+      <c r="W43" s="3" t="n"/>
+      <c r="X43" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V43" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W43" s="3" t="n"/>
-      <c r="X43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -3230,14 +3230,14 @@
       <c r="K44" s="3" t="n"/>
       <c r="L44" s="3" t="n"/>
       <c r="M44" s="3" t="n"/>
-      <c r="N44" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N44" s="3" t="n"/>
       <c r="O44" s="3" t="n"/>
       <c r="P44" s="3" t="n"/>
-      <c r="Q44" s="3" t="n"/>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R44" s="3" t="n"/>
       <c r="S44" s="3" t="inlineStr">
         <is>
@@ -3247,16 +3247,16 @@
       <c r="T44" s="3" t="n"/>
       <c r="U44" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V44" s="3" t="n"/>
+      <c r="W44" s="3" t="n"/>
+      <c r="X44" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V44" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W44" s="3" t="n"/>
-      <c r="X44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -3296,14 +3296,14 @@
       <c r="K45" s="3" t="n"/>
       <c r="L45" s="3" t="n"/>
       <c r="M45" s="3" t="n"/>
-      <c r="N45" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N45" s="3" t="n"/>
       <c r="O45" s="3" t="n"/>
       <c r="P45" s="3" t="n"/>
-      <c r="Q45" s="3" t="n"/>
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R45" s="3" t="n"/>
       <c r="S45" s="3" t="inlineStr">
         <is>
@@ -3313,16 +3313,16 @@
       <c r="T45" s="3" t="n"/>
       <c r="U45" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V45" s="3" t="n"/>
+      <c r="W45" s="3" t="n"/>
+      <c r="X45" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V45" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W45" s="3" t="n"/>
-      <c r="X45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -3362,14 +3362,14 @@
       <c r="K46" s="3" t="n"/>
       <c r="L46" s="3" t="n"/>
       <c r="M46" s="3" t="n"/>
-      <c r="N46" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N46" s="3" t="n"/>
       <c r="O46" s="3" t="n"/>
       <c r="P46" s="3" t="n"/>
-      <c r="Q46" s="3" t="n"/>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R46" s="3" t="n"/>
       <c r="S46" s="3" t="inlineStr">
         <is>
@@ -3379,16 +3379,16 @@
       <c r="T46" s="3" t="n"/>
       <c r="U46" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V46" s="3" t="n"/>
+      <c r="W46" s="3" t="n"/>
+      <c r="X46" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V46" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W46" s="3" t="n"/>
-      <c r="X46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -3428,14 +3428,14 @@
       <c r="K47" s="3" t="n"/>
       <c r="L47" s="3" t="n"/>
       <c r="M47" s="3" t="n"/>
-      <c r="N47" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N47" s="3" t="n"/>
       <c r="O47" s="3" t="n"/>
       <c r="P47" s="3" t="n"/>
-      <c r="Q47" s="3" t="n"/>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R47" s="3" t="n"/>
       <c r="S47" s="3" t="inlineStr">
         <is>
@@ -3445,16 +3445,16 @@
       <c r="T47" s="3" t="n"/>
       <c r="U47" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V47" s="3" t="n"/>
+      <c r="W47" s="3" t="n"/>
+      <c r="X47" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W47" s="3" t="n"/>
-      <c r="X47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -3494,14 +3494,14 @@
       <c r="K48" s="3" t="n"/>
       <c r="L48" s="3" t="n"/>
       <c r="M48" s="3" t="n"/>
-      <c r="N48" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N48" s="3" t="n"/>
       <c r="O48" s="3" t="n"/>
       <c r="P48" s="3" t="n"/>
-      <c r="Q48" s="3" t="n"/>
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R48" s="3" t="n"/>
       <c r="S48" s="3" t="inlineStr">
         <is>
@@ -3511,16 +3511,16 @@
       <c r="T48" s="3" t="n"/>
       <c r="U48" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V48" s="3" t="n"/>
+      <c r="W48" s="3" t="n"/>
+      <c r="X48" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V48" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W48" s="3" t="n"/>
-      <c r="X48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -3560,14 +3560,14 @@
       <c r="K49" s="3" t="n"/>
       <c r="L49" s="3" t="n"/>
       <c r="M49" s="3" t="n"/>
-      <c r="N49" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N49" s="3" t="n"/>
       <c r="O49" s="3" t="n"/>
       <c r="P49" s="3" t="n"/>
-      <c r="Q49" s="3" t="n"/>
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R49" s="3" t="n"/>
       <c r="S49" s="3" t="inlineStr">
         <is>
@@ -3577,16 +3577,16 @@
       <c r="T49" s="3" t="n"/>
       <c r="U49" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V49" s="3" t="n"/>
+      <c r="W49" s="3" t="n"/>
+      <c r="X49" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V49" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W49" s="3" t="n"/>
-      <c r="X49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3626,14 +3626,14 @@
       <c r="K50" s="3" t="n"/>
       <c r="L50" s="3" t="n"/>
       <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N50" s="3" t="n"/>
       <c r="O50" s="3" t="n"/>
       <c r="P50" s="3" t="n"/>
-      <c r="Q50" s="3" t="n"/>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R50" s="3" t="n"/>
       <c r="S50" s="3" t="inlineStr">
         <is>
@@ -3643,16 +3643,16 @@
       <c r="T50" s="3" t="n"/>
       <c r="U50" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V50" s="3" t="n"/>
+      <c r="W50" s="3" t="n"/>
+      <c r="X50" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V50" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W50" s="3" t="n"/>
-      <c r="X50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -3692,14 +3692,14 @@
       <c r="K51" s="3" t="n"/>
       <c r="L51" s="3" t="n"/>
       <c r="M51" s="3" t="n"/>
-      <c r="N51" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N51" s="3" t="n"/>
       <c r="O51" s="3" t="n"/>
       <c r="P51" s="3" t="n"/>
-      <c r="Q51" s="3" t="n"/>
+      <c r="Q51" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R51" s="3" t="n"/>
       <c r="S51" s="3" t="inlineStr">
         <is>
@@ -3709,16 +3709,16 @@
       <c r="T51" s="3" t="n"/>
       <c r="U51" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V51" s="3" t="n"/>
+      <c r="W51" s="3" t="n"/>
+      <c r="X51" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V51" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W51" s="3" t="n"/>
-      <c r="X51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
@@ -3758,14 +3758,14 @@
       <c r="K52" s="3" t="n"/>
       <c r="L52" s="3" t="n"/>
       <c r="M52" s="3" t="n"/>
-      <c r="N52" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N52" s="3" t="n"/>
       <c r="O52" s="3" t="n"/>
       <c r="P52" s="3" t="n"/>
-      <c r="Q52" s="3" t="n"/>
+      <c r="Q52" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R52" s="3" t="n"/>
       <c r="S52" s="3" t="inlineStr">
         <is>
@@ -3775,16 +3775,16 @@
       <c r="T52" s="3" t="n"/>
       <c r="U52" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V52" s="3" t="n"/>
+      <c r="W52" s="3" t="n"/>
+      <c r="X52" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V52" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W52" s="3" t="n"/>
-      <c r="X52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3824,14 +3824,14 @@
       <c r="K53" s="3" t="n"/>
       <c r="L53" s="3" t="n"/>
       <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N53" s="3" t="n"/>
       <c r="O53" s="3" t="n"/>
       <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="3" t="n"/>
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R53" s="3" t="n"/>
       <c r="S53" s="3" t="inlineStr">
         <is>
@@ -3841,16 +3841,16 @@
       <c r="T53" s="3" t="n"/>
       <c r="U53" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V53" s="3" t="n"/>
+      <c r="W53" s="3" t="n"/>
+      <c r="X53" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V53" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W53" s="3" t="n"/>
-      <c r="X53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3873,7 +3873,7 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -3885,12 +3885,12 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
           <t>PS</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -3936,20 +3936,20 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="N55" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
-      <c r="O55" s="3" t="n"/>
-      <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="n"/>
-      <c r="R55" s="3" t="inlineStr">
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
 Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
+      <c r="P55" s="3" t="n"/>
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3958,16 +3958,16 @@
       <c r="T55" s="3" t="n"/>
       <c r="U55" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V55" s="3" t="n"/>
+      <c r="W55" s="3" t="n"/>
+      <c r="X55" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="V55" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W55" s="3" t="n"/>
-      <c r="X55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -4007,14 +4007,14 @@
       <c r="K56" s="3" t="n"/>
       <c r="L56" s="3" t="n"/>
       <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N56" s="3" t="n"/>
       <c r="O56" s="3" t="n"/>
       <c r="P56" s="3" t="n"/>
-      <c r="Q56" s="3" t="n"/>
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="inlineStr">
         <is>
@@ -4024,16 +4024,16 @@
       <c r="T56" s="3" t="n"/>
       <c r="U56" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V56" s="3" t="n"/>
+      <c r="W56" s="3" t="n"/>
+      <c r="X56" s="3" t="inlineStr">
+        <is>
           <t>EJH; Ai; PS</t>
         </is>
       </c>
-      <c r="V56" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W56" s="3" t="n"/>
-      <c r="X56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>An individual human activity that is performed by someone in an intervention population, prompted by this intervention and influences the effects of the intervention on its outcome.</t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
       <c r="D57" s="3" t="n"/>
@@ -4069,14 +4069,14 @@
       <c r="K57" s="3" t="n"/>
       <c r="L57" s="3" t="n"/>
       <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N57" s="3" t="n"/>
       <c r="O57" s="3" t="n"/>
       <c r="P57" s="3" t="n"/>
-      <c r="Q57" s="3" t="n"/>
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R57" s="3" t="n"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
@@ -4086,16 +4086,16 @@
       <c r="T57" s="3" t="n"/>
       <c r="U57" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V57" s="3" t="n"/>
+      <c r="W57" s="3" t="n"/>
+      <c r="X57" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V57" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W57" s="3" t="n"/>
-      <c r="X57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4118,7 +4118,7 @@
           <t>emotion process</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
           <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
           <t>temporal region</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -4172,12 +4172,12 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
           <t>Ai; PS</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -4215,14 +4215,14 @@
       <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="n"/>
       <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="N60" s="3" t="n"/>
       <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="n"/>
-      <c r="Q60" s="3" t="n"/>
+      <c r="Q60" s="3" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
       <c r="R60" s="3" t="n"/>
       <c r="S60" s="3" t="inlineStr">
         <is>
@@ -4232,16 +4232,16 @@
       <c r="T60" s="3" t="n"/>
       <c r="U60" s="3" t="inlineStr">
         <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="V60" s="3" t="n"/>
+      <c r="W60" s="3" t="n"/>
+      <c r="X60" s="3" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="V60" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="W60" s="3" t="n"/>
-      <c r="X60" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
